--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{CE9BC4A8-8A4A-440E-87B0-53259CA0F092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A301049-4F9A-4136-ACEF-E0D2A28A248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlanning" sheetId="11" r:id="rId1"/>
@@ -1187,7 +1187,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1396,18 +1396,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1432,9 +1420,6 @@
     <xf numFmtId="9" fontId="8" fillId="46" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1457,15 +1442,9 @@
     <xf numFmtId="169" fontId="8" fillId="47" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1489,6 +1468,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1546,7 +1554,7 @@
     <cellStyle name="Waarschuwingstekst" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -1557,31 +1565,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1607,11 +1590,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1625,11 +1613,27 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1641,6 +1645,40 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1681,9 +1719,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1709,11 +1751,27 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1739,13 +1797,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1769,13 +1820,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1790,32 +1834,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1827,103 +1848,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2033,15 +1957,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Takenlijst" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2458,9 +2382,9 @@
   </sheetPr>
   <dimension ref="A1:GC75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y61" sqref="Y61"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2487,28 +2411,28 @@
       <c r="H1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="110" t="s">
+      <c r="AH1" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AN1" s="98" t="s">
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AN1" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="FC1" s="100" t="s">
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="FC1" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="FD1" s="100"/>
-      <c r="FE1" s="100"/>
-      <c r="FF1" s="100"/>
-      <c r="FG1" s="100"/>
-      <c r="FH1" s="96"/>
-      <c r="GC1" s="102">
+      <c r="FD1" s="93"/>
+      <c r="FE1" s="93"/>
+      <c r="FF1" s="93"/>
+      <c r="FG1" s="93"/>
+      <c r="FH1" s="90"/>
+      <c r="GC1" s="95">
         <v>1</v>
       </c>
     </row>
@@ -2519,31 +2443,31 @@
       <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="101" t="s">
+      <c r="CA2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="CG2" s="100" t="s">
+      <c r="CG2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="CH2" s="100"/>
-      <c r="CI2" s="100"/>
-      <c r="CJ2" s="100"/>
-      <c r="CK2" s="100"/>
-      <c r="EZ2" s="101" t="s">
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
+      <c r="CJ2" s="93"/>
+      <c r="CK2" s="93"/>
+      <c r="EZ2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="FC2" s="96"/>
-      <c r="FF2" s="100" t="s">
+      <c r="FC2" s="90"/>
+      <c r="FF2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="FG2" s="100"/>
-      <c r="FH2" s="100"/>
-      <c r="FI2" s="100"/>
-      <c r="FJ2" s="100"/>
-      <c r="FK2" s="96"/>
-      <c r="FL2" s="96"/>
-      <c r="FM2" s="96"/>
-      <c r="GC2" s="102">
+      <c r="FG2" s="93"/>
+      <c r="FH2" s="93"/>
+      <c r="FI2" s="93"/>
+      <c r="FJ2" s="93"/>
+      <c r="FK2" s="90"/>
+      <c r="FL2" s="90"/>
+      <c r="FM2" s="90"/>
+      <c r="GC2" s="95">
         <v>1</v>
       </c>
     </row>
@@ -2552,54 +2476,54 @@
         <v>22</v>
       </c>
       <c r="C3" s="73"/>
-      <c r="D3" s="77">
+      <c r="D3" s="109">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="P3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AY3" s="96"/>
-      <c r="BM3" s="97"/>
-      <c r="BN3" s="96"/>
-      <c r="BO3" s="95" t="s">
+      <c r="E3" s="109"/>
+      <c r="P3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AY3" s="90"/>
+      <c r="BM3" s="91"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="95"/>
-      <c r="BQ3" s="95"/>
-      <c r="BR3" s="95"/>
-      <c r="BS3" s="95"/>
-      <c r="BT3" s="95"/>
-      <c r="BU3" s="95"/>
-      <c r="BV3" s="95"/>
-      <c r="BW3" s="95"/>
-      <c r="BX3" s="95"/>
-      <c r="BY3" s="95"/>
-      <c r="CA3" s="97"/>
-      <c r="CG3" s="96"/>
-      <c r="CO3" s="97"/>
-      <c r="DC3" s="97"/>
-      <c r="DP3" s="99" t="s">
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="107"/>
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="107"/>
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="107"/>
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="107"/>
+      <c r="BY3" s="107"/>
+      <c r="CA3" s="91"/>
+      <c r="CG3" s="90"/>
+      <c r="CO3" s="91"/>
+      <c r="DC3" s="91"/>
+      <c r="DP3" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="99"/>
-      <c r="DR3" s="99"/>
-      <c r="DS3" s="99"/>
-      <c r="DT3" s="99"/>
-      <c r="DU3" s="99"/>
-      <c r="DV3" s="99"/>
-      <c r="DW3" s="99"/>
-      <c r="DX3" s="99"/>
-      <c r="DY3" s="99"/>
-      <c r="DZ3" s="99"/>
-      <c r="EA3" s="99"/>
-      <c r="EB3" s="99"/>
-      <c r="EC3" s="99"/>
-      <c r="EZ3" s="97"/>
-      <c r="FC3" s="96"/>
-      <c r="FF3" s="96"/>
-      <c r="GC3" s="102">
+      <c r="DQ3" s="108"/>
+      <c r="DR3" s="108"/>
+      <c r="DS3" s="108"/>
+      <c r="DT3" s="108"/>
+      <c r="DU3" s="108"/>
+      <c r="DV3" s="108"/>
+      <c r="DW3" s="108"/>
+      <c r="DX3" s="108"/>
+      <c r="DY3" s="108"/>
+      <c r="DZ3" s="108"/>
+      <c r="EA3" s="108"/>
+      <c r="EB3" s="108"/>
+      <c r="EC3" s="108"/>
+      <c r="EZ3" s="91"/>
+      <c r="FC3" s="90"/>
+      <c r="FF3" s="90"/>
+      <c r="GC3" s="95">
         <v>1</v>
       </c>
     </row>
@@ -2608,257 +2532,257 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="104">
         <f>H5</f>
         <v>45901</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="74">
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="104">
         <f>O5</f>
         <v>45908</v>
       </c>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="74">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="104">
         <f>V5</f>
         <v>45915</v>
       </c>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="74">
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="104">
         <f>AC5</f>
         <v>45922</v>
       </c>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="74">
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="104">
         <f>AJ5</f>
         <v>45929</v>
       </c>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="74">
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="104">
         <f>AQ5</f>
         <v>45936</v>
       </c>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="75"/>
-      <c r="AU4" s="75"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="74">
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="104">
         <f>AX5</f>
         <v>45943</v>
       </c>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="74">
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="104">
         <f>BE5</f>
         <v>45950</v>
       </c>
-      <c r="BF4" s="75"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="75"/>
-      <c r="BI4" s="75"/>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="74">
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="104">
         <f>BL5</f>
         <v>45957</v>
       </c>
-      <c r="BM4" s="75"/>
-      <c r="BN4" s="75"/>
-      <c r="BO4" s="75"/>
-      <c r="BP4" s="75"/>
-      <c r="BQ4" s="75"/>
-      <c r="BR4" s="76"/>
-      <c r="BS4" s="74">
+      <c r="BM4" s="105"/>
+      <c r="BN4" s="105"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="105"/>
+      <c r="BQ4" s="105"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="104">
         <f>BS5</f>
         <v>45964</v>
       </c>
-      <c r="BT4" s="75"/>
-      <c r="BU4" s="75"/>
-      <c r="BV4" s="75"/>
-      <c r="BW4" s="75"/>
-      <c r="BX4" s="75"/>
-      <c r="BY4" s="76"/>
-      <c r="BZ4" s="74">
+      <c r="BT4" s="105"/>
+      <c r="BU4" s="105"/>
+      <c r="BV4" s="105"/>
+      <c r="BW4" s="105"/>
+      <c r="BX4" s="105"/>
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="104">
         <f>BZ5</f>
         <v>45971</v>
       </c>
-      <c r="CA4" s="75"/>
-      <c r="CB4" s="75"/>
-      <c r="CC4" s="75"/>
-      <c r="CD4" s="75"/>
-      <c r="CE4" s="75"/>
-      <c r="CF4" s="76"/>
-      <c r="CG4" s="74">
+      <c r="CA4" s="105"/>
+      <c r="CB4" s="105"/>
+      <c r="CC4" s="105"/>
+      <c r="CD4" s="105"/>
+      <c r="CE4" s="105"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="104">
         <f>CG5</f>
         <v>45978</v>
       </c>
-      <c r="CH4" s="75"/>
-      <c r="CI4" s="75"/>
-      <c r="CJ4" s="75"/>
-      <c r="CK4" s="75"/>
-      <c r="CL4" s="75"/>
-      <c r="CM4" s="76"/>
-      <c r="CN4" s="74">
+      <c r="CH4" s="105"/>
+      <c r="CI4" s="105"/>
+      <c r="CJ4" s="105"/>
+      <c r="CK4" s="105"/>
+      <c r="CL4" s="105"/>
+      <c r="CM4" s="106"/>
+      <c r="CN4" s="104">
         <f>CN5</f>
         <v>45985</v>
       </c>
-      <c r="CO4" s="75"/>
-      <c r="CP4" s="75"/>
-      <c r="CQ4" s="75"/>
-      <c r="CR4" s="75"/>
-      <c r="CS4" s="75"/>
-      <c r="CT4" s="76"/>
-      <c r="CU4" s="74">
+      <c r="CO4" s="105"/>
+      <c r="CP4" s="105"/>
+      <c r="CQ4" s="105"/>
+      <c r="CR4" s="105"/>
+      <c r="CS4" s="105"/>
+      <c r="CT4" s="106"/>
+      <c r="CU4" s="104">
         <f>CU5</f>
         <v>45992</v>
       </c>
-      <c r="CV4" s="75"/>
-      <c r="CW4" s="75"/>
-      <c r="CX4" s="75"/>
-      <c r="CY4" s="75"/>
-      <c r="CZ4" s="75"/>
-      <c r="DA4" s="76"/>
-      <c r="DB4" s="74">
+      <c r="CV4" s="105"/>
+      <c r="CW4" s="105"/>
+      <c r="CX4" s="105"/>
+      <c r="CY4" s="105"/>
+      <c r="CZ4" s="105"/>
+      <c r="DA4" s="106"/>
+      <c r="DB4" s="104">
         <f t="shared" ref="DB4" si="0">DB5</f>
         <v>45999</v>
       </c>
-      <c r="DC4" s="75"/>
-      <c r="DD4" s="75"/>
-      <c r="DE4" s="75"/>
-      <c r="DF4" s="75"/>
-      <c r="DG4" s="75"/>
-      <c r="DH4" s="76"/>
-      <c r="DI4" s="74">
+      <c r="DC4" s="105"/>
+      <c r="DD4" s="105"/>
+      <c r="DE4" s="105"/>
+      <c r="DF4" s="105"/>
+      <c r="DG4" s="105"/>
+      <c r="DH4" s="106"/>
+      <c r="DI4" s="104">
         <f t="shared" ref="DI4" si="1">DI5</f>
         <v>46006</v>
       </c>
-      <c r="DJ4" s="75"/>
-      <c r="DK4" s="75"/>
-      <c r="DL4" s="75"/>
-      <c r="DM4" s="75"/>
-      <c r="DN4" s="75"/>
-      <c r="DO4" s="76"/>
-      <c r="DP4" s="74">
+      <c r="DJ4" s="105"/>
+      <c r="DK4" s="105"/>
+      <c r="DL4" s="105"/>
+      <c r="DM4" s="105"/>
+      <c r="DN4" s="105"/>
+      <c r="DO4" s="106"/>
+      <c r="DP4" s="104">
         <f t="shared" ref="DP4" si="2">DP5</f>
         <v>46013</v>
       </c>
-      <c r="DQ4" s="75"/>
-      <c r="DR4" s="75"/>
-      <c r="DS4" s="75"/>
-      <c r="DT4" s="75"/>
-      <c r="DU4" s="75"/>
-      <c r="DV4" s="76"/>
-      <c r="DW4" s="74">
+      <c r="DQ4" s="105"/>
+      <c r="DR4" s="105"/>
+      <c r="DS4" s="105"/>
+      <c r="DT4" s="105"/>
+      <c r="DU4" s="105"/>
+      <c r="DV4" s="106"/>
+      <c r="DW4" s="104">
         <f t="shared" ref="DW4" si="3">DW5</f>
         <v>46020</v>
       </c>
-      <c r="DX4" s="75"/>
-      <c r="DY4" s="75"/>
-      <c r="DZ4" s="75"/>
-      <c r="EA4" s="75"/>
-      <c r="EB4" s="75"/>
-      <c r="EC4" s="76"/>
-      <c r="ED4" s="74">
+      <c r="DX4" s="105"/>
+      <c r="DY4" s="105"/>
+      <c r="DZ4" s="105"/>
+      <c r="EA4" s="105"/>
+      <c r="EB4" s="105"/>
+      <c r="EC4" s="106"/>
+      <c r="ED4" s="104">
         <f t="shared" ref="ED4" si="4">ED5</f>
         <v>46027</v>
       </c>
-      <c r="EE4" s="75"/>
-      <c r="EF4" s="75"/>
-      <c r="EG4" s="75"/>
-      <c r="EH4" s="75"/>
-      <c r="EI4" s="75"/>
-      <c r="EJ4" s="76"/>
-      <c r="EK4" s="74">
+      <c r="EE4" s="105"/>
+      <c r="EF4" s="105"/>
+      <c r="EG4" s="105"/>
+      <c r="EH4" s="105"/>
+      <c r="EI4" s="105"/>
+      <c r="EJ4" s="106"/>
+      <c r="EK4" s="104">
         <f t="shared" ref="EK4" si="5">EK5</f>
         <v>46034</v>
       </c>
-      <c r="EL4" s="75"/>
-      <c r="EM4" s="75"/>
-      <c r="EN4" s="75"/>
-      <c r="EO4" s="75"/>
-      <c r="EP4" s="75"/>
-      <c r="EQ4" s="76"/>
-      <c r="ER4" s="74">
+      <c r="EL4" s="105"/>
+      <c r="EM4" s="105"/>
+      <c r="EN4" s="105"/>
+      <c r="EO4" s="105"/>
+      <c r="EP4" s="105"/>
+      <c r="EQ4" s="106"/>
+      <c r="ER4" s="104">
         <f t="shared" ref="ER4" si="6">ER5</f>
         <v>46041</v>
       </c>
-      <c r="ES4" s="75"/>
-      <c r="ET4" s="75"/>
-      <c r="EU4" s="75"/>
-      <c r="EV4" s="75"/>
-      <c r="EW4" s="75"/>
-      <c r="EX4" s="76"/>
-      <c r="EY4" s="74">
+      <c r="ES4" s="105"/>
+      <c r="ET4" s="105"/>
+      <c r="EU4" s="105"/>
+      <c r="EV4" s="105"/>
+      <c r="EW4" s="105"/>
+      <c r="EX4" s="106"/>
+      <c r="EY4" s="104">
         <f t="shared" ref="EY4" si="7">EY5</f>
         <v>46048</v>
       </c>
-      <c r="EZ4" s="75"/>
-      <c r="FA4" s="75"/>
-      <c r="FB4" s="75"/>
-      <c r="FC4" s="75"/>
-      <c r="FD4" s="75"/>
-      <c r="FE4" s="76"/>
-      <c r="FF4" s="74">
+      <c r="EZ4" s="105"/>
+      <c r="FA4" s="105"/>
+      <c r="FB4" s="105"/>
+      <c r="FC4" s="105"/>
+      <c r="FD4" s="105"/>
+      <c r="FE4" s="106"/>
+      <c r="FF4" s="104">
         <f t="shared" ref="FF4" si="8">FF5</f>
         <v>46055</v>
       </c>
-      <c r="FG4" s="75"/>
-      <c r="FH4" s="75"/>
-      <c r="FI4" s="75"/>
-      <c r="FJ4" s="75"/>
-      <c r="FK4" s="75"/>
-      <c r="FL4" s="76"/>
-      <c r="FM4" s="74">
+      <c r="FG4" s="105"/>
+      <c r="FH4" s="105"/>
+      <c r="FI4" s="105"/>
+      <c r="FJ4" s="105"/>
+      <c r="FK4" s="105"/>
+      <c r="FL4" s="106"/>
+      <c r="FM4" s="104">
         <f t="shared" ref="FM4" si="9">FM5</f>
         <v>46062</v>
       </c>
-      <c r="FN4" s="75"/>
-      <c r="FO4" s="75"/>
-      <c r="FP4" s="75"/>
-      <c r="FQ4" s="75"/>
-      <c r="FR4" s="75"/>
-      <c r="FS4" s="76"/>
-      <c r="FT4" s="74">
+      <c r="FN4" s="105"/>
+      <c r="FO4" s="105"/>
+      <c r="FP4" s="105"/>
+      <c r="FQ4" s="105"/>
+      <c r="FR4" s="105"/>
+      <c r="FS4" s="106"/>
+      <c r="FT4" s="104">
         <f t="shared" ref="FT4" si="10">FT5</f>
         <v>46069</v>
       </c>
-      <c r="FU4" s="75"/>
-      <c r="FV4" s="75"/>
-      <c r="FW4" s="75"/>
-      <c r="FX4" s="75"/>
-      <c r="FY4" s="75"/>
-      <c r="FZ4" s="76"/>
-      <c r="GC4" s="102">
+      <c r="FU4" s="105"/>
+      <c r="FV4" s="105"/>
+      <c r="FW4" s="105"/>
+      <c r="FX4" s="105"/>
+      <c r="FY4" s="105"/>
+      <c r="FZ4" s="106"/>
+      <c r="GC4" s="95">
         <v>1</v>
       </c>
     </row>
@@ -3568,7 +3492,7 @@
         <f t="shared" ref="FZ5" si="114">FY5+1</f>
         <v>46075</v>
       </c>
-      <c r="GC5" s="102">
+      <c r="GC5" s="95">
         <v>1</v>
       </c>
     </row>
@@ -4289,7 +4213,7 @@
         <f t="shared" si="123"/>
         <v>z</v>
       </c>
-      <c r="GC6" s="102">
+      <c r="GC6" s="95">
         <v>1</v>
       </c>
     </row>
@@ -4453,7 +4377,7 @@
       <c r="FC7" s="27"/>
       <c r="FD7" s="27"/>
       <c r="FE7" s="27"/>
-      <c r="FF7" s="107"/>
+      <c r="FF7" s="100"/>
       <c r="FG7" s="27"/>
       <c r="FH7" s="27"/>
       <c r="FI7" s="27"/>
@@ -4474,17 +4398,17 @@
       <c r="FX7" s="27"/>
       <c r="FY7" s="27"/>
       <c r="FZ7" s="27"/>
-      <c r="GC7" s="102">
+      <c r="GC7" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -4640,9 +4564,9 @@
       <c r="FB8" s="27"/>
       <c r="FC8" s="27"/>
       <c r="FD8" s="27"/>
-      <c r="FE8" s="103"/>
-      <c r="FF8" s="108"/>
-      <c r="FG8" s="105"/>
+      <c r="FE8" s="96"/>
+      <c r="FF8" s="101"/>
+      <c r="FG8" s="98"/>
       <c r="FH8" s="27"/>
       <c r="FI8" s="27"/>
       <c r="FJ8" s="27"/>
@@ -4662,22 +4586,22 @@
       <c r="FX8" s="27"/>
       <c r="FY8" s="27"/>
       <c r="FZ8" s="27"/>
-      <c r="GC8" s="102">
+      <c r="GC8" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="83">
-        <v>1</v>
-      </c>
-      <c r="D9" s="84">
+      <c r="C9" s="79">
+        <v>1</v>
+      </c>
+      <c r="D9" s="80">
         <f>DATE(2025, 11, 3)</f>
         <v>45964</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="80">
         <f>DATE(2025, 11, 11)</f>
         <v>45972</v>
       </c>
@@ -4836,9 +4760,9 @@
       <c r="FB9" s="27"/>
       <c r="FC9" s="27"/>
       <c r="FD9" s="27"/>
-      <c r="FE9" s="103"/>
-      <c r="FF9" s="108"/>
-      <c r="FG9" s="105"/>
+      <c r="FE9" s="96"/>
+      <c r="FF9" s="101"/>
+      <c r="FG9" s="98"/>
       <c r="FH9" s="27"/>
       <c r="FI9" s="27"/>
       <c r="FJ9" s="27"/>
@@ -4858,22 +4782,22 @@
       <c r="FX9" s="27"/>
       <c r="FY9" s="27"/>
       <c r="FZ9" s="27"/>
-      <c r="GC9" s="102">
+      <c r="GC9" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="79">
         <v>0</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="80">
         <f>DATE(2026,1,12)</f>
         <v>46034</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="80">
         <f>DATE(2026,1,27)</f>
         <v>46049</v>
       </c>
@@ -5032,9 +4956,9 @@
       <c r="FB10" s="27"/>
       <c r="FC10" s="27"/>
       <c r="FD10" s="27"/>
-      <c r="FE10" s="103"/>
-      <c r="FF10" s="108"/>
-      <c r="FG10" s="105"/>
+      <c r="FE10" s="96"/>
+      <c r="FF10" s="101"/>
+      <c r="FG10" s="98"/>
       <c r="FH10" s="27"/>
       <c r="FI10" s="27"/>
       <c r="FJ10" s="27"/>
@@ -5054,22 +4978,22 @@
       <c r="FX10" s="27"/>
       <c r="FY10" s="27"/>
       <c r="FZ10" s="27"/>
-      <c r="GC10" s="102">
+      <c r="GC10" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="83">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="84">
+      <c r="C11" s="79">
+        <v>1</v>
+      </c>
+      <c r="D11" s="80">
         <f>DATE(2025,11,3)</f>
         <v>45964</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="80">
         <f>DATE(2025, 11, 17)</f>
         <v>45978</v>
       </c>
@@ -5228,9 +5152,9 @@
       <c r="FB11" s="27"/>
       <c r="FC11" s="27"/>
       <c r="FD11" s="27"/>
-      <c r="FE11" s="103"/>
-      <c r="FF11" s="108"/>
-      <c r="FG11" s="105"/>
+      <c r="FE11" s="96"/>
+      <c r="FF11" s="101"/>
+      <c r="FG11" s="98"/>
       <c r="FH11" s="27"/>
       <c r="FI11" s="27"/>
       <c r="FJ11" s="27"/>
@@ -5250,22 +5174,22 @@
       <c r="FX11" s="27"/>
       <c r="FY11" s="27"/>
       <c r="FZ11" s="27"/>
-      <c r="GC11" s="102">
+      <c r="GC11" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="79">
         <v>0</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="80">
         <f>DATE(2026,1,1)</f>
         <v>46023</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="80">
         <f>DATE(2026,2,2)</f>
         <v>46055</v>
       </c>
@@ -5424,9 +5348,9 @@
       <c r="FB12" s="27"/>
       <c r="FC12" s="27"/>
       <c r="FD12" s="27"/>
-      <c r="FE12" s="103"/>
-      <c r="FF12" s="108"/>
-      <c r="FG12" s="105"/>
+      <c r="FE12" s="96"/>
+      <c r="FF12" s="101"/>
+      <c r="FG12" s="98"/>
       <c r="FH12" s="27"/>
       <c r="FI12" s="27"/>
       <c r="FJ12" s="27"/>
@@ -5446,22 +5370,22 @@
       <c r="FX12" s="27"/>
       <c r="FY12" s="27"/>
       <c r="FZ12" s="27"/>
-      <c r="GC12" s="102">
+      <c r="GC12" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="79">
         <v>0</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="80">
         <f>DATE(2026, 1, 1)</f>
         <v>46023</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="80">
         <f>DATE(2026, 1, 25)</f>
         <v>46047</v>
       </c>
@@ -5620,9 +5544,9 @@
       <c r="FB13" s="27"/>
       <c r="FC13" s="27"/>
       <c r="FD13" s="27"/>
-      <c r="FE13" s="103"/>
-      <c r="FF13" s="108"/>
-      <c r="FG13" s="105"/>
+      <c r="FE13" s="96"/>
+      <c r="FF13" s="101"/>
+      <c r="FG13" s="98"/>
       <c r="FH13" s="27"/>
       <c r="FI13" s="27"/>
       <c r="FJ13" s="27"/>
@@ -5642,7 +5566,7 @@
       <c r="FX13" s="27"/>
       <c r="FY13" s="27"/>
       <c r="FZ13" s="27"/>
-      <c r="GC13" s="102">
+      <c r="GC13" s="95">
         <v>1</v>
       </c>
     </row>
@@ -5809,9 +5733,9 @@
       <c r="FB14" s="27"/>
       <c r="FC14" s="27"/>
       <c r="FD14" s="27"/>
-      <c r="FE14" s="103"/>
-      <c r="FF14" s="108"/>
-      <c r="FG14" s="105"/>
+      <c r="FE14" s="96"/>
+      <c r="FF14" s="101"/>
+      <c r="FG14" s="98"/>
       <c r="FH14" s="27"/>
       <c r="FI14" s="27"/>
       <c r="FJ14" s="27"/>
@@ -5831,7 +5755,7 @@
       <c r="FX14" s="27"/>
       <c r="FY14" s="27"/>
       <c r="FZ14" s="27"/>
-      <c r="GC14" s="102">
+      <c r="GC14" s="95">
         <v>1</v>
       </c>
     </row>
@@ -6006,9 +5930,9 @@
       <c r="FB15" s="27"/>
       <c r="FC15" s="27"/>
       <c r="FD15" s="27"/>
-      <c r="FE15" s="103"/>
-      <c r="FF15" s="108"/>
-      <c r="FG15" s="105"/>
+      <c r="FE15" s="96"/>
+      <c r="FF15" s="101"/>
+      <c r="FG15" s="98"/>
       <c r="FH15" s="27"/>
       <c r="FI15" s="27"/>
       <c r="FJ15" s="27"/>
@@ -6028,7 +5952,7 @@
       <c r="FX15" s="27"/>
       <c r="FY15" s="27"/>
       <c r="FZ15" s="27"/>
-      <c r="GC15" s="102">
+      <c r="GC15" s="95">
         <v>1</v>
       </c>
     </row>
@@ -6201,9 +6125,9 @@
       <c r="FB16" s="27"/>
       <c r="FC16" s="27"/>
       <c r="FD16" s="27"/>
-      <c r="FE16" s="103"/>
-      <c r="FF16" s="108"/>
-      <c r="FG16" s="105"/>
+      <c r="FE16" s="96"/>
+      <c r="FF16" s="101"/>
+      <c r="FG16" s="98"/>
       <c r="FH16" s="27"/>
       <c r="FI16" s="27"/>
       <c r="FJ16" s="27"/>
@@ -6223,7 +6147,7 @@
       <c r="FX16" s="27"/>
       <c r="FY16" s="27"/>
       <c r="FZ16" s="27"/>
-      <c r="GC16" s="102"/>
+      <c r="GC16" s="95"/>
     </row>
     <row r="17" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
@@ -6396,9 +6320,9 @@
       <c r="FB17" s="27"/>
       <c r="FC17" s="27"/>
       <c r="FD17" s="27"/>
-      <c r="FE17" s="103"/>
-      <c r="FF17" s="108"/>
-      <c r="FG17" s="105"/>
+      <c r="FE17" s="96"/>
+      <c r="FF17" s="101"/>
+      <c r="FG17" s="98"/>
       <c r="FH17" s="27"/>
       <c r="FI17" s="27"/>
       <c r="FJ17" s="27"/>
@@ -6418,7 +6342,7 @@
       <c r="FX17" s="27"/>
       <c r="FY17" s="27"/>
       <c r="FZ17" s="27"/>
-      <c r="GC17" s="102">
+      <c r="GC17" s="95">
         <v>1</v>
       </c>
     </row>
@@ -6593,9 +6517,9 @@
       <c r="FB18" s="27"/>
       <c r="FC18" s="27"/>
       <c r="FD18" s="27"/>
-      <c r="FE18" s="103"/>
-      <c r="FF18" s="108"/>
-      <c r="FG18" s="105"/>
+      <c r="FE18" s="96"/>
+      <c r="FF18" s="101"/>
+      <c r="FG18" s="98"/>
       <c r="FH18" s="27"/>
       <c r="FI18" s="27"/>
       <c r="FJ18" s="27"/>
@@ -6615,7 +6539,7 @@
       <c r="FX18" s="27"/>
       <c r="FY18" s="27"/>
       <c r="FZ18" s="27"/>
-      <c r="GC18" s="102">
+      <c r="GC18" s="95">
         <v>1</v>
       </c>
     </row>
@@ -6784,9 +6708,9 @@
       <c r="FB19" s="27"/>
       <c r="FC19" s="27"/>
       <c r="FD19" s="27"/>
-      <c r="FE19" s="103"/>
-      <c r="FF19" s="108"/>
-      <c r="FG19" s="105"/>
+      <c r="FE19" s="96"/>
+      <c r="FF19" s="101"/>
+      <c r="FG19" s="98"/>
       <c r="FH19" s="27"/>
       <c r="FI19" s="27"/>
       <c r="FJ19" s="27"/>
@@ -6806,7 +6730,7 @@
       <c r="FX19" s="27"/>
       <c r="FY19" s="27"/>
       <c r="FZ19" s="27"/>
-      <c r="GC19" s="102">
+      <c r="GC19" s="95">
         <v>1</v>
       </c>
     </row>
@@ -6979,9 +6903,9 @@
       <c r="FB20" s="27"/>
       <c r="FC20" s="27"/>
       <c r="FD20" s="27"/>
-      <c r="FE20" s="103"/>
-      <c r="FF20" s="108"/>
-      <c r="FG20" s="105"/>
+      <c r="FE20" s="96"/>
+      <c r="FF20" s="101"/>
+      <c r="FG20" s="98"/>
       <c r="FH20" s="27"/>
       <c r="FI20" s="27"/>
       <c r="FJ20" s="27"/>
@@ -7001,7 +6925,7 @@
       <c r="FX20" s="27"/>
       <c r="FY20" s="27"/>
       <c r="FZ20" s="27"/>
-      <c r="GC20" s="102">
+      <c r="GC20" s="95">
         <v>1</v>
       </c>
     </row>
@@ -7168,9 +7092,9 @@
       <c r="FB21" s="27"/>
       <c r="FC21" s="27"/>
       <c r="FD21" s="27"/>
-      <c r="FE21" s="103"/>
-      <c r="FF21" s="108"/>
-      <c r="FG21" s="105"/>
+      <c r="FE21" s="96"/>
+      <c r="FF21" s="101"/>
+      <c r="FG21" s="98"/>
       <c r="FH21" s="27"/>
       <c r="FI21" s="27"/>
       <c r="FJ21" s="27"/>
@@ -7190,7 +7114,7 @@
       <c r="FX21" s="27"/>
       <c r="FY21" s="27"/>
       <c r="FZ21" s="27"/>
-      <c r="GC21" s="102">
+      <c r="GC21" s="95">
         <v>1</v>
       </c>
     </row>
@@ -7365,9 +7289,9 @@
       <c r="FB22" s="27"/>
       <c r="FC22" s="27"/>
       <c r="FD22" s="27"/>
-      <c r="FE22" s="103"/>
-      <c r="FF22" s="108"/>
-      <c r="FG22" s="105"/>
+      <c r="FE22" s="96"/>
+      <c r="FF22" s="101"/>
+      <c r="FG22" s="98"/>
       <c r="FH22" s="27"/>
       <c r="FI22" s="27"/>
       <c r="FJ22" s="27"/>
@@ -7387,7 +7311,7 @@
       <c r="FX22" s="27"/>
       <c r="FY22" s="27"/>
       <c r="FZ22" s="27"/>
-      <c r="GC22" s="102">
+      <c r="GC22" s="95">
         <v>1</v>
       </c>
     </row>
@@ -7562,9 +7486,9 @@
       <c r="FB23" s="27"/>
       <c r="FC23" s="27"/>
       <c r="FD23" s="27"/>
-      <c r="FE23" s="103"/>
-      <c r="FF23" s="108"/>
-      <c r="FG23" s="105"/>
+      <c r="FE23" s="96"/>
+      <c r="FF23" s="101"/>
+      <c r="FG23" s="98"/>
       <c r="FH23" s="27"/>
       <c r="FI23" s="27"/>
       <c r="FJ23" s="27"/>
@@ -7584,7 +7508,7 @@
       <c r="FX23" s="27"/>
       <c r="FY23" s="27"/>
       <c r="FZ23" s="27"/>
-      <c r="GC23" s="102">
+      <c r="GC23" s="95">
         <v>1</v>
       </c>
     </row>
@@ -7757,9 +7681,9 @@
       <c r="FB24" s="27"/>
       <c r="FC24" s="27"/>
       <c r="FD24" s="27"/>
-      <c r="FE24" s="103"/>
-      <c r="FF24" s="108"/>
-      <c r="FG24" s="105"/>
+      <c r="FE24" s="96"/>
+      <c r="FF24" s="101"/>
+      <c r="FG24" s="98"/>
       <c r="FH24" s="27"/>
       <c r="FI24" s="27"/>
       <c r="FJ24" s="27"/>
@@ -7779,7 +7703,7 @@
       <c r="FX24" s="27"/>
       <c r="FY24" s="27"/>
       <c r="FZ24" s="27"/>
-      <c r="GC24" s="102">
+      <c r="GC24" s="95">
         <v>1</v>
       </c>
     </row>
@@ -7952,9 +7876,9 @@
       <c r="FB25" s="27"/>
       <c r="FC25" s="27"/>
       <c r="FD25" s="27"/>
-      <c r="FE25" s="103"/>
-      <c r="FF25" s="108"/>
-      <c r="FG25" s="105"/>
+      <c r="FE25" s="96"/>
+      <c r="FF25" s="101"/>
+      <c r="FG25" s="98"/>
       <c r="FH25" s="27"/>
       <c r="FI25" s="27"/>
       <c r="FJ25" s="27"/>
@@ -7974,7 +7898,7 @@
       <c r="FX25" s="27"/>
       <c r="FY25" s="27"/>
       <c r="FZ25" s="27"/>
-      <c r="GC25" s="102">
+      <c r="GC25" s="95">
         <v>1</v>
       </c>
     </row>
@@ -8143,9 +8067,9 @@
       <c r="FB26" s="27"/>
       <c r="FC26" s="27"/>
       <c r="FD26" s="27"/>
-      <c r="FE26" s="103"/>
-      <c r="FF26" s="108"/>
-      <c r="FG26" s="105"/>
+      <c r="FE26" s="96"/>
+      <c r="FF26" s="101"/>
+      <c r="FG26" s="98"/>
       <c r="FH26" s="27"/>
       <c r="FI26" s="27"/>
       <c r="FJ26" s="27"/>
@@ -8165,7 +8089,7 @@
       <c r="FX26" s="27"/>
       <c r="FY26" s="27"/>
       <c r="FZ26" s="27"/>
-      <c r="GC26" s="102">
+      <c r="GC26" s="95">
         <v>1</v>
       </c>
     </row>
@@ -8332,9 +8256,9 @@
       <c r="FB27" s="27"/>
       <c r="FC27" s="27"/>
       <c r="FD27" s="27"/>
-      <c r="FE27" s="103"/>
-      <c r="FF27" s="108"/>
-      <c r="FG27" s="105"/>
+      <c r="FE27" s="96"/>
+      <c r="FF27" s="101"/>
+      <c r="FG27" s="98"/>
       <c r="FH27" s="27"/>
       <c r="FI27" s="27"/>
       <c r="FJ27" s="27"/>
@@ -8354,7 +8278,7 @@
       <c r="FX27" s="27"/>
       <c r="FY27" s="27"/>
       <c r="FZ27" s="27"/>
-      <c r="GC27" s="102">
+      <c r="GC27" s="95">
         <v>1</v>
       </c>
     </row>
@@ -8527,9 +8451,9 @@
       <c r="FB28" s="27"/>
       <c r="FC28" s="27"/>
       <c r="FD28" s="27"/>
-      <c r="FE28" s="103"/>
-      <c r="FF28" s="108"/>
-      <c r="FG28" s="105"/>
+      <c r="FE28" s="96"/>
+      <c r="FF28" s="101"/>
+      <c r="FG28" s="98"/>
       <c r="FH28" s="27"/>
       <c r="FI28" s="27"/>
       <c r="FJ28" s="27"/>
@@ -8549,7 +8473,7 @@
       <c r="FX28" s="27"/>
       <c r="FY28" s="27"/>
       <c r="FZ28" s="27"/>
-      <c r="GC28" s="102">
+      <c r="GC28" s="95">
         <v>1</v>
       </c>
     </row>
@@ -8722,9 +8646,9 @@
       <c r="FB29" s="27"/>
       <c r="FC29" s="27"/>
       <c r="FD29" s="27"/>
-      <c r="FE29" s="103"/>
-      <c r="FF29" s="108"/>
-      <c r="FG29" s="105"/>
+      <c r="FE29" s="96"/>
+      <c r="FF29" s="101"/>
+      <c r="FG29" s="98"/>
       <c r="FH29" s="27"/>
       <c r="FI29" s="27"/>
       <c r="FJ29" s="27"/>
@@ -8744,7 +8668,7 @@
       <c r="FX29" s="27"/>
       <c r="FY29" s="27"/>
       <c r="FZ29" s="27"/>
-      <c r="GC29" s="102">
+      <c r="GC29" s="95">
         <v>1</v>
       </c>
     </row>
@@ -8917,9 +8841,9 @@
       <c r="FB30" s="27"/>
       <c r="FC30" s="27"/>
       <c r="FD30" s="27"/>
-      <c r="FE30" s="103"/>
-      <c r="FF30" s="108"/>
-      <c r="FG30" s="105"/>
+      <c r="FE30" s="96"/>
+      <c r="FF30" s="101"/>
+      <c r="FG30" s="98"/>
       <c r="FH30" s="27"/>
       <c r="FI30" s="27"/>
       <c r="FJ30" s="27"/>
@@ -8939,7 +8863,7 @@
       <c r="FX30" s="27"/>
       <c r="FY30" s="27"/>
       <c r="FZ30" s="27"/>
-      <c r="GC30" s="102">
+      <c r="GC30" s="95">
         <v>1</v>
       </c>
     </row>
@@ -9112,9 +9036,9 @@
       <c r="FB31" s="27"/>
       <c r="FC31" s="27"/>
       <c r="FD31" s="27"/>
-      <c r="FE31" s="103"/>
-      <c r="FF31" s="108"/>
-      <c r="FG31" s="105"/>
+      <c r="FE31" s="96"/>
+      <c r="FF31" s="101"/>
+      <c r="FG31" s="98"/>
       <c r="FH31" s="27"/>
       <c r="FI31" s="27"/>
       <c r="FJ31" s="27"/>
@@ -9134,7 +9058,7 @@
       <c r="FX31" s="27"/>
       <c r="FY31" s="27"/>
       <c r="FZ31" s="27"/>
-      <c r="GC31" s="102">
+      <c r="GC31" s="95">
         <v>1</v>
       </c>
     </row>
@@ -9303,9 +9227,9 @@
       <c r="FB32" s="27"/>
       <c r="FC32" s="27"/>
       <c r="FD32" s="27"/>
-      <c r="FE32" s="103"/>
-      <c r="FF32" s="108"/>
-      <c r="FG32" s="105"/>
+      <c r="FE32" s="96"/>
+      <c r="FF32" s="101"/>
+      <c r="FG32" s="98"/>
       <c r="FH32" s="27"/>
       <c r="FI32" s="27"/>
       <c r="FJ32" s="27"/>
@@ -9325,7 +9249,7 @@
       <c r="FX32" s="27"/>
       <c r="FY32" s="27"/>
       <c r="FZ32" s="27"/>
-      <c r="GC32" s="102">
+      <c r="GC32" s="95">
         <v>1</v>
       </c>
     </row>
@@ -9494,9 +9418,9 @@
       <c r="FB33" s="27"/>
       <c r="FC33" s="27"/>
       <c r="FD33" s="27"/>
-      <c r="FE33" s="103"/>
-      <c r="FF33" s="108"/>
-      <c r="FG33" s="105"/>
+      <c r="FE33" s="96"/>
+      <c r="FF33" s="101"/>
+      <c r="FG33" s="98"/>
       <c r="FH33" s="27"/>
       <c r="FI33" s="27"/>
       <c r="FJ33" s="27"/>
@@ -9516,7 +9440,7 @@
       <c r="FX33" s="27"/>
       <c r="FY33" s="27"/>
       <c r="FZ33" s="27"/>
-      <c r="GC33" s="102">
+      <c r="GC33" s="95">
         <v>1</v>
       </c>
     </row>
@@ -9689,9 +9613,9 @@
       <c r="FB34" s="27"/>
       <c r="FC34" s="27"/>
       <c r="FD34" s="27"/>
-      <c r="FE34" s="103"/>
-      <c r="FF34" s="108"/>
-      <c r="FG34" s="105"/>
+      <c r="FE34" s="96"/>
+      <c r="FF34" s="101"/>
+      <c r="FG34" s="98"/>
       <c r="FH34" s="27"/>
       <c r="FI34" s="27"/>
       <c r="FJ34" s="27"/>
@@ -9711,7 +9635,7 @@
       <c r="FX34" s="27"/>
       <c r="FY34" s="27"/>
       <c r="FZ34" s="27"/>
-      <c r="GC34" s="102">
+      <c r="GC34" s="95">
         <v>1</v>
       </c>
     </row>
@@ -9884,9 +9808,9 @@
       <c r="FB35" s="27"/>
       <c r="FC35" s="27"/>
       <c r="FD35" s="27"/>
-      <c r="FE35" s="103"/>
-      <c r="FF35" s="108"/>
-      <c r="FG35" s="105"/>
+      <c r="FE35" s="96"/>
+      <c r="FF35" s="101"/>
+      <c r="FG35" s="98"/>
       <c r="FH35" s="27"/>
       <c r="FI35" s="27"/>
       <c r="FJ35" s="27"/>
@@ -9906,7 +9830,7 @@
       <c r="FX35" s="27"/>
       <c r="FY35" s="27"/>
       <c r="FZ35" s="27"/>
-      <c r="GC35" s="102">
+      <c r="GC35" s="95">
         <v>1</v>
       </c>
     </row>
@@ -10071,9 +9995,9 @@
       <c r="FB36" s="27"/>
       <c r="FC36" s="27"/>
       <c r="FD36" s="27"/>
-      <c r="FE36" s="103"/>
-      <c r="FF36" s="108"/>
-      <c r="FG36" s="105"/>
+      <c r="FE36" s="96"/>
+      <c r="FF36" s="101"/>
+      <c r="FG36" s="98"/>
       <c r="FH36" s="27"/>
       <c r="FI36" s="27"/>
       <c r="FJ36" s="27"/>
@@ -10093,7 +10017,7 @@
       <c r="FX36" s="27"/>
       <c r="FY36" s="27"/>
       <c r="FZ36" s="27"/>
-      <c r="GC36" s="102">
+      <c r="GC36" s="95">
         <v>1</v>
       </c>
     </row>
@@ -10260,9 +10184,9 @@
       <c r="FB37" s="27"/>
       <c r="FC37" s="27"/>
       <c r="FD37" s="27"/>
-      <c r="FE37" s="103"/>
-      <c r="FF37" s="108"/>
-      <c r="FG37" s="105"/>
+      <c r="FE37" s="96"/>
+      <c r="FF37" s="101"/>
+      <c r="FG37" s="98"/>
       <c r="FH37" s="27"/>
       <c r="FI37" s="27"/>
       <c r="FJ37" s="27"/>
@@ -10282,7 +10206,7 @@
       <c r="FX37" s="27"/>
       <c r="FY37" s="27"/>
       <c r="FZ37" s="27"/>
-      <c r="GC37" s="102">
+      <c r="GC37" s="95">
         <v>1</v>
       </c>
     </row>
@@ -10456,9 +10380,9 @@
       <c r="FB38" s="27"/>
       <c r="FC38" s="27"/>
       <c r="FD38" s="27"/>
-      <c r="FE38" s="103"/>
-      <c r="FF38" s="108"/>
-      <c r="FG38" s="105"/>
+      <c r="FE38" s="96"/>
+      <c r="FF38" s="101"/>
+      <c r="FG38" s="98"/>
       <c r="FH38" s="27"/>
       <c r="FI38" s="27"/>
       <c r="FJ38" s="27"/>
@@ -10478,7 +10402,7 @@
       <c r="FX38" s="27"/>
       <c r="FY38" s="27"/>
       <c r="FZ38" s="27"/>
-      <c r="GC38" s="102">
+      <c r="GC38" s="95">
         <v>1</v>
       </c>
     </row>
@@ -10647,9 +10571,9 @@
       <c r="FB39" s="27"/>
       <c r="FC39" s="27"/>
       <c r="FD39" s="27"/>
-      <c r="FE39" s="103"/>
-      <c r="FF39" s="108"/>
-      <c r="FG39" s="105"/>
+      <c r="FE39" s="96"/>
+      <c r="FF39" s="101"/>
+      <c r="FG39" s="98"/>
       <c r="FH39" s="27"/>
       <c r="FI39" s="27"/>
       <c r="FJ39" s="27"/>
@@ -10669,7 +10593,7 @@
       <c r="FX39" s="27"/>
       <c r="FY39" s="27"/>
       <c r="FZ39" s="27"/>
-      <c r="GC39" s="102">
+      <c r="GC39" s="95">
         <v>1</v>
       </c>
     </row>
@@ -10842,9 +10766,9 @@
       <c r="FB40" s="27"/>
       <c r="FC40" s="27"/>
       <c r="FD40" s="27"/>
-      <c r="FE40" s="103"/>
-      <c r="FF40" s="108"/>
-      <c r="FG40" s="105"/>
+      <c r="FE40" s="96"/>
+      <c r="FF40" s="101"/>
+      <c r="FG40" s="98"/>
       <c r="FH40" s="27"/>
       <c r="FI40" s="27"/>
       <c r="FJ40" s="27"/>
@@ -10864,7 +10788,7 @@
       <c r="FX40" s="27"/>
       <c r="FY40" s="27"/>
       <c r="FZ40" s="27"/>
-      <c r="GC40" s="102">
+      <c r="GC40" s="95">
         <v>1</v>
       </c>
     </row>
@@ -10872,7 +10796,9 @@
       <c r="A41" s="40"/>
       <c r="B41" s="49"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="66"/>
+      <c r="D41" s="66">
+        <v>45901</v>
+      </c>
       <c r="E41" s="66"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -11029,9 +10955,9 @@
       <c r="FB41" s="27"/>
       <c r="FC41" s="27"/>
       <c r="FD41" s="27"/>
-      <c r="FE41" s="103"/>
-      <c r="FF41" s="108"/>
-      <c r="FG41" s="105"/>
+      <c r="FE41" s="96"/>
+      <c r="FF41" s="101"/>
+      <c r="FG41" s="98"/>
       <c r="FH41" s="27"/>
       <c r="FI41" s="27"/>
       <c r="FJ41" s="27"/>
@@ -11051,7 +10977,7 @@
       <c r="FX41" s="27"/>
       <c r="FY41" s="27"/>
       <c r="FZ41" s="27"/>
-      <c r="GC41" s="102">
+      <c r="GC41" s="95">
         <v>1</v>
       </c>
     </row>
@@ -11216,9 +11142,9 @@
       <c r="FB42" s="27"/>
       <c r="FC42" s="27"/>
       <c r="FD42" s="27"/>
-      <c r="FE42" s="103"/>
-      <c r="FF42" s="108"/>
-      <c r="FG42" s="105"/>
+      <c r="FE42" s="96"/>
+      <c r="FF42" s="101"/>
+      <c r="FG42" s="98"/>
       <c r="FH42" s="27"/>
       <c r="FI42" s="27"/>
       <c r="FJ42" s="27"/>
@@ -11238,7 +11164,7 @@
       <c r="FX42" s="27"/>
       <c r="FY42" s="27"/>
       <c r="FZ42" s="27"/>
-      <c r="GC42" s="102">
+      <c r="GC42" s="95">
         <v>1</v>
       </c>
     </row>
@@ -11403,9 +11329,9 @@
       <c r="FB43" s="27"/>
       <c r="FC43" s="27"/>
       <c r="FD43" s="27"/>
-      <c r="FE43" s="103"/>
-      <c r="FF43" s="108"/>
-      <c r="FG43" s="105"/>
+      <c r="FE43" s="96"/>
+      <c r="FF43" s="101"/>
+      <c r="FG43" s="98"/>
       <c r="FH43" s="27"/>
       <c r="FI43" s="27"/>
       <c r="FJ43" s="27"/>
@@ -11425,7 +11351,7 @@
       <c r="FX43" s="27"/>
       <c r="FY43" s="27"/>
       <c r="FZ43" s="27"/>
-      <c r="GC43" s="102">
+      <c r="GC43" s="95">
         <v>1</v>
       </c>
     </row>
@@ -11590,9 +11516,9 @@
       <c r="FB44" s="27"/>
       <c r="FC44" s="27"/>
       <c r="FD44" s="27"/>
-      <c r="FE44" s="103"/>
-      <c r="FF44" s="108"/>
-      <c r="FG44" s="105"/>
+      <c r="FE44" s="96"/>
+      <c r="FF44" s="101"/>
+      <c r="FG44" s="98"/>
       <c r="FH44" s="27"/>
       <c r="FI44" s="27"/>
       <c r="FJ44" s="27"/>
@@ -11612,7 +11538,7 @@
       <c r="FX44" s="27"/>
       <c r="FY44" s="27"/>
       <c r="FZ44" s="27"/>
-      <c r="GC44" s="102">
+      <c r="GC44" s="95">
         <v>1</v>
       </c>
     </row>
@@ -11777,9 +11703,9 @@
       <c r="FB45" s="27"/>
       <c r="FC45" s="27"/>
       <c r="FD45" s="27"/>
-      <c r="FE45" s="103"/>
-      <c r="FF45" s="108"/>
-      <c r="FG45" s="105"/>
+      <c r="FE45" s="96"/>
+      <c r="FF45" s="101"/>
+      <c r="FG45" s="98"/>
       <c r="FH45" s="27"/>
       <c r="FI45" s="27"/>
       <c r="FJ45" s="27"/>
@@ -11799,7 +11725,7 @@
       <c r="FX45" s="27"/>
       <c r="FY45" s="27"/>
       <c r="FZ45" s="27"/>
-      <c r="GC45" s="102">
+      <c r="GC45" s="95">
         <v>1</v>
       </c>
     </row>
@@ -11964,9 +11890,9 @@
       <c r="FB46" s="27"/>
       <c r="FC46" s="27"/>
       <c r="FD46" s="27"/>
-      <c r="FE46" s="103"/>
-      <c r="FF46" s="108"/>
-      <c r="FG46" s="105"/>
+      <c r="FE46" s="96"/>
+      <c r="FF46" s="101"/>
+      <c r="FG46" s="98"/>
       <c r="FH46" s="27"/>
       <c r="FI46" s="27"/>
       <c r="FJ46" s="27"/>
@@ -11986,18 +11912,18 @@
       <c r="FX46" s="27"/>
       <c r="FY46" s="27"/>
       <c r="FZ46" s="27"/>
-      <c r="GC46" s="102">
+      <c r="GC46" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -12153,9 +12079,9 @@
       <c r="FB47" s="27"/>
       <c r="FC47" s="27"/>
       <c r="FD47" s="27"/>
-      <c r="FE47" s="103"/>
-      <c r="FF47" s="108"/>
-      <c r="FG47" s="105"/>
+      <c r="FE47" s="96"/>
+      <c r="FF47" s="101"/>
+      <c r="FG47" s="98"/>
       <c r="FH47" s="27"/>
       <c r="FI47" s="27"/>
       <c r="FJ47" s="27"/>
@@ -12175,7 +12101,7 @@
       <c r="FX47" s="27"/>
       <c r="FY47" s="27"/>
       <c r="FZ47" s="27"/>
-      <c r="GC47" s="102">
+      <c r="GC47" s="95">
         <v>1</v>
       </c>
     </row>
@@ -12348,9 +12274,9 @@
       <c r="FB48" s="27"/>
       <c r="FC48" s="27"/>
       <c r="FD48" s="27"/>
-      <c r="FE48" s="103"/>
-      <c r="FF48" s="108"/>
-      <c r="FG48" s="105"/>
+      <c r="FE48" s="96"/>
+      <c r="FF48" s="101"/>
+      <c r="FG48" s="98"/>
       <c r="FH48" s="27"/>
       <c r="FI48" s="27"/>
       <c r="FJ48" s="27"/>
@@ -12370,7 +12296,7 @@
       <c r="FX48" s="27"/>
       <c r="FY48" s="27"/>
       <c r="FZ48" s="27"/>
-      <c r="GC48" s="102">
+      <c r="GC48" s="95">
         <v>1</v>
       </c>
     </row>
@@ -12535,9 +12461,9 @@
       <c r="FB49" s="27"/>
       <c r="FC49" s="27"/>
       <c r="FD49" s="27"/>
-      <c r="FE49" s="103"/>
-      <c r="FF49" s="108"/>
-      <c r="FG49" s="105"/>
+      <c r="FE49" s="96"/>
+      <c r="FF49" s="101"/>
+      <c r="FG49" s="98"/>
       <c r="FH49" s="27"/>
       <c r="FI49" s="27"/>
       <c r="FJ49" s="27"/>
@@ -12557,7 +12483,7 @@
       <c r="FX49" s="27"/>
       <c r="FY49" s="27"/>
       <c r="FZ49" s="27"/>
-      <c r="GC49" s="102">
+      <c r="GC49" s="95">
         <v>1</v>
       </c>
     </row>
@@ -12722,9 +12648,9 @@
       <c r="FB50" s="27"/>
       <c r="FC50" s="27"/>
       <c r="FD50" s="27"/>
-      <c r="FE50" s="103"/>
-      <c r="FF50" s="108"/>
-      <c r="FG50" s="105"/>
+      <c r="FE50" s="96"/>
+      <c r="FF50" s="101"/>
+      <c r="FG50" s="98"/>
       <c r="FH50" s="27"/>
       <c r="FI50" s="27"/>
       <c r="FJ50" s="27"/>
@@ -12744,7 +12670,7 @@
       <c r="FX50" s="27"/>
       <c r="FY50" s="27"/>
       <c r="FZ50" s="27"/>
-      <c r="GC50" s="102">
+      <c r="GC50" s="95">
         <v>1</v>
       </c>
     </row>
@@ -12909,9 +12835,9 @@
       <c r="FB51" s="27"/>
       <c r="FC51" s="27"/>
       <c r="FD51" s="27"/>
-      <c r="FE51" s="103"/>
-      <c r="FF51" s="108"/>
-      <c r="FG51" s="105"/>
+      <c r="FE51" s="96"/>
+      <c r="FF51" s="101"/>
+      <c r="FG51" s="98"/>
       <c r="FH51" s="27"/>
       <c r="FI51" s="27"/>
       <c r="FJ51" s="27"/>
@@ -12931,7 +12857,7 @@
       <c r="FX51" s="27"/>
       <c r="FY51" s="27"/>
       <c r="FZ51" s="27"/>
-      <c r="GC51" s="102">
+      <c r="GC51" s="95">
         <v>1</v>
       </c>
     </row>
@@ -13096,9 +13022,9 @@
       <c r="FB52" s="27"/>
       <c r="FC52" s="27"/>
       <c r="FD52" s="27"/>
-      <c r="FE52" s="103"/>
-      <c r="FF52" s="108"/>
-      <c r="FG52" s="105"/>
+      <c r="FE52" s="96"/>
+      <c r="FF52" s="101"/>
+      <c r="FG52" s="98"/>
       <c r="FH52" s="27"/>
       <c r="FI52" s="27"/>
       <c r="FJ52" s="27"/>
@@ -13118,7 +13044,7 @@
       <c r="FX52" s="27"/>
       <c r="FY52" s="27"/>
       <c r="FZ52" s="27"/>
-      <c r="GC52" s="102">
+      <c r="GC52" s="95">
         <v>1</v>
       </c>
     </row>
@@ -13283,9 +13209,9 @@
       <c r="FB53" s="27"/>
       <c r="FC53" s="27"/>
       <c r="FD53" s="27"/>
-      <c r="FE53" s="103"/>
-      <c r="FF53" s="108"/>
-      <c r="FG53" s="105"/>
+      <c r="FE53" s="96"/>
+      <c r="FF53" s="101"/>
+      <c r="FG53" s="98"/>
       <c r="FH53" s="27"/>
       <c r="FI53" s="27"/>
       <c r="FJ53" s="27"/>
@@ -13305,7 +13231,7 @@
       <c r="FX53" s="27"/>
       <c r="FY53" s="27"/>
       <c r="FZ53" s="27"/>
-      <c r="GC53" s="102">
+      <c r="GC53" s="95">
         <v>1</v>
       </c>
     </row>
@@ -13470,9 +13396,9 @@
       <c r="FB54" s="27"/>
       <c r="FC54" s="27"/>
       <c r="FD54" s="27"/>
-      <c r="FE54" s="103"/>
-      <c r="FF54" s="108"/>
-      <c r="FG54" s="105"/>
+      <c r="FE54" s="96"/>
+      <c r="FF54" s="101"/>
+      <c r="FG54" s="98"/>
       <c r="FH54" s="27"/>
       <c r="FI54" s="27"/>
       <c r="FJ54" s="27"/>
@@ -13492,7 +13418,7 @@
       <c r="FX54" s="27"/>
       <c r="FY54" s="27"/>
       <c r="FZ54" s="27"/>
-      <c r="GC54" s="102">
+      <c r="GC54" s="95">
         <v>1</v>
       </c>
     </row>
@@ -13657,9 +13583,9 @@
       <c r="FB55" s="27"/>
       <c r="FC55" s="27"/>
       <c r="FD55" s="27"/>
-      <c r="FE55" s="103"/>
-      <c r="FF55" s="108"/>
-      <c r="FG55" s="105"/>
+      <c r="FE55" s="96"/>
+      <c r="FF55" s="101"/>
+      <c r="FG55" s="98"/>
       <c r="FH55" s="27"/>
       <c r="FI55" s="27"/>
       <c r="FJ55" s="27"/>
@@ -13679,7 +13605,7 @@
       <c r="FX55" s="27"/>
       <c r="FY55" s="27"/>
       <c r="FZ55" s="27"/>
-      <c r="GC55" s="102">
+      <c r="GC55" s="95">
         <v>1</v>
       </c>
     </row>
@@ -13844,9 +13770,9 @@
       <c r="FB56" s="27"/>
       <c r="FC56" s="27"/>
       <c r="FD56" s="27"/>
-      <c r="FE56" s="103"/>
-      <c r="FF56" s="108"/>
-      <c r="FG56" s="105"/>
+      <c r="FE56" s="96"/>
+      <c r="FF56" s="101"/>
+      <c r="FG56" s="98"/>
       <c r="FH56" s="27"/>
       <c r="FI56" s="27"/>
       <c r="FJ56" s="27"/>
@@ -13866,7 +13792,7 @@
       <c r="FX56" s="27"/>
       <c r="FY56" s="27"/>
       <c r="FZ56" s="27"/>
-      <c r="GC56" s="102">
+      <c r="GC56" s="95">
         <v>1</v>
       </c>
     </row>
@@ -14031,9 +13957,9 @@
       <c r="FB57" s="27"/>
       <c r="FC57" s="27"/>
       <c r="FD57" s="27"/>
-      <c r="FE57" s="103"/>
-      <c r="FF57" s="108"/>
-      <c r="FG57" s="105"/>
+      <c r="FE57" s="96"/>
+      <c r="FF57" s="101"/>
+      <c r="FG57" s="98"/>
       <c r="FH57" s="27"/>
       <c r="FI57" s="27"/>
       <c r="FJ57" s="27"/>
@@ -14053,7 +13979,7 @@
       <c r="FX57" s="27"/>
       <c r="FY57" s="27"/>
       <c r="FZ57" s="27"/>
-      <c r="GC57" s="102">
+      <c r="GC57" s="95">
         <v>1</v>
       </c>
     </row>
@@ -14221,9 +14147,9 @@
       <c r="FB58" s="27"/>
       <c r="FC58" s="27"/>
       <c r="FD58" s="27"/>
-      <c r="FE58" s="103"/>
-      <c r="FF58" s="108"/>
-      <c r="FG58" s="105"/>
+      <c r="FE58" s="96"/>
+      <c r="FF58" s="101"/>
+      <c r="FG58" s="98"/>
       <c r="FH58" s="27"/>
       <c r="FI58" s="27"/>
       <c r="FJ58" s="27"/>
@@ -14243,7 +14169,7 @@
       <c r="FX58" s="27"/>
       <c r="FY58" s="27"/>
       <c r="FZ58" s="27"/>
-      <c r="GC58" s="102">
+      <c r="GC58" s="95">
         <v>1</v>
       </c>
     </row>
@@ -14413,9 +14339,9 @@
       <c r="FB59" s="28"/>
       <c r="FC59" s="28"/>
       <c r="FD59" s="28"/>
-      <c r="FE59" s="104"/>
-      <c r="FF59" s="108"/>
-      <c r="FG59" s="106"/>
+      <c r="FE59" s="97"/>
+      <c r="FF59" s="101"/>
+      <c r="FG59" s="99"/>
       <c r="FH59" s="28"/>
       <c r="FI59" s="28"/>
       <c r="FJ59" s="28"/>
@@ -14435,646 +14361,654 @@
       <c r="FX59" s="28"/>
       <c r="FY59" s="28"/>
       <c r="FZ59" s="28"/>
-      <c r="GC59" s="102">
+      <c r="GC59" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F60" s="5"/>
-      <c r="FG60" s="109"/>
-      <c r="GC60" s="102">
+      <c r="FG60" s="102"/>
+      <c r="GC60" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" s="42"/>
-      <c r="FG61" s="109"/>
-      <c r="GC61" s="102">
+      <c r="FG61" s="102"/>
+      <c r="GC61" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="GC62" s="102">
+      <c r="GC62" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102">
-        <v>1</v>
-      </c>
-      <c r="B63" s="102">
-        <v>1</v>
-      </c>
-      <c r="C63" s="102">
-        <v>1</v>
-      </c>
-      <c r="D63" s="102">
-        <v>1</v>
-      </c>
-      <c r="E63" s="102">
-        <v>1</v>
-      </c>
-      <c r="F63" s="102">
-        <v>1</v>
-      </c>
-      <c r="G63" s="102">
-        <v>1</v>
-      </c>
-      <c r="H63" s="102">
-        <v>1</v>
-      </c>
-      <c r="I63" s="102">
-        <v>1</v>
-      </c>
-      <c r="J63" s="102">
-        <v>1</v>
-      </c>
-      <c r="K63" s="102">
-        <v>1</v>
-      </c>
-      <c r="L63" s="102">
-        <v>1</v>
-      </c>
-      <c r="M63" s="102">
-        <v>1</v>
-      </c>
-      <c r="N63" s="102">
-        <v>1</v>
-      </c>
-      <c r="O63" s="102">
-        <v>1</v>
-      </c>
-      <c r="P63" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="102">
-        <v>1</v>
-      </c>
-      <c r="R63" s="102">
-        <v>1</v>
-      </c>
-      <c r="S63" s="102">
-        <v>1</v>
-      </c>
-      <c r="T63" s="102">
-        <v>1</v>
-      </c>
-      <c r="U63" s="102">
-        <v>1</v>
-      </c>
-      <c r="V63" s="102">
-        <v>1</v>
-      </c>
-      <c r="W63" s="102">
-        <v>1</v>
-      </c>
-      <c r="X63" s="102">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="102">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AG63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AH63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AI63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AJ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AL63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AM63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AN63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AP63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AQ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AR63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AS63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AT63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AU63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AV63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AW63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AX63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AY63" s="102">
-        <v>1</v>
-      </c>
-      <c r="AZ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BC63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BD63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BE63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BF63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BG63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BH63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BI63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BJ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BK63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BL63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BM63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BN63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BO63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BP63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BQ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BR63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BS63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BT63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BU63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BV63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BW63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BX63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BY63" s="102">
-        <v>1</v>
-      </c>
-      <c r="BZ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CC63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CD63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CE63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CF63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CG63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CH63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CI63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CJ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CK63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CL63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CM63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CN63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CO63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CP63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CQ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CR63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CS63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CT63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CU63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CV63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CW63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CX63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CY63" s="102">
-        <v>1</v>
-      </c>
-      <c r="CZ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DC63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DD63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DE63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DF63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DG63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DH63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DI63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DJ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DK63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DL63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DM63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DN63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DO63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DP63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DQ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DR63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DS63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DT63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DU63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DV63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DW63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DX63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DY63" s="102">
-        <v>1</v>
-      </c>
-      <c r="DZ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EC63" s="102">
-        <v>1</v>
-      </c>
-      <c r="ED63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EE63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EF63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EG63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EH63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EI63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EJ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EK63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EL63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EM63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EN63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EO63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EP63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EQ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="ER63" s="102">
-        <v>1</v>
-      </c>
-      <c r="ES63" s="102">
-        <v>1</v>
-      </c>
-      <c r="ET63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EU63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EV63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EW63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EX63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EY63" s="102">
-        <v>1</v>
-      </c>
-      <c r="EZ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FC63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FD63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FE63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FF63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FG63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FH63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FI63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FJ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FK63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FL63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FM63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FN63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FO63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FP63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FQ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FR63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FS63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FT63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FU63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FV63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FW63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FX63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FY63" s="102">
-        <v>1</v>
-      </c>
-      <c r="FZ63" s="102">
-        <v>1</v>
-      </c>
-      <c r="GA63" s="102">
-        <v>1</v>
-      </c>
-      <c r="GB63" s="102">
-        <v>1</v>
-      </c>
-      <c r="GC63" s="102">
+      <c r="A63" s="95">
+        <v>1</v>
+      </c>
+      <c r="B63" s="95">
+        <v>1</v>
+      </c>
+      <c r="C63" s="95">
+        <v>1</v>
+      </c>
+      <c r="D63" s="95">
+        <v>1</v>
+      </c>
+      <c r="E63" s="95">
+        <v>1</v>
+      </c>
+      <c r="F63" s="95">
+        <v>1</v>
+      </c>
+      <c r="G63" s="95">
+        <v>1</v>
+      </c>
+      <c r="H63" s="95">
+        <v>1</v>
+      </c>
+      <c r="I63" s="95">
+        <v>1</v>
+      </c>
+      <c r="J63" s="95">
+        <v>1</v>
+      </c>
+      <c r="K63" s="95">
+        <v>1</v>
+      </c>
+      <c r="L63" s="95">
+        <v>1</v>
+      </c>
+      <c r="M63" s="95">
+        <v>1</v>
+      </c>
+      <c r="N63" s="95">
+        <v>1</v>
+      </c>
+      <c r="O63" s="95">
+        <v>1</v>
+      </c>
+      <c r="P63" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="95">
+        <v>1</v>
+      </c>
+      <c r="R63" s="95">
+        <v>1</v>
+      </c>
+      <c r="S63" s="95">
+        <v>1</v>
+      </c>
+      <c r="T63" s="95">
+        <v>1</v>
+      </c>
+      <c r="U63" s="95">
+        <v>1</v>
+      </c>
+      <c r="V63" s="95">
+        <v>1</v>
+      </c>
+      <c r="W63" s="95">
+        <v>1</v>
+      </c>
+      <c r="X63" s="95">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="95">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AQ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AR63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AS63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AT63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AU63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AV63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AW63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AX63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AY63" s="95">
+        <v>1</v>
+      </c>
+      <c r="AZ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BC63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BD63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BE63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BF63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BG63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BH63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BI63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BJ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BK63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BL63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BM63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BN63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BO63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BP63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BQ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BR63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BS63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BT63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BU63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BV63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BW63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BX63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BY63" s="95">
+        <v>1</v>
+      </c>
+      <c r="BZ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CC63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CD63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CE63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CF63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CG63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CH63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CI63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CJ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CK63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CL63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CM63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CN63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CO63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CP63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CQ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CR63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CS63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CT63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CU63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CV63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CW63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CX63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CY63" s="95">
+        <v>1</v>
+      </c>
+      <c r="CZ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DC63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DD63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DE63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DF63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DG63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DH63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DI63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DJ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DK63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DL63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DM63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DN63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DO63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DP63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DQ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DR63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DS63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DT63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DU63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DV63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DW63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DX63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DY63" s="95">
+        <v>1</v>
+      </c>
+      <c r="DZ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EC63" s="95">
+        <v>1</v>
+      </c>
+      <c r="ED63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EE63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EF63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EG63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EH63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EI63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EJ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EK63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EL63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EM63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EN63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EO63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EP63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EQ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="ER63" s="95">
+        <v>1</v>
+      </c>
+      <c r="ES63" s="95">
+        <v>1</v>
+      </c>
+      <c r="ET63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EU63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EV63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EW63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EX63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EY63" s="95">
+        <v>1</v>
+      </c>
+      <c r="EZ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FC63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FD63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FE63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FF63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FG63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FH63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FI63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FJ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FK63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FL63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FM63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FN63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FO63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FP63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FQ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FR63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FS63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FT63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FU63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FV63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FW63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FX63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FY63" s="95">
+        <v>1</v>
+      </c>
+      <c r="FZ63" s="95">
+        <v>1</v>
+      </c>
+      <c r="GA63" s="95">
+        <v>1</v>
+      </c>
+      <c r="GB63" s="95">
+        <v>1</v>
+      </c>
+      <c r="GC63" s="95">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="111"/>
+    </row>
+    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>42</v>
       </c>
+      <c r="D69" s="112"/>
+      <c r="E69" s="113"/>
     </row>
-    <row r="70" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>43</v>
       </c>
+      <c r="E70" s="114"/>
     </row>
-    <row r="71" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
     <mergeCell ref="FT4:FZ4"/>
     <mergeCell ref="BO3:BY3"/>
     <mergeCell ref="DP3:EC3"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="BS4:BY4"/>
     <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
@@ -15083,8 +15017,6 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="C7:C59">
@@ -15101,173 +15033,119 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BC7 BE5:BJ6 BL5:BQ6 BS5:BX6 BZ5:CE6 CG5:CL6 CN5:CS6 CU5:CZ6 DB5:DG6 DI5:DN6 DP5:DU6 DW5:EB6 ED5:EI6 EK5:EP6 ER5:EW6 EY5:FD6 FF5:FK6 FM5:FR6 FT5:FY6 H58:BC59 F8:FZ57">
-    <cfRule type="expression" dxfId="38" priority="38">
+  <conditionalFormatting sqref="H5:BC7 F8:FZ57 H58:BC59 BE5:BJ6 BL5:BQ6 BS5:BX6 BZ5:CE6 CG5:CL6 CN5:CS6 CU5:CZ6 DB5:DG6 DI5:DN6 DP5:DU6 DW5:EB6 ED5:EI6 EK5:EP6 ER5:EW6 EY5:FD6 FF5:FK6 FM5:FR6 FT5:FY6">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>AND(TODAY()&gt;=F$5,TODAY()&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BC7 H58:BC59 F8:FZ57">
-    <cfRule type="expression" dxfId="37" priority="32">
-      <formula>AND(task_start&lt;=F$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=F$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BC7 F8:FZ57 H58:BC59">
+    <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
       <formula>AND(task_end&gt;=F$5,task_start&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FF7:FS7 FF58:FS59">
-    <cfRule type="expression" dxfId="35" priority="70">
-      <formula>AND(TODAY()&gt;=FF$5,TODAY()&lt;GI$5)</formula>
+  <conditionalFormatting sqref="H7:FZ7 F8:FZ57 H58:FZ59">
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>AND(task_start&lt;=F$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=F$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD5:BD6 BD7:BJ7 BZ7:CE7 CU7:CZ7 DB7:DG7 DI7:DN7 BD58:BJ59 BZ58:CE59 CU58:CZ59 DB58:DG59 DI58:DN59">
+    <cfRule type="expression" dxfId="23" priority="376">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD7:BJ7 BZ7:CE7 CU7:CZ7 DB7:DG7 DI7:DN7 BD58:BJ59 BZ58:CE59 CU58:CZ59 DB58:DG59 DI58:DN59">
+    <cfRule type="expression" dxfId="22" priority="418" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK5:BK6 BR5:BR6 BY5:BY6 CF5:CF6 CM5:CM6 CT5:CT6 DA5:DA6 DH5:DH6 DO5:DO6 DV5:DV6 EC5:EC6 EJ5:EJ6 EQ5:EQ6 EX5:EX6 FE5:FE6 FL5:FL6 FS5:FS6 FZ5:FZ6 BK7:BY7 BK58:BY59">
+    <cfRule type="expression" dxfId="21" priority="378">
+      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;GA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK7:BY7 BK58:BY59">
+    <cfRule type="expression" dxfId="20" priority="442" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BK$5,task_start&lt;GA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF7:CT7 CF58:CT59">
+    <cfRule type="expression" dxfId="19" priority="428">
+      <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="438" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CF$5,task_start&lt;GA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA7 DA58:DA59">
+    <cfRule type="expression" dxfId="17" priority="319">
+      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="321" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DA$5,task_start&lt;GA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DH7 DH58:DH59">
+    <cfRule type="expression" dxfId="15" priority="272">
+      <formula>AND(TODAY()&gt;=DH$5,TODAY()&lt;GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="274" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DH$5,task_start&lt;GA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DO7:DV7 DO58:DV59">
+    <cfRule type="expression" dxfId="13" priority="237" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DO$5,task_start&lt;GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="235">
+      <formula>AND(TODAY()&gt;=DO$5,TODAY()&lt;GA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW7:EC7 DW58:EC59">
+    <cfRule type="expression" dxfId="11" priority="198">
+      <formula>AND(TODAY()&gt;=DW$5,TODAY()&lt;GB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="200" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DW$5,task_start&lt;GB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ED7:EQ7 ED58:EQ59">
+    <cfRule type="expression" dxfId="9" priority="161">
+      <formula>AND(TODAY()&gt;=ED$5,TODAY()&lt;GB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="163" stopIfTrue="1">
+      <formula>AND(task_end&gt;=ED$5,task_start&lt;GB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ER7:EX7 ER58:EX59">
+    <cfRule type="expression" dxfId="7" priority="128">
+      <formula>AND(TODAY()&gt;=ER$5,TODAY()&lt;GI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="130" stopIfTrue="1">
+      <formula>AND(task_end&gt;=ER$5,task_start&lt;GI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EY7:FE7 EY58:FE59">
+    <cfRule type="expression" dxfId="5" priority="103">
+      <formula>AND(TODAY()&gt;=EY$5,TODAY()&lt;GI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="105" stopIfTrue="1">
+      <formula>AND(task_end&gt;=EY$5,task_start&lt;GI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF7:FS7 FF58:FS59">
-    <cfRule type="expression" dxfId="34" priority="71">
-      <formula>AND(task_start&lt;=FF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FF$5)</formula>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>AND(TODAY()&gt;=FF$5,TODAY()&lt;GI$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=FF$5,task_start&lt;GI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EY7:FE7 EY58:FE59">
-    <cfRule type="expression" dxfId="32" priority="103">
-      <formula>AND(TODAY()&gt;=EY$5,TODAY()&lt;GI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EY7:FE7 EY58:FE59">
-    <cfRule type="expression" dxfId="31" priority="104">
-      <formula>AND(task_start&lt;=EY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EY$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="105" stopIfTrue="1">
-      <formula>AND(task_end&gt;=EY$5,task_start&lt;GI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ER7:EX7 ER58:EX59">
-    <cfRule type="expression" dxfId="29" priority="128">
-      <formula>AND(TODAY()&gt;=ER$5,TODAY()&lt;GI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ER7:EX7 ER58:EX59">
-    <cfRule type="expression" dxfId="28" priority="129">
-      <formula>AND(task_start&lt;=ER$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=ER$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="130" stopIfTrue="1">
-      <formula>AND(task_end&gt;=ER$5,task_start&lt;GI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ED7:EQ7 ED58:EQ59">
-    <cfRule type="expression" dxfId="26" priority="161">
-      <formula>AND(TODAY()&gt;=ED$5,TODAY()&lt;GB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ED7:EQ7 ED58:EQ59">
-    <cfRule type="expression" dxfId="25" priority="162">
-      <formula>AND(task_start&lt;=ED$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=ED$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="163" stopIfTrue="1">
-      <formula>AND(task_end&gt;=ED$5,task_start&lt;GB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DW7:EC7 DW58:EC59">
-    <cfRule type="expression" dxfId="23" priority="198">
-      <formula>AND(TODAY()&gt;=DW$5,TODAY()&lt;GB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DW7:EC7 DW58:EC59">
-    <cfRule type="expression" dxfId="22" priority="199">
-      <formula>AND(task_start&lt;=DW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DW$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="200" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DW$5,task_start&lt;GB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DO7:DV7 DO58:DV59">
-    <cfRule type="expression" dxfId="20" priority="235">
-      <formula>AND(TODAY()&gt;=DO$5,TODAY()&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DO7:DV7 DO58:DV59">
-    <cfRule type="expression" dxfId="19" priority="236">
-      <formula>AND(task_start&lt;=DO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="237" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DO$5,task_start&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DH7 DH58:DH59">
-    <cfRule type="expression" dxfId="17" priority="272">
-      <formula>AND(TODAY()&gt;=DH$5,TODAY()&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DH7 DH58:DH59">
-    <cfRule type="expression" dxfId="16" priority="273">
-      <formula>AND(task_start&lt;=DH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DH$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="274" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DH$5,task_start&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DA7 DA58:DA59">
-    <cfRule type="expression" dxfId="14" priority="319">
-      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DA7 DA58:DA59">
-    <cfRule type="expression" dxfId="13" priority="320">
-      <formula>AND(task_start&lt;=DA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="321" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DA$5,task_start&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD5:BD6 BD7:BJ7 DI7:DN7 DB7:DG7 BZ7:CE7 CU7:CZ7 BZ58:CE59 BD58:BJ59 CU58:CZ59 DB58:DG59 DI58:DN59">
-    <cfRule type="expression" dxfId="11" priority="376">
-      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK7:BY7 BK5:BK6 BR5:BR6 BY5:BY6 CF5:CF6 CM5:CM6 CT5:CT6 DA5:DA6 DH5:DH6 DO5:DO6 DV5:DV6 EC5:EC6 EJ5:EJ6 EQ5:EQ6 EX5:EX6 FE5:FE6 FL5:FL6 FS5:FS6 FZ5:FZ6 BK58:BY59">
-    <cfRule type="expression" dxfId="10" priority="378">
-      <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="FT7:FZ7 FT58:FZ59">
-    <cfRule type="expression" dxfId="9" priority="397">
+    <cfRule type="expression" dxfId="1" priority="397">
       <formula>AND(TODAY()&gt;=FT$5,TODAY()&lt;GP$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FT7:FZ7 FT58:FZ59">
-    <cfRule type="expression" dxfId="8" priority="398">
-      <formula>AND(task_start&lt;=FT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="399" stopIfTrue="1">
       <formula>AND(task_end&gt;=FT$5,task_start&lt;GP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DI7:DN7 DB7:DG7 CU7:CZ7 BZ7:CE7 BD7:BJ7 BD58:BJ59 BZ58:CE59 CU58:CZ59 DB58:DG59 DI58:DN59">
-    <cfRule type="expression" dxfId="6" priority="417">
-      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="418" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BD$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF7:CT7 CF58:CT59">
-    <cfRule type="expression" dxfId="4" priority="428">
-      <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF7:CT7 CF58:CT59">
-    <cfRule type="expression" dxfId="3" priority="437">
-      <formula>AND(task_start&lt;=CF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CF$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="438" stopIfTrue="1">
-      <formula>AND(task_end&gt;=CF$5,task_start&lt;GA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK7:BY7 BK58:BY59">
-    <cfRule type="expression" dxfId="1" priority="441">
-      <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="442" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BK$5,task_start&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -15320,13 +15198,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -15338,7 +15216,7 @@
         <f>48/24</f>
         <v>2</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
@@ -15346,34 +15224,34 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="90">
+      <c r="B10" s="85">
         <v>10</v>
       </c>
       <c r="C10" s="4">
         <f>$C$6*B10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="86">
         <f>C10/600</f>
         <v>0</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="86">
         <f>C10/2400</f>
         <v>0</v>
       </c>
@@ -15381,18 +15259,18 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="90">
+      <c r="B11" s="85">
         <v>20</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:C14" si="0">$C$6*B11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="86">
         <f t="shared" ref="D11:D14" si="1">C11/600</f>
         <v>0</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="86">
         <f t="shared" ref="E11:E14" si="2">C11/2400</f>
         <v>0</v>
       </c>
@@ -15400,18 +15278,18 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="90">
+      <c r="B12" s="85">
         <v>30</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15419,18 +15297,18 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="90">
+      <c r="B13" s="85">
         <v>40</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15438,18 +15316,18 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="90">
+      <c r="B14" s="85">
         <v>50</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15457,7 +15335,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
+      <c r="B15" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15571,35 +15449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15887,27 +15736,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15926,4 +15784,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A301049-4F9A-4136-ACEF-E0D2A28A248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22F059-9244-4388-9B45-EAD238D5C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,9 +274,6 @@
     <t>Requirements Opstellen + Scope</t>
   </si>
   <si>
-    <t>Systeem Flow Diagram maken (met lifelines)</t>
-  </si>
-  <si>
     <t>Electrisch Schema maken (Test opstelling)</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Manage &amp; Controle + Professional Skils</t>
+  </si>
+  <si>
+    <t>Systeem statemachine maken</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
     <numFmt numFmtId="171" formatCode="d"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,12 +375,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1123,9 +1117,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1145,44 +1139,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1211,7 +1205,7 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,23 +1271,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1302,14 +1296,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
@@ -1332,8 +1326,8 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1376,15 +1370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,10 +1429,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1467,7 +1452,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1477,26 +1470,27 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="171" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="171" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="33" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1694,6 +1688,17 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1703,17 +1708,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -2384,7 +2378,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2411,28 +2405,28 @@
       <c r="H1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="103" t="s">
+      <c r="AH1" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AN1" s="92" t="s">
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AN1" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="FC1" s="93" t="s">
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="FC1" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="FD1" s="93"/>
-      <c r="FE1" s="93"/>
-      <c r="FF1" s="93"/>
-      <c r="FG1" s="93"/>
-      <c r="FH1" s="90"/>
-      <c r="GC1" s="95">
+      <c r="FD1" s="90"/>
+      <c r="FE1" s="90"/>
+      <c r="FF1" s="90"/>
+      <c r="FG1" s="90"/>
+      <c r="FH1" s="87"/>
+      <c r="GC1" s="92">
         <v>1</v>
       </c>
     </row>
@@ -2443,31 +2437,31 @@
       <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="94" t="s">
+      <c r="CA2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="CG2" s="93" t="s">
+      <c r="CG2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="CH2" s="93"/>
-      <c r="CI2" s="93"/>
-      <c r="CJ2" s="93"/>
-      <c r="CK2" s="93"/>
-      <c r="EZ2" s="94" t="s">
+      <c r="CH2" s="90"/>
+      <c r="CI2" s="90"/>
+      <c r="CJ2" s="90"/>
+      <c r="CK2" s="90"/>
+      <c r="EZ2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="FC2" s="90"/>
-      <c r="FF2" s="93" t="s">
+      <c r="FC2" s="87"/>
+      <c r="FF2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="FG2" s="93"/>
-      <c r="FH2" s="93"/>
-      <c r="FI2" s="93"/>
-      <c r="FJ2" s="93"/>
-      <c r="FK2" s="90"/>
-      <c r="FL2" s="90"/>
-      <c r="FM2" s="90"/>
-      <c r="GC2" s="95">
+      <c r="FG2" s="90"/>
+      <c r="FH2" s="90"/>
+      <c r="FI2" s="90"/>
+      <c r="FJ2" s="90"/>
+      <c r="FK2" s="87"/>
+      <c r="FL2" s="87"/>
+      <c r="FM2" s="87"/>
+      <c r="GC2" s="92">
         <v>1</v>
       </c>
     </row>
@@ -2475,314 +2469,314 @@
       <c r="B3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="109">
+      <c r="C3" s="70"/>
+      <c r="D3" s="108">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="P3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AY3" s="90"/>
-      <c r="BM3" s="91"/>
-      <c r="BN3" s="90"/>
-      <c r="BO3" s="107" t="s">
+      <c r="E3" s="108"/>
+      <c r="P3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AY3" s="87"/>
+      <c r="BM3" s="88"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="107"/>
-      <c r="BR3" s="107"/>
-      <c r="BS3" s="107"/>
-      <c r="BT3" s="107"/>
-      <c r="BU3" s="107"/>
-      <c r="BV3" s="107"/>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="107"/>
-      <c r="BY3" s="107"/>
-      <c r="CA3" s="91"/>
-      <c r="CG3" s="90"/>
-      <c r="CO3" s="91"/>
-      <c r="DC3" s="91"/>
-      <c r="DP3" s="108" t="s">
+      <c r="BP3" s="109"/>
+      <c r="BQ3" s="109"/>
+      <c r="BR3" s="109"/>
+      <c r="BS3" s="109"/>
+      <c r="BT3" s="109"/>
+      <c r="BU3" s="109"/>
+      <c r="BV3" s="109"/>
+      <c r="BW3" s="109"/>
+      <c r="BX3" s="109"/>
+      <c r="BY3" s="109"/>
+      <c r="CA3" s="88"/>
+      <c r="CG3" s="87"/>
+      <c r="CO3" s="88"/>
+      <c r="DC3" s="88"/>
+      <c r="DP3" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="108"/>
-      <c r="DR3" s="108"/>
-      <c r="DS3" s="108"/>
-      <c r="DT3" s="108"/>
-      <c r="DU3" s="108"/>
-      <c r="DV3" s="108"/>
-      <c r="DW3" s="108"/>
-      <c r="DX3" s="108"/>
-      <c r="DY3" s="108"/>
-      <c r="DZ3" s="108"/>
-      <c r="EA3" s="108"/>
-      <c r="EB3" s="108"/>
-      <c r="EC3" s="108"/>
-      <c r="EZ3" s="91"/>
-      <c r="FC3" s="90"/>
-      <c r="FF3" s="90"/>
-      <c r="GC3" s="95">
+      <c r="DQ3" s="110"/>
+      <c r="DR3" s="110"/>
+      <c r="DS3" s="110"/>
+      <c r="DT3" s="110"/>
+      <c r="DU3" s="110"/>
+      <c r="DV3" s="110"/>
+      <c r="DW3" s="110"/>
+      <c r="DX3" s="110"/>
+      <c r="DY3" s="110"/>
+      <c r="DZ3" s="110"/>
+      <c r="EA3" s="110"/>
+      <c r="EB3" s="110"/>
+      <c r="EC3" s="110"/>
+      <c r="EZ3" s="88"/>
+      <c r="FC3" s="87"/>
+      <c r="FF3" s="87"/>
+      <c r="GC3" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:185" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="73"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="105">
         <f>H5</f>
         <v>45901</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="104">
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="105">
         <f>O5</f>
         <v>45908</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="104">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="105">
         <f>V5</f>
         <v>45915</v>
       </c>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="104">
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="105">
         <f>AC5</f>
         <v>45922</v>
       </c>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="104">
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="105">
         <f>AJ5</f>
         <v>45929</v>
       </c>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="104">
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="105">
         <f>AQ5</f>
         <v>45936</v>
       </c>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="104">
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="105">
         <f>AX5</f>
         <v>45943</v>
       </c>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="104">
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="105">
         <f>BE5</f>
         <v>45950</v>
       </c>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="105"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="104">
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="105">
         <f>BL5</f>
         <v>45957</v>
       </c>
-      <c r="BM4" s="105"/>
-      <c r="BN4" s="105"/>
-      <c r="BO4" s="105"/>
-      <c r="BP4" s="105"/>
-      <c r="BQ4" s="105"/>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="104">
+      <c r="BM4" s="106"/>
+      <c r="BN4" s="106"/>
+      <c r="BO4" s="106"/>
+      <c r="BP4" s="106"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="107"/>
+      <c r="BS4" s="105">
         <f>BS5</f>
         <v>45964</v>
       </c>
-      <c r="BT4" s="105"/>
-      <c r="BU4" s="105"/>
-      <c r="BV4" s="105"/>
-      <c r="BW4" s="105"/>
-      <c r="BX4" s="105"/>
-      <c r="BY4" s="106"/>
-      <c r="BZ4" s="104">
+      <c r="BT4" s="106"/>
+      <c r="BU4" s="106"/>
+      <c r="BV4" s="106"/>
+      <c r="BW4" s="106"/>
+      <c r="BX4" s="106"/>
+      <c r="BY4" s="107"/>
+      <c r="BZ4" s="105">
         <f>BZ5</f>
         <v>45971</v>
       </c>
-      <c r="CA4" s="105"/>
-      <c r="CB4" s="105"/>
-      <c r="CC4" s="105"/>
-      <c r="CD4" s="105"/>
-      <c r="CE4" s="105"/>
-      <c r="CF4" s="106"/>
-      <c r="CG4" s="104">
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="106"/>
+      <c r="CD4" s="106"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="107"/>
+      <c r="CG4" s="105">
         <f>CG5</f>
         <v>45978</v>
       </c>
-      <c r="CH4" s="105"/>
-      <c r="CI4" s="105"/>
-      <c r="CJ4" s="105"/>
-      <c r="CK4" s="105"/>
-      <c r="CL4" s="105"/>
-      <c r="CM4" s="106"/>
-      <c r="CN4" s="104">
+      <c r="CH4" s="106"/>
+      <c r="CI4" s="106"/>
+      <c r="CJ4" s="106"/>
+      <c r="CK4" s="106"/>
+      <c r="CL4" s="106"/>
+      <c r="CM4" s="107"/>
+      <c r="CN4" s="105">
         <f>CN5</f>
         <v>45985</v>
       </c>
-      <c r="CO4" s="105"/>
-      <c r="CP4" s="105"/>
-      <c r="CQ4" s="105"/>
-      <c r="CR4" s="105"/>
-      <c r="CS4" s="105"/>
-      <c r="CT4" s="106"/>
-      <c r="CU4" s="104">
+      <c r="CO4" s="106"/>
+      <c r="CP4" s="106"/>
+      <c r="CQ4" s="106"/>
+      <c r="CR4" s="106"/>
+      <c r="CS4" s="106"/>
+      <c r="CT4" s="107"/>
+      <c r="CU4" s="105">
         <f>CU5</f>
         <v>45992</v>
       </c>
-      <c r="CV4" s="105"/>
-      <c r="CW4" s="105"/>
-      <c r="CX4" s="105"/>
-      <c r="CY4" s="105"/>
-      <c r="CZ4" s="105"/>
-      <c r="DA4" s="106"/>
-      <c r="DB4" s="104">
+      <c r="CV4" s="106"/>
+      <c r="CW4" s="106"/>
+      <c r="CX4" s="106"/>
+      <c r="CY4" s="106"/>
+      <c r="CZ4" s="106"/>
+      <c r="DA4" s="107"/>
+      <c r="DB4" s="105">
         <f t="shared" ref="DB4" si="0">DB5</f>
         <v>45999</v>
       </c>
-      <c r="DC4" s="105"/>
-      <c r="DD4" s="105"/>
-      <c r="DE4" s="105"/>
-      <c r="DF4" s="105"/>
-      <c r="DG4" s="105"/>
-      <c r="DH4" s="106"/>
-      <c r="DI4" s="104">
+      <c r="DC4" s="106"/>
+      <c r="DD4" s="106"/>
+      <c r="DE4" s="106"/>
+      <c r="DF4" s="106"/>
+      <c r="DG4" s="106"/>
+      <c r="DH4" s="107"/>
+      <c r="DI4" s="105">
         <f t="shared" ref="DI4" si="1">DI5</f>
         <v>46006</v>
       </c>
-      <c r="DJ4" s="105"/>
-      <c r="DK4" s="105"/>
-      <c r="DL4" s="105"/>
-      <c r="DM4" s="105"/>
-      <c r="DN4" s="105"/>
-      <c r="DO4" s="106"/>
-      <c r="DP4" s="104">
+      <c r="DJ4" s="106"/>
+      <c r="DK4" s="106"/>
+      <c r="DL4" s="106"/>
+      <c r="DM4" s="106"/>
+      <c r="DN4" s="106"/>
+      <c r="DO4" s="107"/>
+      <c r="DP4" s="105">
         <f t="shared" ref="DP4" si="2">DP5</f>
         <v>46013</v>
       </c>
-      <c r="DQ4" s="105"/>
-      <c r="DR4" s="105"/>
-      <c r="DS4" s="105"/>
-      <c r="DT4" s="105"/>
-      <c r="DU4" s="105"/>
-      <c r="DV4" s="106"/>
-      <c r="DW4" s="104">
+      <c r="DQ4" s="106"/>
+      <c r="DR4" s="106"/>
+      <c r="DS4" s="106"/>
+      <c r="DT4" s="106"/>
+      <c r="DU4" s="106"/>
+      <c r="DV4" s="107"/>
+      <c r="DW4" s="105">
         <f t="shared" ref="DW4" si="3">DW5</f>
         <v>46020</v>
       </c>
-      <c r="DX4" s="105"/>
-      <c r="DY4" s="105"/>
-      <c r="DZ4" s="105"/>
-      <c r="EA4" s="105"/>
-      <c r="EB4" s="105"/>
-      <c r="EC4" s="106"/>
-      <c r="ED4" s="104">
+      <c r="DX4" s="106"/>
+      <c r="DY4" s="106"/>
+      <c r="DZ4" s="106"/>
+      <c r="EA4" s="106"/>
+      <c r="EB4" s="106"/>
+      <c r="EC4" s="107"/>
+      <c r="ED4" s="105">
         <f t="shared" ref="ED4" si="4">ED5</f>
         <v>46027</v>
       </c>
-      <c r="EE4" s="105"/>
-      <c r="EF4" s="105"/>
-      <c r="EG4" s="105"/>
-      <c r="EH4" s="105"/>
-      <c r="EI4" s="105"/>
-      <c r="EJ4" s="106"/>
-      <c r="EK4" s="104">
+      <c r="EE4" s="106"/>
+      <c r="EF4" s="106"/>
+      <c r="EG4" s="106"/>
+      <c r="EH4" s="106"/>
+      <c r="EI4" s="106"/>
+      <c r="EJ4" s="107"/>
+      <c r="EK4" s="105">
         <f t="shared" ref="EK4" si="5">EK5</f>
         <v>46034</v>
       </c>
-      <c r="EL4" s="105"/>
-      <c r="EM4" s="105"/>
-      <c r="EN4" s="105"/>
-      <c r="EO4" s="105"/>
-      <c r="EP4" s="105"/>
-      <c r="EQ4" s="106"/>
-      <c r="ER4" s="104">
+      <c r="EL4" s="106"/>
+      <c r="EM4" s="106"/>
+      <c r="EN4" s="106"/>
+      <c r="EO4" s="106"/>
+      <c r="EP4" s="106"/>
+      <c r="EQ4" s="107"/>
+      <c r="ER4" s="105">
         <f t="shared" ref="ER4" si="6">ER5</f>
         <v>46041</v>
       </c>
-      <c r="ES4" s="105"/>
-      <c r="ET4" s="105"/>
-      <c r="EU4" s="105"/>
-      <c r="EV4" s="105"/>
-      <c r="EW4" s="105"/>
-      <c r="EX4" s="106"/>
-      <c r="EY4" s="104">
+      <c r="ES4" s="106"/>
+      <c r="ET4" s="106"/>
+      <c r="EU4" s="106"/>
+      <c r="EV4" s="106"/>
+      <c r="EW4" s="106"/>
+      <c r="EX4" s="107"/>
+      <c r="EY4" s="105">
         <f t="shared" ref="EY4" si="7">EY5</f>
         <v>46048</v>
       </c>
-      <c r="EZ4" s="105"/>
-      <c r="FA4" s="105"/>
-      <c r="FB4" s="105"/>
-      <c r="FC4" s="105"/>
-      <c r="FD4" s="105"/>
-      <c r="FE4" s="106"/>
-      <c r="FF4" s="104">
+      <c r="EZ4" s="106"/>
+      <c r="FA4" s="106"/>
+      <c r="FB4" s="106"/>
+      <c r="FC4" s="106"/>
+      <c r="FD4" s="106"/>
+      <c r="FE4" s="107"/>
+      <c r="FF4" s="105">
         <f t="shared" ref="FF4" si="8">FF5</f>
         <v>46055</v>
       </c>
-      <c r="FG4" s="105"/>
-      <c r="FH4" s="105"/>
-      <c r="FI4" s="105"/>
-      <c r="FJ4" s="105"/>
-      <c r="FK4" s="105"/>
-      <c r="FL4" s="106"/>
-      <c r="FM4" s="104">
+      <c r="FG4" s="106"/>
+      <c r="FH4" s="106"/>
+      <c r="FI4" s="106"/>
+      <c r="FJ4" s="106"/>
+      <c r="FK4" s="106"/>
+      <c r="FL4" s="107"/>
+      <c r="FM4" s="105">
         <f t="shared" ref="FM4" si="9">FM5</f>
         <v>46062</v>
       </c>
-      <c r="FN4" s="105"/>
-      <c r="FO4" s="105"/>
-      <c r="FP4" s="105"/>
-      <c r="FQ4" s="105"/>
-      <c r="FR4" s="105"/>
-      <c r="FS4" s="106"/>
-      <c r="FT4" s="104">
+      <c r="FN4" s="106"/>
+      <c r="FO4" s="106"/>
+      <c r="FP4" s="106"/>
+      <c r="FQ4" s="106"/>
+      <c r="FR4" s="106"/>
+      <c r="FS4" s="107"/>
+      <c r="FT4" s="105">
         <f t="shared" ref="FT4" si="10">FT5</f>
         <v>46069</v>
       </c>
-      <c r="FU4" s="105"/>
-      <c r="FV4" s="105"/>
-      <c r="FW4" s="105"/>
-      <c r="FX4" s="105"/>
-      <c r="FY4" s="105"/>
-      <c r="FZ4" s="106"/>
-      <c r="GC4" s="95">
+      <c r="FU4" s="106"/>
+      <c r="FV4" s="106"/>
+      <c r="FW4" s="106"/>
+      <c r="FX4" s="106"/>
+      <c r="FY4" s="106"/>
+      <c r="FZ4" s="107"/>
+      <c r="GC4" s="92">
         <v>1</v>
       </c>
     </row>
@@ -2792,707 +2786,707 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
-      <c r="H5" s="68">
+      <c r="H5" s="112">
         <f>Begin_project-WEEKDAY(Begin_project,1)+2+7*(Weergegeven_week-1)</f>
         <v>45901</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="113">
         <f>H5+1</f>
         <v>45902</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="113">
         <f t="shared" ref="J5:AW5" si="11">I5+1</f>
         <v>45903</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="113">
         <f t="shared" si="11"/>
         <v>45904</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="113">
         <f t="shared" si="11"/>
         <v>45905</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="113">
         <f t="shared" si="11"/>
         <v>45906</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="114">
         <f t="shared" si="11"/>
         <v>45907</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="112">
         <f>N5+1</f>
         <v>45908</v>
       </c>
-      <c r="P5" s="69">
+      <c r="P5" s="113">
         <f>O5+1</f>
         <v>45909</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="113">
         <f t="shared" si="11"/>
         <v>45910</v>
       </c>
-      <c r="R5" s="69">
+      <c r="R5" s="113">
         <f t="shared" si="11"/>
         <v>45911</v>
       </c>
-      <c r="S5" s="69">
+      <c r="S5" s="113">
         <f t="shared" si="11"/>
         <v>45912</v>
       </c>
-      <c r="T5" s="69">
+      <c r="T5" s="113">
         <f t="shared" si="11"/>
         <v>45913</v>
       </c>
-      <c r="U5" s="70">
+      <c r="U5" s="114">
         <f t="shared" si="11"/>
         <v>45914</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="112">
         <f>U5+1</f>
         <v>45915</v>
       </c>
-      <c r="W5" s="69">
+      <c r="W5" s="113">
         <f>V5+1</f>
         <v>45916</v>
       </c>
-      <c r="X5" s="69">
+      <c r="X5" s="113">
         <f t="shared" si="11"/>
         <v>45917</v>
       </c>
-      <c r="Y5" s="69">
+      <c r="Y5" s="113">
         <f t="shared" si="11"/>
         <v>45918</v>
       </c>
-      <c r="Z5" s="69">
+      <c r="Z5" s="113">
         <f t="shared" si="11"/>
         <v>45919</v>
       </c>
-      <c r="AA5" s="69">
+      <c r="AA5" s="113">
         <f t="shared" si="11"/>
         <v>45920</v>
       </c>
-      <c r="AB5" s="70">
+      <c r="AB5" s="114">
         <f t="shared" si="11"/>
         <v>45921</v>
       </c>
-      <c r="AC5" s="68">
+      <c r="AC5" s="112">
         <f>AB5+1</f>
         <v>45922</v>
       </c>
-      <c r="AD5" s="69">
+      <c r="AD5" s="113">
         <f>AC5+1</f>
         <v>45923</v>
       </c>
-      <c r="AE5" s="69">
+      <c r="AE5" s="113">
         <f t="shared" si="11"/>
         <v>45924</v>
       </c>
-      <c r="AF5" s="69">
+      <c r="AF5" s="113">
         <f t="shared" si="11"/>
         <v>45925</v>
       </c>
-      <c r="AG5" s="69">
+      <c r="AG5" s="113">
         <f t="shared" si="11"/>
         <v>45926</v>
       </c>
-      <c r="AH5" s="69">
+      <c r="AH5" s="113">
         <f t="shared" si="11"/>
         <v>45927</v>
       </c>
-      <c r="AI5" s="70">
+      <c r="AI5" s="114">
         <f t="shared" si="11"/>
         <v>45928</v>
       </c>
-      <c r="AJ5" s="68">
+      <c r="AJ5" s="112">
         <f>AI5+1</f>
         <v>45929</v>
       </c>
-      <c r="AK5" s="69">
+      <c r="AK5" s="113">
         <f>AJ5+1</f>
         <v>45930</v>
       </c>
-      <c r="AL5" s="69">
+      <c r="AL5" s="113">
         <f t="shared" si="11"/>
         <v>45931</v>
       </c>
-      <c r="AM5" s="69">
+      <c r="AM5" s="113">
         <f t="shared" si="11"/>
         <v>45932</v>
       </c>
-      <c r="AN5" s="69">
+      <c r="AN5" s="113">
         <f t="shared" si="11"/>
         <v>45933</v>
       </c>
-      <c r="AO5" s="69">
+      <c r="AO5" s="113">
         <f t="shared" si="11"/>
         <v>45934</v>
       </c>
-      <c r="AP5" s="70">
+      <c r="AP5" s="114">
         <f t="shared" si="11"/>
         <v>45935</v>
       </c>
-      <c r="AQ5" s="68">
+      <c r="AQ5" s="112">
         <f>AP5+1</f>
         <v>45936</v>
       </c>
-      <c r="AR5" s="69">
+      <c r="AR5" s="113">
         <f>AQ5+1</f>
         <v>45937</v>
       </c>
-      <c r="AS5" s="69">
+      <c r="AS5" s="113">
         <f t="shared" si="11"/>
         <v>45938</v>
       </c>
-      <c r="AT5" s="69">
+      <c r="AT5" s="113">
         <f t="shared" si="11"/>
         <v>45939</v>
       </c>
-      <c r="AU5" s="69">
+      <c r="AU5" s="113">
         <f t="shared" si="11"/>
         <v>45940</v>
       </c>
-      <c r="AV5" s="69">
+      <c r="AV5" s="113">
         <f t="shared" si="11"/>
         <v>45941</v>
       </c>
-      <c r="AW5" s="70">
+      <c r="AW5" s="114">
         <f t="shared" si="11"/>
         <v>45942</v>
       </c>
-      <c r="AX5" s="68">
+      <c r="AX5" s="112">
         <f>AW5+1</f>
         <v>45943</v>
       </c>
-      <c r="AY5" s="69">
+      <c r="AY5" s="113">
         <f>AX5+1</f>
         <v>45944</v>
       </c>
-      <c r="AZ5" s="69">
+      <c r="AZ5" s="113">
         <f t="shared" ref="AZ5:BD5" si="12">AY5+1</f>
         <v>45945</v>
       </c>
-      <c r="BA5" s="69">
+      <c r="BA5" s="113">
         <f t="shared" si="12"/>
         <v>45946</v>
       </c>
-      <c r="BB5" s="69">
+      <c r="BB5" s="113">
         <f t="shared" si="12"/>
         <v>45947</v>
       </c>
-      <c r="BC5" s="69">
+      <c r="BC5" s="113">
         <f t="shared" si="12"/>
         <v>45948</v>
       </c>
-      <c r="BD5" s="70">
+      <c r="BD5" s="114">
         <f t="shared" si="12"/>
         <v>45949</v>
       </c>
-      <c r="BE5" s="68">
+      <c r="BE5" s="112">
         <f>BD5+1</f>
         <v>45950</v>
       </c>
-      <c r="BF5" s="69">
+      <c r="BF5" s="113">
         <f>BE5+1</f>
         <v>45951</v>
       </c>
-      <c r="BG5" s="69">
+      <c r="BG5" s="113">
         <f t="shared" ref="BG5" si="13">BF5+1</f>
         <v>45952</v>
       </c>
-      <c r="BH5" s="69">
+      <c r="BH5" s="113">
         <f t="shared" ref="BH5" si="14">BG5+1</f>
         <v>45953</v>
       </c>
-      <c r="BI5" s="69">
+      <c r="BI5" s="113">
         <f t="shared" ref="BI5" si="15">BH5+1</f>
         <v>45954</v>
       </c>
-      <c r="BJ5" s="69">
+      <c r="BJ5" s="113">
         <f t="shared" ref="BJ5" si="16">BI5+1</f>
         <v>45955</v>
       </c>
-      <c r="BK5" s="70">
+      <c r="BK5" s="114">
         <f t="shared" ref="BK5" si="17">BJ5+1</f>
         <v>45956</v>
       </c>
-      <c r="BL5" s="68">
+      <c r="BL5" s="112">
         <f>BK5+1</f>
         <v>45957</v>
       </c>
-      <c r="BM5" s="69">
+      <c r="BM5" s="113">
         <f>BL5+1</f>
         <v>45958</v>
       </c>
-      <c r="BN5" s="69">
+      <c r="BN5" s="113">
         <f t="shared" ref="BN5" si="18">BM5+1</f>
         <v>45959</v>
       </c>
-      <c r="BO5" s="69">
+      <c r="BO5" s="113">
         <f t="shared" ref="BO5" si="19">BN5+1</f>
         <v>45960</v>
       </c>
-      <c r="BP5" s="69">
+      <c r="BP5" s="113">
         <f t="shared" ref="BP5" si="20">BO5+1</f>
         <v>45961</v>
       </c>
-      <c r="BQ5" s="69">
+      <c r="BQ5" s="113">
         <f t="shared" ref="BQ5" si="21">BP5+1</f>
         <v>45962</v>
       </c>
-      <c r="BR5" s="70">
+      <c r="BR5" s="114">
         <f t="shared" ref="BR5" si="22">BQ5+1</f>
         <v>45963</v>
       </c>
-      <c r="BS5" s="68">
+      <c r="BS5" s="112">
         <f>BR5+1</f>
         <v>45964</v>
       </c>
-      <c r="BT5" s="69">
+      <c r="BT5" s="113">
         <f>BS5+1</f>
         <v>45965</v>
       </c>
-      <c r="BU5" s="69">
+      <c r="BU5" s="113">
         <f t="shared" ref="BU5" si="23">BT5+1</f>
         <v>45966</v>
       </c>
-      <c r="BV5" s="69">
+      <c r="BV5" s="113">
         <f t="shared" ref="BV5" si="24">BU5+1</f>
         <v>45967</v>
       </c>
-      <c r="BW5" s="69">
+      <c r="BW5" s="113">
         <f t="shared" ref="BW5" si="25">BV5+1</f>
         <v>45968</v>
       </c>
-      <c r="BX5" s="69">
+      <c r="BX5" s="113">
         <f t="shared" ref="BX5" si="26">BW5+1</f>
         <v>45969</v>
       </c>
-      <c r="BY5" s="70">
+      <c r="BY5" s="114">
         <f t="shared" ref="BY5" si="27">BX5+1</f>
         <v>45970</v>
       </c>
-      <c r="BZ5" s="68">
+      <c r="BZ5" s="112">
         <f>BY5+1</f>
         <v>45971</v>
       </c>
-      <c r="CA5" s="69">
+      <c r="CA5" s="113">
         <f>BZ5+1</f>
         <v>45972</v>
       </c>
-      <c r="CB5" s="69">
+      <c r="CB5" s="113">
         <f t="shared" ref="CB5" si="28">CA5+1</f>
         <v>45973</v>
       </c>
-      <c r="CC5" s="69">
+      <c r="CC5" s="113">
         <f t="shared" ref="CC5" si="29">CB5+1</f>
         <v>45974</v>
       </c>
-      <c r="CD5" s="69">
+      <c r="CD5" s="113">
         <f t="shared" ref="CD5" si="30">CC5+1</f>
         <v>45975</v>
       </c>
-      <c r="CE5" s="69">
+      <c r="CE5" s="113">
         <f t="shared" ref="CE5" si="31">CD5+1</f>
         <v>45976</v>
       </c>
-      <c r="CF5" s="70">
+      <c r="CF5" s="114">
         <f t="shared" ref="CF5" si="32">CE5+1</f>
         <v>45977</v>
       </c>
-      <c r="CG5" s="68">
+      <c r="CG5" s="112">
         <f>CF5+1</f>
         <v>45978</v>
       </c>
-      <c r="CH5" s="69">
+      <c r="CH5" s="113">
         <f>CG5+1</f>
         <v>45979</v>
       </c>
-      <c r="CI5" s="69">
+      <c r="CI5" s="113">
         <f t="shared" ref="CI5" si="33">CH5+1</f>
         <v>45980</v>
       </c>
-      <c r="CJ5" s="69">
+      <c r="CJ5" s="113">
         <f t="shared" ref="CJ5" si="34">CI5+1</f>
         <v>45981</v>
       </c>
-      <c r="CK5" s="69">
+      <c r="CK5" s="113">
         <f t="shared" ref="CK5" si="35">CJ5+1</f>
         <v>45982</v>
       </c>
-      <c r="CL5" s="69">
+      <c r="CL5" s="113">
         <f t="shared" ref="CL5" si="36">CK5+1</f>
         <v>45983</v>
       </c>
-      <c r="CM5" s="70">
+      <c r="CM5" s="114">
         <f t="shared" ref="CM5" si="37">CL5+1</f>
         <v>45984</v>
       </c>
-      <c r="CN5" s="68">
+      <c r="CN5" s="112">
         <f>CM5+1</f>
         <v>45985</v>
       </c>
-      <c r="CO5" s="69">
+      <c r="CO5" s="113">
         <f>CN5+1</f>
         <v>45986</v>
       </c>
-      <c r="CP5" s="69">
+      <c r="CP5" s="113">
         <f t="shared" ref="CP5" si="38">CO5+1</f>
         <v>45987</v>
       </c>
-      <c r="CQ5" s="69">
+      <c r="CQ5" s="113">
         <f t="shared" ref="CQ5" si="39">CP5+1</f>
         <v>45988</v>
       </c>
-      <c r="CR5" s="69">
+      <c r="CR5" s="113">
         <f t="shared" ref="CR5" si="40">CQ5+1</f>
         <v>45989</v>
       </c>
-      <c r="CS5" s="69">
+      <c r="CS5" s="113">
         <f t="shared" ref="CS5" si="41">CR5+1</f>
         <v>45990</v>
       </c>
-      <c r="CT5" s="70">
+      <c r="CT5" s="114">
         <f t="shared" ref="CT5" si="42">CS5+1</f>
         <v>45991</v>
       </c>
-      <c r="CU5" s="68">
+      <c r="CU5" s="112">
         <f>CT5+1</f>
         <v>45992</v>
       </c>
-      <c r="CV5" s="69">
+      <c r="CV5" s="113">
         <f>CU5+1</f>
         <v>45993</v>
       </c>
-      <c r="CW5" s="69">
+      <c r="CW5" s="113">
         <f t="shared" ref="CW5" si="43">CV5+1</f>
         <v>45994</v>
       </c>
-      <c r="CX5" s="69">
+      <c r="CX5" s="113">
         <f t="shared" ref="CX5" si="44">CW5+1</f>
         <v>45995</v>
       </c>
-      <c r="CY5" s="69">
+      <c r="CY5" s="113">
         <f t="shared" ref="CY5" si="45">CX5+1</f>
         <v>45996</v>
       </c>
-      <c r="CZ5" s="69">
+      <c r="CZ5" s="113">
         <f t="shared" ref="CZ5" si="46">CY5+1</f>
         <v>45997</v>
       </c>
-      <c r="DA5" s="70">
+      <c r="DA5" s="114">
         <f t="shared" ref="DA5:DC5" si="47">CZ5+1</f>
         <v>45998</v>
       </c>
-      <c r="DB5" s="68">
+      <c r="DB5" s="112">
         <f t="shared" si="47"/>
         <v>45999</v>
       </c>
-      <c r="DC5" s="69">
+      <c r="DC5" s="113">
         <f t="shared" si="47"/>
         <v>46000</v>
       </c>
-      <c r="DD5" s="69">
+      <c r="DD5" s="113">
         <f t="shared" ref="DD5" si="48">DC5+1</f>
         <v>46001</v>
       </c>
-      <c r="DE5" s="69">
+      <c r="DE5" s="113">
         <f t="shared" ref="DE5" si="49">DD5+1</f>
         <v>46002</v>
       </c>
-      <c r="DF5" s="69">
+      <c r="DF5" s="113">
         <f t="shared" ref="DF5" si="50">DE5+1</f>
         <v>46003</v>
       </c>
-      <c r="DG5" s="69">
+      <c r="DG5" s="113">
         <f t="shared" ref="DG5" si="51">DF5+1</f>
         <v>46004</v>
       </c>
-      <c r="DH5" s="70">
+      <c r="DH5" s="114">
         <f t="shared" ref="DH5:DJ5" si="52">DG5+1</f>
         <v>46005</v>
       </c>
-      <c r="DI5" s="68">
+      <c r="DI5" s="112">
         <f t="shared" si="52"/>
         <v>46006</v>
       </c>
-      <c r="DJ5" s="69">
+      <c r="DJ5" s="113">
         <f t="shared" si="52"/>
         <v>46007</v>
       </c>
-      <c r="DK5" s="69">
+      <c r="DK5" s="113">
         <f t="shared" ref="DK5" si="53">DJ5+1</f>
         <v>46008</v>
       </c>
-      <c r="DL5" s="69">
+      <c r="DL5" s="113">
         <f t="shared" ref="DL5" si="54">DK5+1</f>
         <v>46009</v>
       </c>
-      <c r="DM5" s="69">
+      <c r="DM5" s="113">
         <f t="shared" ref="DM5" si="55">DL5+1</f>
         <v>46010</v>
       </c>
-      <c r="DN5" s="69">
+      <c r="DN5" s="113">
         <f t="shared" ref="DN5" si="56">DM5+1</f>
         <v>46011</v>
       </c>
-      <c r="DO5" s="70">
+      <c r="DO5" s="114">
         <f t="shared" ref="DO5:DQ5" si="57">DN5+1</f>
         <v>46012</v>
       </c>
-      <c r="DP5" s="68">
+      <c r="DP5" s="112">
         <f t="shared" si="57"/>
         <v>46013</v>
       </c>
-      <c r="DQ5" s="69">
+      <c r="DQ5" s="113">
         <f t="shared" si="57"/>
         <v>46014</v>
       </c>
-      <c r="DR5" s="69">
+      <c r="DR5" s="113">
         <f t="shared" ref="DR5" si="58">DQ5+1</f>
         <v>46015</v>
       </c>
-      <c r="DS5" s="69">
+      <c r="DS5" s="113">
         <f t="shared" ref="DS5" si="59">DR5+1</f>
         <v>46016</v>
       </c>
-      <c r="DT5" s="69">
+      <c r="DT5" s="113">
         <f t="shared" ref="DT5" si="60">DS5+1</f>
         <v>46017</v>
       </c>
-      <c r="DU5" s="69">
+      <c r="DU5" s="113">
         <f t="shared" ref="DU5" si="61">DT5+1</f>
         <v>46018</v>
       </c>
-      <c r="DV5" s="70">
+      <c r="DV5" s="114">
         <f t="shared" ref="DV5:DX5" si="62">DU5+1</f>
         <v>46019</v>
       </c>
-      <c r="DW5" s="68">
+      <c r="DW5" s="112">
         <f t="shared" si="62"/>
         <v>46020</v>
       </c>
-      <c r="DX5" s="69">
+      <c r="DX5" s="113">
         <f t="shared" si="62"/>
         <v>46021</v>
       </c>
-      <c r="DY5" s="69">
+      <c r="DY5" s="113">
         <f t="shared" ref="DY5" si="63">DX5+1</f>
         <v>46022</v>
       </c>
-      <c r="DZ5" s="69">
+      <c r="DZ5" s="113">
         <f t="shared" ref="DZ5" si="64">DY5+1</f>
         <v>46023</v>
       </c>
-      <c r="EA5" s="69">
+      <c r="EA5" s="113">
         <f t="shared" ref="EA5" si="65">DZ5+1</f>
         <v>46024</v>
       </c>
-      <c r="EB5" s="69">
+      <c r="EB5" s="113">
         <f t="shared" ref="EB5" si="66">EA5+1</f>
         <v>46025</v>
       </c>
-      <c r="EC5" s="70">
+      <c r="EC5" s="114">
         <f t="shared" ref="EC5:EE5" si="67">EB5+1</f>
         <v>46026</v>
       </c>
-      <c r="ED5" s="68">
+      <c r="ED5" s="112">
         <f t="shared" si="67"/>
         <v>46027</v>
       </c>
-      <c r="EE5" s="69">
+      <c r="EE5" s="113">
         <f t="shared" si="67"/>
         <v>46028</v>
       </c>
-      <c r="EF5" s="69">
+      <c r="EF5" s="113">
         <f t="shared" ref="EF5" si="68">EE5+1</f>
         <v>46029</v>
       </c>
-      <c r="EG5" s="69">
+      <c r="EG5" s="113">
         <f t="shared" ref="EG5" si="69">EF5+1</f>
         <v>46030</v>
       </c>
-      <c r="EH5" s="69">
+      <c r="EH5" s="113">
         <f t="shared" ref="EH5" si="70">EG5+1</f>
         <v>46031</v>
       </c>
-      <c r="EI5" s="69">
+      <c r="EI5" s="113">
         <f t="shared" ref="EI5" si="71">EH5+1</f>
         <v>46032</v>
       </c>
-      <c r="EJ5" s="70">
+      <c r="EJ5" s="114">
         <f t="shared" ref="EJ5" si="72">EI5+1</f>
         <v>46033</v>
       </c>
-      <c r="EK5" s="68">
+      <c r="EK5" s="112">
         <f t="shared" ref="EK5" si="73">EJ5+1</f>
         <v>46034</v>
       </c>
-      <c r="EL5" s="69">
+      <c r="EL5" s="113">
         <f t="shared" ref="EL5" si="74">EK5+1</f>
         <v>46035</v>
       </c>
-      <c r="EM5" s="69">
+      <c r="EM5" s="113">
         <f t="shared" ref="EM5" si="75">EL5+1</f>
         <v>46036</v>
       </c>
-      <c r="EN5" s="69">
+      <c r="EN5" s="113">
         <f t="shared" ref="EN5" si="76">EM5+1</f>
         <v>46037</v>
       </c>
-      <c r="EO5" s="69">
+      <c r="EO5" s="113">
         <f t="shared" ref="EO5" si="77">EN5+1</f>
         <v>46038</v>
       </c>
-      <c r="EP5" s="69">
+      <c r="EP5" s="113">
         <f t="shared" ref="EP5" si="78">EO5+1</f>
         <v>46039</v>
       </c>
-      <c r="EQ5" s="70">
+      <c r="EQ5" s="114">
         <f t="shared" ref="EQ5" si="79">EP5+1</f>
         <v>46040</v>
       </c>
-      <c r="ER5" s="68">
+      <c r="ER5" s="112">
         <f t="shared" ref="ER5" si="80">EQ5+1</f>
         <v>46041</v>
       </c>
-      <c r="ES5" s="69">
+      <c r="ES5" s="113">
         <f t="shared" ref="ES5" si="81">ER5+1</f>
         <v>46042</v>
       </c>
-      <c r="ET5" s="69">
+      <c r="ET5" s="113">
         <f t="shared" ref="ET5" si="82">ES5+1</f>
         <v>46043</v>
       </c>
-      <c r="EU5" s="69">
+      <c r="EU5" s="113">
         <f t="shared" ref="EU5" si="83">ET5+1</f>
         <v>46044</v>
       </c>
-      <c r="EV5" s="69">
+      <c r="EV5" s="113">
         <f t="shared" ref="EV5" si="84">EU5+1</f>
         <v>46045</v>
       </c>
-      <c r="EW5" s="69">
+      <c r="EW5" s="113">
         <f t="shared" ref="EW5" si="85">EV5+1</f>
         <v>46046</v>
       </c>
-      <c r="EX5" s="70">
+      <c r="EX5" s="114">
         <f t="shared" ref="EX5" si="86">EW5+1</f>
         <v>46047</v>
       </c>
-      <c r="EY5" s="68">
+      <c r="EY5" s="112">
         <f t="shared" ref="EY5" si="87">EX5+1</f>
         <v>46048</v>
       </c>
-      <c r="EZ5" s="69">
+      <c r="EZ5" s="113">
         <f t="shared" ref="EZ5" si="88">EY5+1</f>
         <v>46049</v>
       </c>
-      <c r="FA5" s="69">
+      <c r="FA5" s="113">
         <f t="shared" ref="FA5" si="89">EZ5+1</f>
         <v>46050</v>
       </c>
-      <c r="FB5" s="69">
+      <c r="FB5" s="113">
         <f t="shared" ref="FB5" si="90">FA5+1</f>
         <v>46051</v>
       </c>
-      <c r="FC5" s="69">
+      <c r="FC5" s="113">
         <f t="shared" ref="FC5" si="91">FB5+1</f>
         <v>46052</v>
       </c>
-      <c r="FD5" s="69">
+      <c r="FD5" s="113">
         <f t="shared" ref="FD5" si="92">FC5+1</f>
         <v>46053</v>
       </c>
-      <c r="FE5" s="70">
+      <c r="FE5" s="114">
         <f t="shared" ref="FE5" si="93">FD5+1</f>
         <v>46054</v>
       </c>
-      <c r="FF5" s="68">
+      <c r="FF5" s="112">
         <f t="shared" ref="FF5" si="94">FE5+1</f>
         <v>46055</v>
       </c>
-      <c r="FG5" s="69">
+      <c r="FG5" s="113">
         <f t="shared" ref="FG5" si="95">FF5+1</f>
         <v>46056</v>
       </c>
-      <c r="FH5" s="69">
+      <c r="FH5" s="113">
         <f t="shared" ref="FH5" si="96">FG5+1</f>
         <v>46057</v>
       </c>
-      <c r="FI5" s="69">
+      <c r="FI5" s="113">
         <f t="shared" ref="FI5" si="97">FH5+1</f>
         <v>46058</v>
       </c>
-      <c r="FJ5" s="69">
+      <c r="FJ5" s="113">
         <f t="shared" ref="FJ5" si="98">FI5+1</f>
         <v>46059</v>
       </c>
-      <c r="FK5" s="69">
+      <c r="FK5" s="113">
         <f t="shared" ref="FK5" si="99">FJ5+1</f>
         <v>46060</v>
       </c>
-      <c r="FL5" s="70">
+      <c r="FL5" s="114">
         <f t="shared" ref="FL5" si="100">FK5+1</f>
         <v>46061</v>
       </c>
-      <c r="FM5" s="68">
+      <c r="FM5" s="112">
         <f t="shared" ref="FM5" si="101">FL5+1</f>
         <v>46062</v>
       </c>
-      <c r="FN5" s="69">
+      <c r="FN5" s="113">
         <f t="shared" ref="FN5" si="102">FM5+1</f>
         <v>46063</v>
       </c>
-      <c r="FO5" s="69">
+      <c r="FO5" s="113">
         <f t="shared" ref="FO5" si="103">FN5+1</f>
         <v>46064</v>
       </c>
-      <c r="FP5" s="69">
+      <c r="FP5" s="113">
         <f t="shared" ref="FP5" si="104">FO5+1</f>
         <v>46065</v>
       </c>
-      <c r="FQ5" s="69">
+      <c r="FQ5" s="113">
         <f t="shared" ref="FQ5" si="105">FP5+1</f>
         <v>46066</v>
       </c>
-      <c r="FR5" s="69">
+      <c r="FR5" s="113">
         <f t="shared" ref="FR5" si="106">FQ5+1</f>
         <v>46067</v>
       </c>
-      <c r="FS5" s="70">
+      <c r="FS5" s="114">
         <f t="shared" ref="FS5" si="107">FR5+1</f>
         <v>46068</v>
       </c>
-      <c r="FT5" s="68">
+      <c r="FT5" s="112">
         <f t="shared" ref="FT5" si="108">FS5+1</f>
         <v>46069</v>
       </c>
-      <c r="FU5" s="69">
+      <c r="FU5" s="113">
         <f t="shared" ref="FU5" si="109">FT5+1</f>
         <v>46070</v>
       </c>
-      <c r="FV5" s="69">
+      <c r="FV5" s="113">
         <f t="shared" ref="FV5" si="110">FU5+1</f>
         <v>46071</v>
       </c>
-      <c r="FW5" s="69">
+      <c r="FW5" s="113">
         <f t="shared" ref="FW5" si="111">FV5+1</f>
         <v>46072</v>
       </c>
-      <c r="FX5" s="69">
+      <c r="FX5" s="113">
         <f t="shared" ref="FX5" si="112">FW5+1</f>
         <v>46073</v>
       </c>
-      <c r="FY5" s="69">
+      <c r="FY5" s="113">
         <f t="shared" ref="FY5" si="113">FX5+1</f>
         <v>46074</v>
       </c>
-      <c r="FZ5" s="70">
+      <c r="FZ5" s="114">
         <f t="shared" ref="FZ5" si="114">FY5+1</f>
         <v>46075</v>
       </c>
-      <c r="GC5" s="95">
+      <c r="GC5" s="92">
         <v>1</v>
       </c>
     </row>
@@ -4213,7 +4207,7 @@
         <f t="shared" si="123"/>
         <v>z</v>
       </c>
-      <c r="GC6" s="95">
+      <c r="GC6" s="92">
         <v>1</v>
       </c>
     </row>
@@ -4377,7 +4371,7 @@
       <c r="FC7" s="27"/>
       <c r="FD7" s="27"/>
       <c r="FE7" s="27"/>
-      <c r="FF7" s="100"/>
+      <c r="FF7" s="97"/>
       <c r="FG7" s="27"/>
       <c r="FH7" s="27"/>
       <c r="FI7" s="27"/>
@@ -4398,17 +4392,17 @@
       <c r="FX7" s="27"/>
       <c r="FY7" s="27"/>
       <c r="FZ7" s="27"/>
-      <c r="GC7" s="95">
+      <c r="GC7" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -4564,9 +4558,9 @@
       <c r="FB8" s="27"/>
       <c r="FC8" s="27"/>
       <c r="FD8" s="27"/>
-      <c r="FE8" s="96"/>
-      <c r="FF8" s="101"/>
-      <c r="FG8" s="98"/>
+      <c r="FE8" s="93"/>
+      <c r="FF8" s="98"/>
+      <c r="FG8" s="95"/>
       <c r="FH8" s="27"/>
       <c r="FI8" s="27"/>
       <c r="FJ8" s="27"/>
@@ -4586,22 +4580,22 @@
       <c r="FX8" s="27"/>
       <c r="FY8" s="27"/>
       <c r="FZ8" s="27"/>
-      <c r="GC8" s="95">
+      <c r="GC8" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="79">
-        <v>1</v>
-      </c>
-      <c r="D9" s="80">
+      <c r="C9" s="76">
+        <v>1</v>
+      </c>
+      <c r="D9" s="77">
         <f>DATE(2025, 11, 3)</f>
         <v>45964</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="77">
         <f>DATE(2025, 11, 11)</f>
         <v>45972</v>
       </c>
@@ -4760,9 +4754,9 @@
       <c r="FB9" s="27"/>
       <c r="FC9" s="27"/>
       <c r="FD9" s="27"/>
-      <c r="FE9" s="96"/>
-      <c r="FF9" s="101"/>
-      <c r="FG9" s="98"/>
+      <c r="FE9" s="93"/>
+      <c r="FF9" s="98"/>
+      <c r="FG9" s="95"/>
       <c r="FH9" s="27"/>
       <c r="FI9" s="27"/>
       <c r="FJ9" s="27"/>
@@ -4782,22 +4776,22 @@
       <c r="FX9" s="27"/>
       <c r="FY9" s="27"/>
       <c r="FZ9" s="27"/>
-      <c r="GC9" s="95">
+      <c r="GC9" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="76">
         <v>0</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="77">
         <f>DATE(2026,1,12)</f>
         <v>46034</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="77">
         <f>DATE(2026,1,27)</f>
         <v>46049</v>
       </c>
@@ -4956,9 +4950,9 @@
       <c r="FB10" s="27"/>
       <c r="FC10" s="27"/>
       <c r="FD10" s="27"/>
-      <c r="FE10" s="96"/>
-      <c r="FF10" s="101"/>
-      <c r="FG10" s="98"/>
+      <c r="FE10" s="93"/>
+      <c r="FF10" s="98"/>
+      <c r="FG10" s="95"/>
       <c r="FH10" s="27"/>
       <c r="FI10" s="27"/>
       <c r="FJ10" s="27"/>
@@ -4978,22 +4972,22 @@
       <c r="FX10" s="27"/>
       <c r="FY10" s="27"/>
       <c r="FZ10" s="27"/>
-      <c r="GC10" s="95">
+      <c r="GC10" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="79">
-        <v>1</v>
-      </c>
-      <c r="D11" s="80">
+      <c r="C11" s="76">
+        <v>1</v>
+      </c>
+      <c r="D11" s="77">
         <f>DATE(2025,11,3)</f>
         <v>45964</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="77">
         <f>DATE(2025, 11, 17)</f>
         <v>45978</v>
       </c>
@@ -5152,9 +5146,9 @@
       <c r="FB11" s="27"/>
       <c r="FC11" s="27"/>
       <c r="FD11" s="27"/>
-      <c r="FE11" s="96"/>
-      <c r="FF11" s="101"/>
-      <c r="FG11" s="98"/>
+      <c r="FE11" s="93"/>
+      <c r="FF11" s="98"/>
+      <c r="FG11" s="95"/>
       <c r="FH11" s="27"/>
       <c r="FI11" s="27"/>
       <c r="FJ11" s="27"/>
@@ -5174,22 +5168,22 @@
       <c r="FX11" s="27"/>
       <c r="FY11" s="27"/>
       <c r="FZ11" s="27"/>
-      <c r="GC11" s="95">
+      <c r="GC11" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="76">
         <v>0</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="77">
         <f>DATE(2026,1,1)</f>
         <v>46023</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="77">
         <f>DATE(2026,2,2)</f>
         <v>46055</v>
       </c>
@@ -5348,9 +5342,9 @@
       <c r="FB12" s="27"/>
       <c r="FC12" s="27"/>
       <c r="FD12" s="27"/>
-      <c r="FE12" s="96"/>
-      <c r="FF12" s="101"/>
-      <c r="FG12" s="98"/>
+      <c r="FE12" s="93"/>
+      <c r="FF12" s="98"/>
+      <c r="FG12" s="95"/>
       <c r="FH12" s="27"/>
       <c r="FI12" s="27"/>
       <c r="FJ12" s="27"/>
@@ -5370,22 +5364,22 @@
       <c r="FX12" s="27"/>
       <c r="FY12" s="27"/>
       <c r="FZ12" s="27"/>
-      <c r="GC12" s="95">
+      <c r="GC12" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:185" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="76">
         <v>0</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="77">
         <f>DATE(2026, 1, 1)</f>
         <v>46023</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="77">
         <f>DATE(2026, 1, 25)</f>
         <v>46047</v>
       </c>
@@ -5544,9 +5538,9 @@
       <c r="FB13" s="27"/>
       <c r="FC13" s="27"/>
       <c r="FD13" s="27"/>
-      <c r="FE13" s="96"/>
-      <c r="FF13" s="101"/>
-      <c r="FG13" s="98"/>
+      <c r="FE13" s="93"/>
+      <c r="FF13" s="98"/>
+      <c r="FG13" s="95"/>
       <c r="FH13" s="27"/>
       <c r="FI13" s="27"/>
       <c r="FJ13" s="27"/>
@@ -5566,7 +5560,7 @@
       <c r="FX13" s="27"/>
       <c r="FY13" s="27"/>
       <c r="FZ13" s="27"/>
-      <c r="GC13" s="95">
+      <c r="GC13" s="92">
         <v>1</v>
       </c>
     </row>
@@ -5733,9 +5727,9 @@
       <c r="FB14" s="27"/>
       <c r="FC14" s="27"/>
       <c r="FD14" s="27"/>
-      <c r="FE14" s="96"/>
-      <c r="FF14" s="101"/>
-      <c r="FG14" s="98"/>
+      <c r="FE14" s="93"/>
+      <c r="FF14" s="98"/>
+      <c r="FG14" s="95"/>
       <c r="FH14" s="27"/>
       <c r="FI14" s="27"/>
       <c r="FJ14" s="27"/>
@@ -5755,7 +5749,7 @@
       <c r="FX14" s="27"/>
       <c r="FY14" s="27"/>
       <c r="FZ14" s="27"/>
-      <c r="GC14" s="95">
+      <c r="GC14" s="92">
         <v>1</v>
       </c>
     </row>
@@ -5930,9 +5924,9 @@
       <c r="FB15" s="27"/>
       <c r="FC15" s="27"/>
       <c r="FD15" s="27"/>
-      <c r="FE15" s="96"/>
-      <c r="FF15" s="101"/>
-      <c r="FG15" s="98"/>
+      <c r="FE15" s="93"/>
+      <c r="FF15" s="98"/>
+      <c r="FG15" s="95"/>
       <c r="FH15" s="27"/>
       <c r="FI15" s="27"/>
       <c r="FJ15" s="27"/>
@@ -5952,7 +5946,7 @@
       <c r="FX15" s="27"/>
       <c r="FY15" s="27"/>
       <c r="FZ15" s="27"/>
-      <c r="GC15" s="95">
+      <c r="GC15" s="92">
         <v>1</v>
       </c>
     </row>
@@ -6125,9 +6119,9 @@
       <c r="FB16" s="27"/>
       <c r="FC16" s="27"/>
       <c r="FD16" s="27"/>
-      <c r="FE16" s="96"/>
-      <c r="FF16" s="101"/>
-      <c r="FG16" s="98"/>
+      <c r="FE16" s="93"/>
+      <c r="FF16" s="98"/>
+      <c r="FG16" s="95"/>
       <c r="FH16" s="27"/>
       <c r="FI16" s="27"/>
       <c r="FJ16" s="27"/>
@@ -6147,7 +6141,7 @@
       <c r="FX16" s="27"/>
       <c r="FY16" s="27"/>
       <c r="FZ16" s="27"/>
-      <c r="GC16" s="95"/>
+      <c r="GC16" s="92"/>
     </row>
     <row r="17" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
@@ -6320,9 +6314,9 @@
       <c r="FB17" s="27"/>
       <c r="FC17" s="27"/>
       <c r="FD17" s="27"/>
-      <c r="FE17" s="96"/>
-      <c r="FF17" s="101"/>
-      <c r="FG17" s="98"/>
+      <c r="FE17" s="93"/>
+      <c r="FF17" s="98"/>
+      <c r="FG17" s="95"/>
       <c r="FH17" s="27"/>
       <c r="FI17" s="27"/>
       <c r="FJ17" s="27"/>
@@ -6342,7 +6336,7 @@
       <c r="FX17" s="27"/>
       <c r="FY17" s="27"/>
       <c r="FZ17" s="27"/>
-      <c r="GC17" s="95">
+      <c r="GC17" s="92">
         <v>1</v>
       </c>
     </row>
@@ -6517,9 +6511,9 @@
       <c r="FB18" s="27"/>
       <c r="FC18" s="27"/>
       <c r="FD18" s="27"/>
-      <c r="FE18" s="96"/>
-      <c r="FF18" s="101"/>
-      <c r="FG18" s="98"/>
+      <c r="FE18" s="93"/>
+      <c r="FF18" s="98"/>
+      <c r="FG18" s="95"/>
       <c r="FH18" s="27"/>
       <c r="FI18" s="27"/>
       <c r="FJ18" s="27"/>
@@ -6539,7 +6533,7 @@
       <c r="FX18" s="27"/>
       <c r="FY18" s="27"/>
       <c r="FZ18" s="27"/>
-      <c r="GC18" s="95">
+      <c r="GC18" s="92">
         <v>1</v>
       </c>
     </row>
@@ -6708,9 +6702,9 @@
       <c r="FB19" s="27"/>
       <c r="FC19" s="27"/>
       <c r="FD19" s="27"/>
-      <c r="FE19" s="96"/>
-      <c r="FF19" s="101"/>
-      <c r="FG19" s="98"/>
+      <c r="FE19" s="93"/>
+      <c r="FF19" s="98"/>
+      <c r="FG19" s="95"/>
       <c r="FH19" s="27"/>
       <c r="FI19" s="27"/>
       <c r="FJ19" s="27"/>
@@ -6730,7 +6724,7 @@
       <c r="FX19" s="27"/>
       <c r="FY19" s="27"/>
       <c r="FZ19" s="27"/>
-      <c r="GC19" s="95">
+      <c r="GC19" s="92">
         <v>1</v>
       </c>
     </row>
@@ -6903,9 +6897,9 @@
       <c r="FB20" s="27"/>
       <c r="FC20" s="27"/>
       <c r="FD20" s="27"/>
-      <c r="FE20" s="96"/>
-      <c r="FF20" s="101"/>
-      <c r="FG20" s="98"/>
+      <c r="FE20" s="93"/>
+      <c r="FF20" s="98"/>
+      <c r="FG20" s="95"/>
       <c r="FH20" s="27"/>
       <c r="FI20" s="27"/>
       <c r="FJ20" s="27"/>
@@ -6925,7 +6919,7 @@
       <c r="FX20" s="27"/>
       <c r="FY20" s="27"/>
       <c r="FZ20" s="27"/>
-      <c r="GC20" s="95">
+      <c r="GC20" s="92">
         <v>1</v>
       </c>
     </row>
@@ -7092,9 +7086,9 @@
       <c r="FB21" s="27"/>
       <c r="FC21" s="27"/>
       <c r="FD21" s="27"/>
-      <c r="FE21" s="96"/>
-      <c r="FF21" s="101"/>
-      <c r="FG21" s="98"/>
+      <c r="FE21" s="93"/>
+      <c r="FF21" s="98"/>
+      <c r="FG21" s="95"/>
       <c r="FH21" s="27"/>
       <c r="FI21" s="27"/>
       <c r="FJ21" s="27"/>
@@ -7114,7 +7108,7 @@
       <c r="FX21" s="27"/>
       <c r="FY21" s="27"/>
       <c r="FZ21" s="27"/>
-      <c r="GC21" s="95">
+      <c r="GC21" s="92">
         <v>1</v>
       </c>
     </row>
@@ -7289,9 +7283,9 @@
       <c r="FB22" s="27"/>
       <c r="FC22" s="27"/>
       <c r="FD22" s="27"/>
-      <c r="FE22" s="96"/>
-      <c r="FF22" s="101"/>
-      <c r="FG22" s="98"/>
+      <c r="FE22" s="93"/>
+      <c r="FF22" s="98"/>
+      <c r="FG22" s="95"/>
       <c r="FH22" s="27"/>
       <c r="FI22" s="27"/>
       <c r="FJ22" s="27"/>
@@ -7311,7 +7305,7 @@
       <c r="FX22" s="27"/>
       <c r="FY22" s="27"/>
       <c r="FZ22" s="27"/>
-      <c r="GC22" s="95">
+      <c r="GC22" s="92">
         <v>1</v>
       </c>
     </row>
@@ -7321,7 +7315,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="60">
         <f>DATE(2025, 11,20)</f>
@@ -7486,9 +7480,9 @@
       <c r="FB23" s="27"/>
       <c r="FC23" s="27"/>
       <c r="FD23" s="27"/>
-      <c r="FE23" s="96"/>
-      <c r="FF23" s="101"/>
-      <c r="FG23" s="98"/>
+      <c r="FE23" s="93"/>
+      <c r="FF23" s="98"/>
+      <c r="FG23" s="95"/>
       <c r="FH23" s="27"/>
       <c r="FI23" s="27"/>
       <c r="FJ23" s="27"/>
@@ -7508,17 +7502,17 @@
       <c r="FX23" s="27"/>
       <c r="FY23" s="27"/>
       <c r="FZ23" s="27"/>
-      <c r="GC23" s="95">
+      <c r="GC23" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="47" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C24" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="60">
         <v>45978</v>
@@ -7681,9 +7675,9 @@
       <c r="FB24" s="27"/>
       <c r="FC24" s="27"/>
       <c r="FD24" s="27"/>
-      <c r="FE24" s="96"/>
-      <c r="FF24" s="101"/>
-      <c r="FG24" s="98"/>
+      <c r="FE24" s="93"/>
+      <c r="FF24" s="98"/>
+      <c r="FG24" s="95"/>
       <c r="FH24" s="27"/>
       <c r="FI24" s="27"/>
       <c r="FJ24" s="27"/>
@@ -7703,14 +7697,14 @@
       <c r="FX24" s="27"/>
       <c r="FY24" s="27"/>
       <c r="FZ24" s="27"/>
-      <c r="GC24" s="95">
+      <c r="GC24" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="B25" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -7876,9 +7870,9 @@
       <c r="FB25" s="27"/>
       <c r="FC25" s="27"/>
       <c r="FD25" s="27"/>
-      <c r="FE25" s="96"/>
-      <c r="FF25" s="101"/>
-      <c r="FG25" s="98"/>
+      <c r="FE25" s="93"/>
+      <c r="FF25" s="98"/>
+      <c r="FG25" s="95"/>
       <c r="FH25" s="27"/>
       <c r="FI25" s="27"/>
       <c r="FJ25" s="27"/>
@@ -7898,14 +7892,14 @@
       <c r="FX25" s="27"/>
       <c r="FY25" s="27"/>
       <c r="FZ25" s="27"/>
-      <c r="GC25" s="95">
+      <c r="GC25" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
       <c r="B26" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -8067,9 +8061,9 @@
       <c r="FB26" s="27"/>
       <c r="FC26" s="27"/>
       <c r="FD26" s="27"/>
-      <c r="FE26" s="96"/>
-      <c r="FF26" s="101"/>
-      <c r="FG26" s="98"/>
+      <c r="FE26" s="93"/>
+      <c r="FF26" s="98"/>
+      <c r="FG26" s="95"/>
       <c r="FH26" s="27"/>
       <c r="FI26" s="27"/>
       <c r="FJ26" s="27"/>
@@ -8089,7 +8083,7 @@
       <c r="FX26" s="27"/>
       <c r="FY26" s="27"/>
       <c r="FZ26" s="27"/>
-      <c r="GC26" s="95">
+      <c r="GC26" s="92">
         <v>1</v>
       </c>
     </row>
@@ -8256,9 +8250,9 @@
       <c r="FB27" s="27"/>
       <c r="FC27" s="27"/>
       <c r="FD27" s="27"/>
-      <c r="FE27" s="96"/>
-      <c r="FF27" s="101"/>
-      <c r="FG27" s="98"/>
+      <c r="FE27" s="93"/>
+      <c r="FF27" s="98"/>
+      <c r="FG27" s="95"/>
       <c r="FH27" s="27"/>
       <c r="FI27" s="27"/>
       <c r="FJ27" s="27"/>
@@ -8278,7 +8272,7 @@
       <c r="FX27" s="27"/>
       <c r="FY27" s="27"/>
       <c r="FZ27" s="27"/>
-      <c r="GC27" s="95">
+      <c r="GC27" s="92">
         <v>1</v>
       </c>
     </row>
@@ -8451,9 +8445,9 @@
       <c r="FB28" s="27"/>
       <c r="FC28" s="27"/>
       <c r="FD28" s="27"/>
-      <c r="FE28" s="96"/>
-      <c r="FF28" s="101"/>
-      <c r="FG28" s="98"/>
+      <c r="FE28" s="93"/>
+      <c r="FF28" s="98"/>
+      <c r="FG28" s="95"/>
       <c r="FH28" s="27"/>
       <c r="FI28" s="27"/>
       <c r="FJ28" s="27"/>
@@ -8473,7 +8467,7 @@
       <c r="FX28" s="27"/>
       <c r="FY28" s="27"/>
       <c r="FZ28" s="27"/>
-      <c r="GC28" s="95">
+      <c r="GC28" s="92">
         <v>1</v>
       </c>
     </row>
@@ -8646,9 +8640,9 @@
       <c r="FB29" s="27"/>
       <c r="FC29" s="27"/>
       <c r="FD29" s="27"/>
-      <c r="FE29" s="96"/>
-      <c r="FF29" s="101"/>
-      <c r="FG29" s="98"/>
+      <c r="FE29" s="93"/>
+      <c r="FF29" s="98"/>
+      <c r="FG29" s="95"/>
       <c r="FH29" s="27"/>
       <c r="FI29" s="27"/>
       <c r="FJ29" s="27"/>
@@ -8668,7 +8662,7 @@
       <c r="FX29" s="27"/>
       <c r="FY29" s="27"/>
       <c r="FZ29" s="27"/>
-      <c r="GC29" s="95">
+      <c r="GC29" s="92">
         <v>1</v>
       </c>
     </row>
@@ -8841,9 +8835,9 @@
       <c r="FB30" s="27"/>
       <c r="FC30" s="27"/>
       <c r="FD30" s="27"/>
-      <c r="FE30" s="96"/>
-      <c r="FF30" s="101"/>
-      <c r="FG30" s="98"/>
+      <c r="FE30" s="93"/>
+      <c r="FF30" s="98"/>
+      <c r="FG30" s="95"/>
       <c r="FH30" s="27"/>
       <c r="FI30" s="27"/>
       <c r="FJ30" s="27"/>
@@ -8863,7 +8857,7 @@
       <c r="FX30" s="27"/>
       <c r="FY30" s="27"/>
       <c r="FZ30" s="27"/>
-      <c r="GC30" s="95">
+      <c r="GC30" s="92">
         <v>1</v>
       </c>
     </row>
@@ -9036,9 +9030,9 @@
       <c r="FB31" s="27"/>
       <c r="FC31" s="27"/>
       <c r="FD31" s="27"/>
-      <c r="FE31" s="96"/>
-      <c r="FF31" s="101"/>
-      <c r="FG31" s="98"/>
+      <c r="FE31" s="93"/>
+      <c r="FF31" s="98"/>
+      <c r="FG31" s="95"/>
       <c r="FH31" s="27"/>
       <c r="FI31" s="27"/>
       <c r="FJ31" s="27"/>
@@ -9058,7 +9052,7 @@
       <c r="FX31" s="27"/>
       <c r="FY31" s="27"/>
       <c r="FZ31" s="27"/>
-      <c r="GC31" s="95">
+      <c r="GC31" s="92">
         <v>1</v>
       </c>
     </row>
@@ -9227,9 +9221,9 @@
       <c r="FB32" s="27"/>
       <c r="FC32" s="27"/>
       <c r="FD32" s="27"/>
-      <c r="FE32" s="96"/>
-      <c r="FF32" s="101"/>
-      <c r="FG32" s="98"/>
+      <c r="FE32" s="93"/>
+      <c r="FF32" s="98"/>
+      <c r="FG32" s="95"/>
       <c r="FH32" s="27"/>
       <c r="FI32" s="27"/>
       <c r="FJ32" s="27"/>
@@ -9249,7 +9243,7 @@
       <c r="FX32" s="27"/>
       <c r="FY32" s="27"/>
       <c r="FZ32" s="27"/>
-      <c r="GC32" s="95">
+      <c r="GC32" s="92">
         <v>1</v>
       </c>
     </row>
@@ -9418,9 +9412,9 @@
       <c r="FB33" s="27"/>
       <c r="FC33" s="27"/>
       <c r="FD33" s="27"/>
-      <c r="FE33" s="96"/>
-      <c r="FF33" s="101"/>
-      <c r="FG33" s="98"/>
+      <c r="FE33" s="93"/>
+      <c r="FF33" s="98"/>
+      <c r="FG33" s="95"/>
       <c r="FH33" s="27"/>
       <c r="FI33" s="27"/>
       <c r="FJ33" s="27"/>
@@ -9440,7 +9434,7 @@
       <c r="FX33" s="27"/>
       <c r="FY33" s="27"/>
       <c r="FZ33" s="27"/>
-      <c r="GC33" s="95">
+      <c r="GC33" s="92">
         <v>1</v>
       </c>
     </row>
@@ -9456,7 +9450,7 @@
         <v>45971</v>
       </c>
       <c r="E34" s="63">
-        <v>45981</v>
+        <v>45991</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
@@ -9613,9 +9607,9 @@
       <c r="FB34" s="27"/>
       <c r="FC34" s="27"/>
       <c r="FD34" s="27"/>
-      <c r="FE34" s="96"/>
-      <c r="FF34" s="101"/>
-      <c r="FG34" s="98"/>
+      <c r="FE34" s="93"/>
+      <c r="FF34" s="98"/>
+      <c r="FG34" s="95"/>
       <c r="FH34" s="27"/>
       <c r="FI34" s="27"/>
       <c r="FJ34" s="27"/>
@@ -9635,7 +9629,7 @@
       <c r="FX34" s="27"/>
       <c r="FY34" s="27"/>
       <c r="FZ34" s="27"/>
-      <c r="GC34" s="95">
+      <c r="GC34" s="92">
         <v>1</v>
       </c>
     </row>
@@ -9648,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="63">
-        <v>45978</v>
+        <v>45986</v>
       </c>
       <c r="E35" s="63">
         <v>45991</v>
@@ -9808,9 +9802,9 @@
       <c r="FB35" s="27"/>
       <c r="FC35" s="27"/>
       <c r="FD35" s="27"/>
-      <c r="FE35" s="96"/>
-      <c r="FF35" s="101"/>
-      <c r="FG35" s="98"/>
+      <c r="FE35" s="93"/>
+      <c r="FF35" s="98"/>
+      <c r="FG35" s="95"/>
       <c r="FH35" s="27"/>
       <c r="FI35" s="27"/>
       <c r="FJ35" s="27"/>
@@ -9830,7 +9824,7 @@
       <c r="FX35" s="27"/>
       <c r="FY35" s="27"/>
       <c r="FZ35" s="27"/>
-      <c r="GC35" s="95">
+      <c r="GC35" s="92">
         <v>1</v>
       </c>
     </row>
@@ -9995,9 +9989,9 @@
       <c r="FB36" s="27"/>
       <c r="FC36" s="27"/>
       <c r="FD36" s="27"/>
-      <c r="FE36" s="96"/>
-      <c r="FF36" s="101"/>
-      <c r="FG36" s="98"/>
+      <c r="FE36" s="93"/>
+      <c r="FF36" s="98"/>
+      <c r="FG36" s="95"/>
       <c r="FH36" s="27"/>
       <c r="FI36" s="27"/>
       <c r="FJ36" s="27"/>
@@ -10017,7 +10011,7 @@
       <c r="FX36" s="27"/>
       <c r="FY36" s="27"/>
       <c r="FZ36" s="27"/>
-      <c r="GC36" s="95">
+      <c r="GC36" s="92">
         <v>1</v>
       </c>
     </row>
@@ -10184,9 +10178,9 @@
       <c r="FB37" s="27"/>
       <c r="FC37" s="27"/>
       <c r="FD37" s="27"/>
-      <c r="FE37" s="96"/>
-      <c r="FF37" s="101"/>
-      <c r="FG37" s="98"/>
+      <c r="FE37" s="93"/>
+      <c r="FF37" s="98"/>
+      <c r="FG37" s="95"/>
       <c r="FH37" s="27"/>
       <c r="FI37" s="27"/>
       <c r="FJ37" s="27"/>
@@ -10206,7 +10200,7 @@
       <c r="FX37" s="27"/>
       <c r="FY37" s="27"/>
       <c r="FZ37" s="27"/>
-      <c r="GC37" s="95">
+      <c r="GC37" s="92">
         <v>1</v>
       </c>
     </row>
@@ -10380,9 +10374,9 @@
       <c r="FB38" s="27"/>
       <c r="FC38" s="27"/>
       <c r="FD38" s="27"/>
-      <c r="FE38" s="96"/>
-      <c r="FF38" s="101"/>
-      <c r="FG38" s="98"/>
+      <c r="FE38" s="93"/>
+      <c r="FF38" s="98"/>
+      <c r="FG38" s="95"/>
       <c r="FH38" s="27"/>
       <c r="FI38" s="27"/>
       <c r="FJ38" s="27"/>
@@ -10402,7 +10396,7 @@
       <c r="FX38" s="27"/>
       <c r="FY38" s="27"/>
       <c r="FZ38" s="27"/>
-      <c r="GC38" s="95">
+      <c r="GC38" s="92">
         <v>1</v>
       </c>
     </row>
@@ -10571,9 +10565,9 @@
       <c r="FB39" s="27"/>
       <c r="FC39" s="27"/>
       <c r="FD39" s="27"/>
-      <c r="FE39" s="96"/>
-      <c r="FF39" s="101"/>
-      <c r="FG39" s="98"/>
+      <c r="FE39" s="93"/>
+      <c r="FF39" s="98"/>
+      <c r="FG39" s="95"/>
       <c r="FH39" s="27"/>
       <c r="FI39" s="27"/>
       <c r="FJ39" s="27"/>
@@ -10593,14 +10587,14 @@
       <c r="FX39" s="27"/>
       <c r="FY39" s="27"/>
       <c r="FZ39" s="27"/>
-      <c r="GC39" s="95">
+      <c r="GC39" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
       <c r="B40" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="23">
         <v>0.4</v>
@@ -10766,9 +10760,9 @@
       <c r="FB40" s="27"/>
       <c r="FC40" s="27"/>
       <c r="FD40" s="27"/>
-      <c r="FE40" s="96"/>
-      <c r="FF40" s="101"/>
-      <c r="FG40" s="98"/>
+      <c r="FE40" s="93"/>
+      <c r="FF40" s="98"/>
+      <c r="FG40" s="95"/>
       <c r="FH40" s="27"/>
       <c r="FI40" s="27"/>
       <c r="FJ40" s="27"/>
@@ -10788,7 +10782,7 @@
       <c r="FX40" s="27"/>
       <c r="FY40" s="27"/>
       <c r="FZ40" s="27"/>
-      <c r="GC40" s="95">
+      <c r="GC40" s="92">
         <v>1</v>
       </c>
     </row>
@@ -10955,9 +10949,9 @@
       <c r="FB41" s="27"/>
       <c r="FC41" s="27"/>
       <c r="FD41" s="27"/>
-      <c r="FE41" s="96"/>
-      <c r="FF41" s="101"/>
-      <c r="FG41" s="98"/>
+      <c r="FE41" s="93"/>
+      <c r="FF41" s="98"/>
+      <c r="FG41" s="95"/>
       <c r="FH41" s="27"/>
       <c r="FI41" s="27"/>
       <c r="FJ41" s="27"/>
@@ -10977,7 +10971,7 @@
       <c r="FX41" s="27"/>
       <c r="FY41" s="27"/>
       <c r="FZ41" s="27"/>
-      <c r="GC41" s="95">
+      <c r="GC41" s="92">
         <v>1</v>
       </c>
     </row>
@@ -11142,9 +11136,9 @@
       <c r="FB42" s="27"/>
       <c r="FC42" s="27"/>
       <c r="FD42" s="27"/>
-      <c r="FE42" s="96"/>
-      <c r="FF42" s="101"/>
-      <c r="FG42" s="98"/>
+      <c r="FE42" s="93"/>
+      <c r="FF42" s="98"/>
+      <c r="FG42" s="95"/>
       <c r="FH42" s="27"/>
       <c r="FI42" s="27"/>
       <c r="FJ42" s="27"/>
@@ -11164,7 +11158,7 @@
       <c r="FX42" s="27"/>
       <c r="FY42" s="27"/>
       <c r="FZ42" s="27"/>
-      <c r="GC42" s="95">
+      <c r="GC42" s="92">
         <v>1</v>
       </c>
     </row>
@@ -11329,9 +11323,9 @@
       <c r="FB43" s="27"/>
       <c r="FC43" s="27"/>
       <c r="FD43" s="27"/>
-      <c r="FE43" s="96"/>
-      <c r="FF43" s="101"/>
-      <c r="FG43" s="98"/>
+      <c r="FE43" s="93"/>
+      <c r="FF43" s="98"/>
+      <c r="FG43" s="95"/>
       <c r="FH43" s="27"/>
       <c r="FI43" s="27"/>
       <c r="FJ43" s="27"/>
@@ -11351,7 +11345,7 @@
       <c r="FX43" s="27"/>
       <c r="FY43" s="27"/>
       <c r="FZ43" s="27"/>
-      <c r="GC43" s="95">
+      <c r="GC43" s="92">
         <v>1</v>
       </c>
     </row>
@@ -11516,9 +11510,9 @@
       <c r="FB44" s="27"/>
       <c r="FC44" s="27"/>
       <c r="FD44" s="27"/>
-      <c r="FE44" s="96"/>
-      <c r="FF44" s="101"/>
-      <c r="FG44" s="98"/>
+      <c r="FE44" s="93"/>
+      <c r="FF44" s="98"/>
+      <c r="FG44" s="95"/>
       <c r="FH44" s="27"/>
       <c r="FI44" s="27"/>
       <c r="FJ44" s="27"/>
@@ -11538,7 +11532,7 @@
       <c r="FX44" s="27"/>
       <c r="FY44" s="27"/>
       <c r="FZ44" s="27"/>
-      <c r="GC44" s="95">
+      <c r="GC44" s="92">
         <v>1</v>
       </c>
     </row>
@@ -11703,9 +11697,9 @@
       <c r="FB45" s="27"/>
       <c r="FC45" s="27"/>
       <c r="FD45" s="27"/>
-      <c r="FE45" s="96"/>
-      <c r="FF45" s="101"/>
-      <c r="FG45" s="98"/>
+      <c r="FE45" s="93"/>
+      <c r="FF45" s="98"/>
+      <c r="FG45" s="95"/>
       <c r="FH45" s="27"/>
       <c r="FI45" s="27"/>
       <c r="FJ45" s="27"/>
@@ -11725,7 +11719,7 @@
       <c r="FX45" s="27"/>
       <c r="FY45" s="27"/>
       <c r="FZ45" s="27"/>
-      <c r="GC45" s="95">
+      <c r="GC45" s="92">
         <v>1</v>
       </c>
     </row>
@@ -11890,9 +11884,9 @@
       <c r="FB46" s="27"/>
       <c r="FC46" s="27"/>
       <c r="FD46" s="27"/>
-      <c r="FE46" s="96"/>
-      <c r="FF46" s="101"/>
-      <c r="FG46" s="98"/>
+      <c r="FE46" s="93"/>
+      <c r="FF46" s="98"/>
+      <c r="FG46" s="95"/>
       <c r="FH46" s="27"/>
       <c r="FI46" s="27"/>
       <c r="FJ46" s="27"/>
@@ -11912,18 +11906,18 @@
       <c r="FX46" s="27"/>
       <c r="FY46" s="27"/>
       <c r="FZ46" s="27"/>
-      <c r="GC46" s="95">
+      <c r="GC46" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
-      <c r="B47" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
+      <c r="B47" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="85"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -12079,9 +12073,9 @@
       <c r="FB47" s="27"/>
       <c r="FC47" s="27"/>
       <c r="FD47" s="27"/>
-      <c r="FE47" s="96"/>
-      <c r="FF47" s="101"/>
-      <c r="FG47" s="98"/>
+      <c r="FE47" s="93"/>
+      <c r="FF47" s="98"/>
+      <c r="FG47" s="95"/>
       <c r="FH47" s="27"/>
       <c r="FI47" s="27"/>
       <c r="FJ47" s="27"/>
@@ -12101,14 +12095,14 @@
       <c r="FX47" s="27"/>
       <c r="FY47" s="27"/>
       <c r="FZ47" s="27"/>
-      <c r="GC47" s="95">
+      <c r="GC47" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="40"/>
       <c r="B48" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="17">
         <v>1</v>
@@ -12274,9 +12268,9 @@
       <c r="FB48" s="27"/>
       <c r="FC48" s="27"/>
       <c r="FD48" s="27"/>
-      <c r="FE48" s="96"/>
-      <c r="FF48" s="101"/>
-      <c r="FG48" s="98"/>
+      <c r="FE48" s="93"/>
+      <c r="FF48" s="98"/>
+      <c r="FG48" s="95"/>
       <c r="FH48" s="27"/>
       <c r="FI48" s="27"/>
       <c r="FJ48" s="27"/>
@@ -12296,7 +12290,7 @@
       <c r="FX48" s="27"/>
       <c r="FY48" s="27"/>
       <c r="FZ48" s="27"/>
-      <c r="GC48" s="95">
+      <c r="GC48" s="92">
         <v>1</v>
       </c>
     </row>
@@ -12461,9 +12455,9 @@
       <c r="FB49" s="27"/>
       <c r="FC49" s="27"/>
       <c r="FD49" s="27"/>
-      <c r="FE49" s="96"/>
-      <c r="FF49" s="101"/>
-      <c r="FG49" s="98"/>
+      <c r="FE49" s="93"/>
+      <c r="FF49" s="98"/>
+      <c r="FG49" s="95"/>
       <c r="FH49" s="27"/>
       <c r="FI49" s="27"/>
       <c r="FJ49" s="27"/>
@@ -12483,7 +12477,7 @@
       <c r="FX49" s="27"/>
       <c r="FY49" s="27"/>
       <c r="FZ49" s="27"/>
-      <c r="GC49" s="95">
+      <c r="GC49" s="92">
         <v>1</v>
       </c>
     </row>
@@ -12648,9 +12642,9 @@
       <c r="FB50" s="27"/>
       <c r="FC50" s="27"/>
       <c r="FD50" s="27"/>
-      <c r="FE50" s="96"/>
-      <c r="FF50" s="101"/>
-      <c r="FG50" s="98"/>
+      <c r="FE50" s="93"/>
+      <c r="FF50" s="98"/>
+      <c r="FG50" s="95"/>
       <c r="FH50" s="27"/>
       <c r="FI50" s="27"/>
       <c r="FJ50" s="27"/>
@@ -12670,7 +12664,7 @@
       <c r="FX50" s="27"/>
       <c r="FY50" s="27"/>
       <c r="FZ50" s="27"/>
-      <c r="GC50" s="95">
+      <c r="GC50" s="92">
         <v>1</v>
       </c>
     </row>
@@ -12835,9 +12829,9 @@
       <c r="FB51" s="27"/>
       <c r="FC51" s="27"/>
       <c r="FD51" s="27"/>
-      <c r="FE51" s="96"/>
-      <c r="FF51" s="101"/>
-      <c r="FG51" s="98"/>
+      <c r="FE51" s="93"/>
+      <c r="FF51" s="98"/>
+      <c r="FG51" s="95"/>
       <c r="FH51" s="27"/>
       <c r="FI51" s="27"/>
       <c r="FJ51" s="27"/>
@@ -12857,7 +12851,7 @@
       <c r="FX51" s="27"/>
       <c r="FY51" s="27"/>
       <c r="FZ51" s="27"/>
-      <c r="GC51" s="95">
+      <c r="GC51" s="92">
         <v>1</v>
       </c>
     </row>
@@ -13022,9 +13016,9 @@
       <c r="FB52" s="27"/>
       <c r="FC52" s="27"/>
       <c r="FD52" s="27"/>
-      <c r="FE52" s="96"/>
-      <c r="FF52" s="101"/>
-      <c r="FG52" s="98"/>
+      <c r="FE52" s="93"/>
+      <c r="FF52" s="98"/>
+      <c r="FG52" s="95"/>
       <c r="FH52" s="27"/>
       <c r="FI52" s="27"/>
       <c r="FJ52" s="27"/>
@@ -13044,7 +13038,7 @@
       <c r="FX52" s="27"/>
       <c r="FY52" s="27"/>
       <c r="FZ52" s="27"/>
-      <c r="GC52" s="95">
+      <c r="GC52" s="92">
         <v>1</v>
       </c>
     </row>
@@ -13209,9 +13203,9 @@
       <c r="FB53" s="27"/>
       <c r="FC53" s="27"/>
       <c r="FD53" s="27"/>
-      <c r="FE53" s="96"/>
-      <c r="FF53" s="101"/>
-      <c r="FG53" s="98"/>
+      <c r="FE53" s="93"/>
+      <c r="FF53" s="98"/>
+      <c r="FG53" s="95"/>
       <c r="FH53" s="27"/>
       <c r="FI53" s="27"/>
       <c r="FJ53" s="27"/>
@@ -13231,7 +13225,7 @@
       <c r="FX53" s="27"/>
       <c r="FY53" s="27"/>
       <c r="FZ53" s="27"/>
-      <c r="GC53" s="95">
+      <c r="GC53" s="92">
         <v>1</v>
       </c>
     </row>
@@ -13396,9 +13390,9 @@
       <c r="FB54" s="27"/>
       <c r="FC54" s="27"/>
       <c r="FD54" s="27"/>
-      <c r="FE54" s="96"/>
-      <c r="FF54" s="101"/>
-      <c r="FG54" s="98"/>
+      <c r="FE54" s="93"/>
+      <c r="FF54" s="98"/>
+      <c r="FG54" s="95"/>
       <c r="FH54" s="27"/>
       <c r="FI54" s="27"/>
       <c r="FJ54" s="27"/>
@@ -13418,7 +13412,7 @@
       <c r="FX54" s="27"/>
       <c r="FY54" s="27"/>
       <c r="FZ54" s="27"/>
-      <c r="GC54" s="95">
+      <c r="GC54" s="92">
         <v>1</v>
       </c>
     </row>
@@ -13583,9 +13577,9 @@
       <c r="FB55" s="27"/>
       <c r="FC55" s="27"/>
       <c r="FD55" s="27"/>
-      <c r="FE55" s="96"/>
-      <c r="FF55" s="101"/>
-      <c r="FG55" s="98"/>
+      <c r="FE55" s="93"/>
+      <c r="FF55" s="98"/>
+      <c r="FG55" s="95"/>
       <c r="FH55" s="27"/>
       <c r="FI55" s="27"/>
       <c r="FJ55" s="27"/>
@@ -13605,7 +13599,7 @@
       <c r="FX55" s="27"/>
       <c r="FY55" s="27"/>
       <c r="FZ55" s="27"/>
-      <c r="GC55" s="95">
+      <c r="GC55" s="92">
         <v>1</v>
       </c>
     </row>
@@ -13770,9 +13764,9 @@
       <c r="FB56" s="27"/>
       <c r="FC56" s="27"/>
       <c r="FD56" s="27"/>
-      <c r="FE56" s="96"/>
-      <c r="FF56" s="101"/>
-      <c r="FG56" s="98"/>
+      <c r="FE56" s="93"/>
+      <c r="FF56" s="98"/>
+      <c r="FG56" s="95"/>
       <c r="FH56" s="27"/>
       <c r="FI56" s="27"/>
       <c r="FJ56" s="27"/>
@@ -13792,7 +13786,7 @@
       <c r="FX56" s="27"/>
       <c r="FY56" s="27"/>
       <c r="FZ56" s="27"/>
-      <c r="GC56" s="95">
+      <c r="GC56" s="92">
         <v>1</v>
       </c>
     </row>
@@ -13957,9 +13951,9 @@
       <c r="FB57" s="27"/>
       <c r="FC57" s="27"/>
       <c r="FD57" s="27"/>
-      <c r="FE57" s="96"/>
-      <c r="FF57" s="101"/>
-      <c r="FG57" s="98"/>
+      <c r="FE57" s="93"/>
+      <c r="FF57" s="98"/>
+      <c r="FG57" s="95"/>
       <c r="FH57" s="27"/>
       <c r="FI57" s="27"/>
       <c r="FJ57" s="27"/>
@@ -13979,7 +13973,7 @@
       <c r="FX57" s="27"/>
       <c r="FY57" s="27"/>
       <c r="FZ57" s="27"/>
-      <c r="GC57" s="95">
+      <c r="GC57" s="92">
         <v>1</v>
       </c>
     </row>
@@ -14147,9 +14141,9 @@
       <c r="FB58" s="27"/>
       <c r="FC58" s="27"/>
       <c r="FD58" s="27"/>
-      <c r="FE58" s="96"/>
-      <c r="FF58" s="101"/>
-      <c r="FG58" s="98"/>
+      <c r="FE58" s="93"/>
+      <c r="FF58" s="98"/>
+      <c r="FG58" s="95"/>
       <c r="FH58" s="27"/>
       <c r="FI58" s="27"/>
       <c r="FJ58" s="27"/>
@@ -14169,7 +14163,7 @@
       <c r="FX58" s="27"/>
       <c r="FY58" s="27"/>
       <c r="FZ58" s="27"/>
-      <c r="GC58" s="95">
+      <c r="GC58" s="92">
         <v>1</v>
       </c>
     </row>
@@ -14179,8 +14173,8 @@
         <v>1</v>
       </c>
       <c r="C59" s="25"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26" t="str">
         <f t="shared" si="124"/>
@@ -14339,9 +14333,9 @@
       <c r="FB59" s="28"/>
       <c r="FC59" s="28"/>
       <c r="FD59" s="28"/>
-      <c r="FE59" s="97"/>
-      <c r="FF59" s="101"/>
-      <c r="FG59" s="99"/>
+      <c r="FE59" s="94"/>
+      <c r="FF59" s="98"/>
+      <c r="FG59" s="96"/>
       <c r="FH59" s="28"/>
       <c r="FI59" s="28"/>
       <c r="FJ59" s="28"/>
@@ -14361,588 +14355,588 @@
       <c r="FX59" s="28"/>
       <c r="FY59" s="28"/>
       <c r="FZ59" s="28"/>
-      <c r="GC59" s="95">
+      <c r="GC59" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F60" s="5"/>
-      <c r="FG60" s="102"/>
-      <c r="GC60" s="95">
+      <c r="FG60" s="99"/>
+      <c r="GC60" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" s="42"/>
-      <c r="FG61" s="102"/>
-      <c r="GC61" s="95">
+      <c r="FG61" s="99"/>
+      <c r="GC61" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="GC62" s="95">
+      <c r="GC62" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="95">
-        <v>1</v>
-      </c>
-      <c r="B63" s="95">
-        <v>1</v>
-      </c>
-      <c r="C63" s="95">
-        <v>1</v>
-      </c>
-      <c r="D63" s="95">
-        <v>1</v>
-      </c>
-      <c r="E63" s="95">
-        <v>1</v>
-      </c>
-      <c r="F63" s="95">
-        <v>1</v>
-      </c>
-      <c r="G63" s="95">
-        <v>1</v>
-      </c>
-      <c r="H63" s="95">
-        <v>1</v>
-      </c>
-      <c r="I63" s="95">
-        <v>1</v>
-      </c>
-      <c r="J63" s="95">
-        <v>1</v>
-      </c>
-      <c r="K63" s="95">
-        <v>1</v>
-      </c>
-      <c r="L63" s="95">
-        <v>1</v>
-      </c>
-      <c r="M63" s="95">
-        <v>1</v>
-      </c>
-      <c r="N63" s="95">
-        <v>1</v>
-      </c>
-      <c r="O63" s="95">
-        <v>1</v>
-      </c>
-      <c r="P63" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="95">
-        <v>1</v>
-      </c>
-      <c r="R63" s="95">
-        <v>1</v>
-      </c>
-      <c r="S63" s="95">
-        <v>1</v>
-      </c>
-      <c r="T63" s="95">
-        <v>1</v>
-      </c>
-      <c r="U63" s="95">
-        <v>1</v>
-      </c>
-      <c r="V63" s="95">
-        <v>1</v>
-      </c>
-      <c r="W63" s="95">
-        <v>1</v>
-      </c>
-      <c r="X63" s="95">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="95">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AG63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AH63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AI63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AJ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AP63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AQ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AR63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AS63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AT63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AU63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AV63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AW63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AX63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AY63" s="95">
-        <v>1</v>
-      </c>
-      <c r="AZ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BC63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BD63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BE63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BF63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BG63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BH63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BI63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BJ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BK63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BL63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BM63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BN63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BO63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BP63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BQ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BR63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BS63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BT63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BU63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BV63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BW63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BX63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BY63" s="95">
-        <v>1</v>
-      </c>
-      <c r="BZ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CC63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CD63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CE63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CF63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CG63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CH63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CI63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CJ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CK63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CL63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CM63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CN63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CO63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CP63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CQ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CR63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CS63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CT63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CU63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CV63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CW63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CX63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CY63" s="95">
-        <v>1</v>
-      </c>
-      <c r="CZ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DC63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DD63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DE63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DF63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DG63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DH63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DI63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DJ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DK63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DL63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DM63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DN63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DO63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DP63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DQ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DR63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DS63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DT63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DU63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DV63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DW63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DX63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DY63" s="95">
-        <v>1</v>
-      </c>
-      <c r="DZ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EC63" s="95">
-        <v>1</v>
-      </c>
-      <c r="ED63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EE63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EF63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EG63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EH63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EI63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EJ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EK63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EL63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EM63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EN63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EO63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EP63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EQ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="ER63" s="95">
-        <v>1</v>
-      </c>
-      <c r="ES63" s="95">
-        <v>1</v>
-      </c>
-      <c r="ET63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EU63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EV63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EW63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EX63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EY63" s="95">
-        <v>1</v>
-      </c>
-      <c r="EZ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FC63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FD63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FE63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FF63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FG63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FH63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FI63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FJ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FK63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FL63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FM63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FN63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FO63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FP63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FQ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FR63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FS63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FT63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FU63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FV63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FW63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FX63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FY63" s="95">
-        <v>1</v>
-      </c>
-      <c r="FZ63" s="95">
-        <v>1</v>
-      </c>
-      <c r="GA63" s="95">
-        <v>1</v>
-      </c>
-      <c r="GB63" s="95">
-        <v>1</v>
-      </c>
-      <c r="GC63" s="95">
+      <c r="A63" s="92">
+        <v>1</v>
+      </c>
+      <c r="B63" s="92">
+        <v>1</v>
+      </c>
+      <c r="C63" s="92">
+        <v>1</v>
+      </c>
+      <c r="D63" s="92">
+        <v>1</v>
+      </c>
+      <c r="E63" s="92">
+        <v>1</v>
+      </c>
+      <c r="F63" s="92">
+        <v>1</v>
+      </c>
+      <c r="G63" s="92">
+        <v>1</v>
+      </c>
+      <c r="H63" s="92">
+        <v>1</v>
+      </c>
+      <c r="I63" s="92">
+        <v>1</v>
+      </c>
+      <c r="J63" s="92">
+        <v>1</v>
+      </c>
+      <c r="K63" s="92">
+        <v>1</v>
+      </c>
+      <c r="L63" s="92">
+        <v>1</v>
+      </c>
+      <c r="M63" s="92">
+        <v>1</v>
+      </c>
+      <c r="N63" s="92">
+        <v>1</v>
+      </c>
+      <c r="O63" s="92">
+        <v>1</v>
+      </c>
+      <c r="P63" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="92">
+        <v>1</v>
+      </c>
+      <c r="R63" s="92">
+        <v>1</v>
+      </c>
+      <c r="S63" s="92">
+        <v>1</v>
+      </c>
+      <c r="T63" s="92">
+        <v>1</v>
+      </c>
+      <c r="U63" s="92">
+        <v>1</v>
+      </c>
+      <c r="V63" s="92">
+        <v>1</v>
+      </c>
+      <c r="W63" s="92">
+        <v>1</v>
+      </c>
+      <c r="X63" s="92">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="92">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AQ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AR63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AS63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AT63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AU63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AV63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AW63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AX63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AY63" s="92">
+        <v>1</v>
+      </c>
+      <c r="AZ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BC63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BD63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BE63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BF63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BG63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BH63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BI63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BJ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BK63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BL63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BM63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BN63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BO63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BP63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BQ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BR63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BS63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BT63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BU63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BV63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BW63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BX63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BY63" s="92">
+        <v>1</v>
+      </c>
+      <c r="BZ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CC63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CD63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CE63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CF63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CG63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CH63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CI63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CJ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CK63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CL63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CM63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CN63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CO63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CP63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CQ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CR63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CS63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CT63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CU63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CV63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CW63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CX63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CY63" s="92">
+        <v>1</v>
+      </c>
+      <c r="CZ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DC63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DD63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DE63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DF63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DG63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DH63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DI63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DJ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DK63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DL63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DM63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DN63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DO63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DP63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DQ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DR63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DS63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DT63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DU63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DV63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DW63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DX63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DY63" s="92">
+        <v>1</v>
+      </c>
+      <c r="DZ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EC63" s="92">
+        <v>1</v>
+      </c>
+      <c r="ED63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EE63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EF63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EG63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EH63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EI63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EJ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EK63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EL63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EM63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EN63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EO63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EP63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EQ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="ER63" s="92">
+        <v>1</v>
+      </c>
+      <c r="ES63" s="92">
+        <v>1</v>
+      </c>
+      <c r="ET63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EU63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EV63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EW63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EX63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EY63" s="92">
+        <v>1</v>
+      </c>
+      <c r="EZ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FC63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FD63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FE63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FF63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FG63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FH63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FI63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FJ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FK63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FL63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FM63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FN63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FO63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FP63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FQ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FR63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FS63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FT63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FU63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FV63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FW63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FX63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FY63" s="92">
+        <v>1</v>
+      </c>
+      <c r="FZ63" s="92">
+        <v>1</v>
+      </c>
+      <c r="GA63" s="92">
+        <v>1</v>
+      </c>
+      <c r="GB63" s="92">
+        <v>1</v>
+      </c>
+      <c r="GC63" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="111"/>
+      <c r="D67" s="101"/>
     </row>
     <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
@@ -14953,14 +14947,14 @@
       <c r="B69" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="112"/>
-      <c r="E69" s="113"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="103"/>
     </row>
     <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="114"/>
+      <c r="E70" s="104"/>
     </row>
     <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
@@ -14989,18 +14983,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -15017,8 +14999,20 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C59">
     <cfRule type="dataBar" priority="19">
       <dataBar>
@@ -15093,11 +15087,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DO7:DV7 DO58:DV59">
-    <cfRule type="expression" dxfId="13" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="235">
+      <formula>AND(TODAY()&gt;=DO$5,TODAY()&lt;GA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=DO$5,task_start&lt;GA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="235">
-      <formula>AND(TODAY()&gt;=DO$5,TODAY()&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DW7:EC7 DW58:EC59">
@@ -15198,13 +15192,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -15216,7 +15210,7 @@
         <f>48/24</f>
         <v>2</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="79" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
@@ -15224,34 +15218,34 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="85">
+      <c r="B10" s="82">
         <v>10</v>
       </c>
       <c r="C10" s="4">
         <f>$C$6*B10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="83">
         <f>C10/600</f>
         <v>0</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="83">
         <f>C10/2400</f>
         <v>0</v>
       </c>
@@ -15259,18 +15253,18 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="85">
+      <c r="B11" s="82">
         <v>20</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:C14" si="0">$C$6*B11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="83">
         <f t="shared" ref="D11:D14" si="1">C11/600</f>
         <v>0</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="83">
         <f t="shared" ref="E11:E14" si="2">C11/2400</f>
         <v>0</v>
       </c>
@@ -15278,18 +15272,18 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="85">
+      <c r="B12" s="82">
         <v>30</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15297,18 +15291,18 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="85">
+      <c r="B13" s="82">
         <v>40</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15316,18 +15310,18 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="85">
+      <c r="B14" s="82">
         <v>50</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15335,7 +15329,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="85"/>
+      <c r="B15" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15449,6 +15443,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15736,36 +15759,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15784,24 +15798,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22F059-9244-4388-9B45-EAD238D5C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FB100-CBDB-4D5B-8F6E-29EA29056794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlanning" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>TAAK</t>
   </si>
@@ -290,6 +290,45 @@
   </si>
   <si>
     <t>Systeem statemachine maken</t>
+  </si>
+  <si>
+    <t>grote werkbank</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>eind</t>
+  </si>
+  <si>
+    <t>totaal</t>
+  </si>
+  <si>
+    <t>nauwkeurigheid</t>
+  </si>
+  <si>
+    <t>totaal pos</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>snel</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>langzaam</t>
+  </si>
+  <si>
+    <t>met motor</t>
+  </si>
+  <si>
+    <t>nee</t>
   </si>
 </sst>
 </file>
@@ -1461,6 +1500,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="33" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1470,26 +1518,17 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="33" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2376,7 +2415,7 @@
   </sheetPr>
   <dimension ref="A1:GC75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
@@ -2470,50 +2509,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="108">
+      <c r="D3" s="113">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="108"/>
+      <c r="E3" s="113"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="109" t="s">
+      <c r="BO3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="109"/>
-      <c r="BQ3" s="109"/>
-      <c r="BR3" s="109"/>
-      <c r="BS3" s="109"/>
-      <c r="BT3" s="109"/>
-      <c r="BU3" s="109"/>
-      <c r="BV3" s="109"/>
-      <c r="BW3" s="109"/>
-      <c r="BX3" s="109"/>
-      <c r="BY3" s="109"/>
+      <c r="BP3" s="111"/>
+      <c r="BQ3" s="111"/>
+      <c r="BR3" s="111"/>
+      <c r="BS3" s="111"/>
+      <c r="BT3" s="111"/>
+      <c r="BU3" s="111"/>
+      <c r="BV3" s="111"/>
+      <c r="BW3" s="111"/>
+      <c r="BX3" s="111"/>
+      <c r="BY3" s="111"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="110" t="s">
+      <c r="DP3" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="110"/>
-      <c r="DR3" s="110"/>
-      <c r="DS3" s="110"/>
-      <c r="DT3" s="110"/>
-      <c r="DU3" s="110"/>
-      <c r="DV3" s="110"/>
-      <c r="DW3" s="110"/>
-      <c r="DX3" s="110"/>
-      <c r="DY3" s="110"/>
-      <c r="DZ3" s="110"/>
-      <c r="EA3" s="110"/>
-      <c r="EB3" s="110"/>
-      <c r="EC3" s="110"/>
+      <c r="DQ3" s="112"/>
+      <c r="DR3" s="112"/>
+      <c r="DS3" s="112"/>
+      <c r="DT3" s="112"/>
+      <c r="DU3" s="112"/>
+      <c r="DV3" s="112"/>
+      <c r="DW3" s="112"/>
+      <c r="DX3" s="112"/>
+      <c r="DY3" s="112"/>
+      <c r="DZ3" s="112"/>
+      <c r="EA3" s="112"/>
+      <c r="EB3" s="112"/>
+      <c r="EC3" s="112"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -2526,256 +2565,256 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="105">
+      <c r="H4" s="108">
         <f>H5</f>
         <v>45901</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="105">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="108">
         <f>O5</f>
         <v>45908</v>
       </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="105">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="108">
         <f>V5</f>
         <v>45915</v>
       </c>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="105">
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="108">
         <f>AC5</f>
         <v>45922</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="105">
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="108">
         <f>AJ5</f>
         <v>45929</v>
       </c>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="105">
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="108">
         <f>AQ5</f>
         <v>45936</v>
       </c>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="105">
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="108">
         <f>AX5</f>
         <v>45943</v>
       </c>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="105">
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="108">
         <f>BE5</f>
         <v>45950</v>
       </c>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="105">
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="108">
         <f>BL5</f>
         <v>45957</v>
       </c>
-      <c r="BM4" s="106"/>
-      <c r="BN4" s="106"/>
-      <c r="BO4" s="106"/>
-      <c r="BP4" s="106"/>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="107"/>
-      <c r="BS4" s="105">
+      <c r="BM4" s="109"/>
+      <c r="BN4" s="109"/>
+      <c r="BO4" s="109"/>
+      <c r="BP4" s="109"/>
+      <c r="BQ4" s="109"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="108">
         <f>BS5</f>
         <v>45964</v>
       </c>
-      <c r="BT4" s="106"/>
-      <c r="BU4" s="106"/>
-      <c r="BV4" s="106"/>
-      <c r="BW4" s="106"/>
-      <c r="BX4" s="106"/>
-      <c r="BY4" s="107"/>
-      <c r="BZ4" s="105">
+      <c r="BT4" s="109"/>
+      <c r="BU4" s="109"/>
+      <c r="BV4" s="109"/>
+      <c r="BW4" s="109"/>
+      <c r="BX4" s="109"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="108">
         <f>BZ5</f>
         <v>45971</v>
       </c>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="106"/>
-      <c r="CD4" s="106"/>
-      <c r="CE4" s="106"/>
-      <c r="CF4" s="107"/>
-      <c r="CG4" s="105">
+      <c r="CA4" s="109"/>
+      <c r="CB4" s="109"/>
+      <c r="CC4" s="109"/>
+      <c r="CD4" s="109"/>
+      <c r="CE4" s="109"/>
+      <c r="CF4" s="110"/>
+      <c r="CG4" s="108">
         <f>CG5</f>
         <v>45978</v>
       </c>
-      <c r="CH4" s="106"/>
-      <c r="CI4" s="106"/>
-      <c r="CJ4" s="106"/>
-      <c r="CK4" s="106"/>
-      <c r="CL4" s="106"/>
-      <c r="CM4" s="107"/>
-      <c r="CN4" s="105">
+      <c r="CH4" s="109"/>
+      <c r="CI4" s="109"/>
+      <c r="CJ4" s="109"/>
+      <c r="CK4" s="109"/>
+      <c r="CL4" s="109"/>
+      <c r="CM4" s="110"/>
+      <c r="CN4" s="108">
         <f>CN5</f>
         <v>45985</v>
       </c>
-      <c r="CO4" s="106"/>
-      <c r="CP4" s="106"/>
-      <c r="CQ4" s="106"/>
-      <c r="CR4" s="106"/>
-      <c r="CS4" s="106"/>
-      <c r="CT4" s="107"/>
-      <c r="CU4" s="105">
+      <c r="CO4" s="109"/>
+      <c r="CP4" s="109"/>
+      <c r="CQ4" s="109"/>
+      <c r="CR4" s="109"/>
+      <c r="CS4" s="109"/>
+      <c r="CT4" s="110"/>
+      <c r="CU4" s="108">
         <f>CU5</f>
         <v>45992</v>
       </c>
-      <c r="CV4" s="106"/>
-      <c r="CW4" s="106"/>
-      <c r="CX4" s="106"/>
-      <c r="CY4" s="106"/>
-      <c r="CZ4" s="106"/>
-      <c r="DA4" s="107"/>
-      <c r="DB4" s="105">
+      <c r="CV4" s="109"/>
+      <c r="CW4" s="109"/>
+      <c r="CX4" s="109"/>
+      <c r="CY4" s="109"/>
+      <c r="CZ4" s="109"/>
+      <c r="DA4" s="110"/>
+      <c r="DB4" s="108">
         <f t="shared" ref="DB4" si="0">DB5</f>
         <v>45999</v>
       </c>
-      <c r="DC4" s="106"/>
-      <c r="DD4" s="106"/>
-      <c r="DE4" s="106"/>
-      <c r="DF4" s="106"/>
-      <c r="DG4" s="106"/>
-      <c r="DH4" s="107"/>
-      <c r="DI4" s="105">
+      <c r="DC4" s="109"/>
+      <c r="DD4" s="109"/>
+      <c r="DE4" s="109"/>
+      <c r="DF4" s="109"/>
+      <c r="DG4" s="109"/>
+      <c r="DH4" s="110"/>
+      <c r="DI4" s="108">
         <f t="shared" ref="DI4" si="1">DI5</f>
         <v>46006</v>
       </c>
-      <c r="DJ4" s="106"/>
-      <c r="DK4" s="106"/>
-      <c r="DL4" s="106"/>
-      <c r="DM4" s="106"/>
-      <c r="DN4" s="106"/>
-      <c r="DO4" s="107"/>
-      <c r="DP4" s="105">
+      <c r="DJ4" s="109"/>
+      <c r="DK4" s="109"/>
+      <c r="DL4" s="109"/>
+      <c r="DM4" s="109"/>
+      <c r="DN4" s="109"/>
+      <c r="DO4" s="110"/>
+      <c r="DP4" s="108">
         <f t="shared" ref="DP4" si="2">DP5</f>
         <v>46013</v>
       </c>
-      <c r="DQ4" s="106"/>
-      <c r="DR4" s="106"/>
-      <c r="DS4" s="106"/>
-      <c r="DT4" s="106"/>
-      <c r="DU4" s="106"/>
-      <c r="DV4" s="107"/>
-      <c r="DW4" s="105">
+      <c r="DQ4" s="109"/>
+      <c r="DR4" s="109"/>
+      <c r="DS4" s="109"/>
+      <c r="DT4" s="109"/>
+      <c r="DU4" s="109"/>
+      <c r="DV4" s="110"/>
+      <c r="DW4" s="108">
         <f t="shared" ref="DW4" si="3">DW5</f>
         <v>46020</v>
       </c>
-      <c r="DX4" s="106"/>
-      <c r="DY4" s="106"/>
-      <c r="DZ4" s="106"/>
-      <c r="EA4" s="106"/>
-      <c r="EB4" s="106"/>
-      <c r="EC4" s="107"/>
-      <c r="ED4" s="105">
+      <c r="DX4" s="109"/>
+      <c r="DY4" s="109"/>
+      <c r="DZ4" s="109"/>
+      <c r="EA4" s="109"/>
+      <c r="EB4" s="109"/>
+      <c r="EC4" s="110"/>
+      <c r="ED4" s="108">
         <f t="shared" ref="ED4" si="4">ED5</f>
         <v>46027</v>
       </c>
-      <c r="EE4" s="106"/>
-      <c r="EF4" s="106"/>
-      <c r="EG4" s="106"/>
-      <c r="EH4" s="106"/>
-      <c r="EI4" s="106"/>
-      <c r="EJ4" s="107"/>
-      <c r="EK4" s="105">
+      <c r="EE4" s="109"/>
+      <c r="EF4" s="109"/>
+      <c r="EG4" s="109"/>
+      <c r="EH4" s="109"/>
+      <c r="EI4" s="109"/>
+      <c r="EJ4" s="110"/>
+      <c r="EK4" s="108">
         <f t="shared" ref="EK4" si="5">EK5</f>
         <v>46034</v>
       </c>
-      <c r="EL4" s="106"/>
-      <c r="EM4" s="106"/>
-      <c r="EN4" s="106"/>
-      <c r="EO4" s="106"/>
-      <c r="EP4" s="106"/>
-      <c r="EQ4" s="107"/>
-      <c r="ER4" s="105">
+      <c r="EL4" s="109"/>
+      <c r="EM4" s="109"/>
+      <c r="EN4" s="109"/>
+      <c r="EO4" s="109"/>
+      <c r="EP4" s="109"/>
+      <c r="EQ4" s="110"/>
+      <c r="ER4" s="108">
         <f t="shared" ref="ER4" si="6">ER5</f>
         <v>46041</v>
       </c>
-      <c r="ES4" s="106"/>
-      <c r="ET4" s="106"/>
-      <c r="EU4" s="106"/>
-      <c r="EV4" s="106"/>
-      <c r="EW4" s="106"/>
-      <c r="EX4" s="107"/>
-      <c r="EY4" s="105">
+      <c r="ES4" s="109"/>
+      <c r="ET4" s="109"/>
+      <c r="EU4" s="109"/>
+      <c r="EV4" s="109"/>
+      <c r="EW4" s="109"/>
+      <c r="EX4" s="110"/>
+      <c r="EY4" s="108">
         <f t="shared" ref="EY4" si="7">EY5</f>
         <v>46048</v>
       </c>
-      <c r="EZ4" s="106"/>
-      <c r="FA4" s="106"/>
-      <c r="FB4" s="106"/>
-      <c r="FC4" s="106"/>
-      <c r="FD4" s="106"/>
-      <c r="FE4" s="107"/>
-      <c r="FF4" s="105">
+      <c r="EZ4" s="109"/>
+      <c r="FA4" s="109"/>
+      <c r="FB4" s="109"/>
+      <c r="FC4" s="109"/>
+      <c r="FD4" s="109"/>
+      <c r="FE4" s="110"/>
+      <c r="FF4" s="108">
         <f t="shared" ref="FF4" si="8">FF5</f>
         <v>46055</v>
       </c>
-      <c r="FG4" s="106"/>
-      <c r="FH4" s="106"/>
-      <c r="FI4" s="106"/>
-      <c r="FJ4" s="106"/>
-      <c r="FK4" s="106"/>
-      <c r="FL4" s="107"/>
-      <c r="FM4" s="105">
+      <c r="FG4" s="109"/>
+      <c r="FH4" s="109"/>
+      <c r="FI4" s="109"/>
+      <c r="FJ4" s="109"/>
+      <c r="FK4" s="109"/>
+      <c r="FL4" s="110"/>
+      <c r="FM4" s="108">
         <f t="shared" ref="FM4" si="9">FM5</f>
         <v>46062</v>
       </c>
-      <c r="FN4" s="106"/>
-      <c r="FO4" s="106"/>
-      <c r="FP4" s="106"/>
-      <c r="FQ4" s="106"/>
-      <c r="FR4" s="106"/>
-      <c r="FS4" s="107"/>
-      <c r="FT4" s="105">
+      <c r="FN4" s="109"/>
+      <c r="FO4" s="109"/>
+      <c r="FP4" s="109"/>
+      <c r="FQ4" s="109"/>
+      <c r="FR4" s="109"/>
+      <c r="FS4" s="110"/>
+      <c r="FT4" s="108">
         <f t="shared" ref="FT4" si="10">FT5</f>
         <v>46069</v>
       </c>
-      <c r="FU4" s="106"/>
-      <c r="FV4" s="106"/>
-      <c r="FW4" s="106"/>
-      <c r="FX4" s="106"/>
-      <c r="FY4" s="106"/>
-      <c r="FZ4" s="107"/>
+      <c r="FU4" s="109"/>
+      <c r="FV4" s="109"/>
+      <c r="FW4" s="109"/>
+      <c r="FX4" s="109"/>
+      <c r="FY4" s="109"/>
+      <c r="FZ4" s="110"/>
       <c r="GC4" s="92">
         <v>1</v>
       </c>
@@ -2786,703 +2825,703 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
-      <c r="H5" s="112">
+      <c r="H5" s="105">
         <f>Begin_project-WEEKDAY(Begin_project,1)+2+7*(Weergegeven_week-1)</f>
         <v>45901</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="106">
         <f>H5+1</f>
         <v>45902</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="106">
         <f t="shared" ref="J5:AW5" si="11">I5+1</f>
         <v>45903</v>
       </c>
-      <c r="K5" s="113">
+      <c r="K5" s="106">
         <f t="shared" si="11"/>
         <v>45904</v>
       </c>
-      <c r="L5" s="113">
+      <c r="L5" s="106">
         <f t="shared" si="11"/>
         <v>45905</v>
       </c>
-      <c r="M5" s="113">
+      <c r="M5" s="106">
         <f t="shared" si="11"/>
         <v>45906</v>
       </c>
-      <c r="N5" s="114">
+      <c r="N5" s="107">
         <f t="shared" si="11"/>
         <v>45907</v>
       </c>
-      <c r="O5" s="112">
+      <c r="O5" s="105">
         <f>N5+1</f>
         <v>45908</v>
       </c>
-      <c r="P5" s="113">
+      <c r="P5" s="106">
         <f>O5+1</f>
         <v>45909</v>
       </c>
-      <c r="Q5" s="113">
+      <c r="Q5" s="106">
         <f t="shared" si="11"/>
         <v>45910</v>
       </c>
-      <c r="R5" s="113">
+      <c r="R5" s="106">
         <f t="shared" si="11"/>
         <v>45911</v>
       </c>
-      <c r="S5" s="113">
+      <c r="S5" s="106">
         <f t="shared" si="11"/>
         <v>45912</v>
       </c>
-      <c r="T5" s="113">
+      <c r="T5" s="106">
         <f t="shared" si="11"/>
         <v>45913</v>
       </c>
-      <c r="U5" s="114">
+      <c r="U5" s="107">
         <f t="shared" si="11"/>
         <v>45914</v>
       </c>
-      <c r="V5" s="112">
+      <c r="V5" s="105">
         <f>U5+1</f>
         <v>45915</v>
       </c>
-      <c r="W5" s="113">
+      <c r="W5" s="106">
         <f>V5+1</f>
         <v>45916</v>
       </c>
-      <c r="X5" s="113">
+      <c r="X5" s="106">
         <f t="shared" si="11"/>
         <v>45917</v>
       </c>
-      <c r="Y5" s="113">
+      <c r="Y5" s="106">
         <f t="shared" si="11"/>
         <v>45918</v>
       </c>
-      <c r="Z5" s="113">
+      <c r="Z5" s="106">
         <f t="shared" si="11"/>
         <v>45919</v>
       </c>
-      <c r="AA5" s="113">
+      <c r="AA5" s="106">
         <f t="shared" si="11"/>
         <v>45920</v>
       </c>
-      <c r="AB5" s="114">
+      <c r="AB5" s="107">
         <f t="shared" si="11"/>
         <v>45921</v>
       </c>
-      <c r="AC5" s="112">
+      <c r="AC5" s="105">
         <f>AB5+1</f>
         <v>45922</v>
       </c>
-      <c r="AD5" s="113">
+      <c r="AD5" s="106">
         <f>AC5+1</f>
         <v>45923</v>
       </c>
-      <c r="AE5" s="113">
+      <c r="AE5" s="106">
         <f t="shared" si="11"/>
         <v>45924</v>
       </c>
-      <c r="AF5" s="113">
+      <c r="AF5" s="106">
         <f t="shared" si="11"/>
         <v>45925</v>
       </c>
-      <c r="AG5" s="113">
+      <c r="AG5" s="106">
         <f t="shared" si="11"/>
         <v>45926</v>
       </c>
-      <c r="AH5" s="113">
+      <c r="AH5" s="106">
         <f t="shared" si="11"/>
         <v>45927</v>
       </c>
-      <c r="AI5" s="114">
+      <c r="AI5" s="107">
         <f t="shared" si="11"/>
         <v>45928</v>
       </c>
-      <c r="AJ5" s="112">
+      <c r="AJ5" s="105">
         <f>AI5+1</f>
         <v>45929</v>
       </c>
-      <c r="AK5" s="113">
+      <c r="AK5" s="106">
         <f>AJ5+1</f>
         <v>45930</v>
       </c>
-      <c r="AL5" s="113">
+      <c r="AL5" s="106">
         <f t="shared" si="11"/>
         <v>45931</v>
       </c>
-      <c r="AM5" s="113">
+      <c r="AM5" s="106">
         <f t="shared" si="11"/>
         <v>45932</v>
       </c>
-      <c r="AN5" s="113">
+      <c r="AN5" s="106">
         <f t="shared" si="11"/>
         <v>45933</v>
       </c>
-      <c r="AO5" s="113">
+      <c r="AO5" s="106">
         <f t="shared" si="11"/>
         <v>45934</v>
       </c>
-      <c r="AP5" s="114">
+      <c r="AP5" s="107">
         <f t="shared" si="11"/>
         <v>45935</v>
       </c>
-      <c r="AQ5" s="112">
+      <c r="AQ5" s="105">
         <f>AP5+1</f>
         <v>45936</v>
       </c>
-      <c r="AR5" s="113">
+      <c r="AR5" s="106">
         <f>AQ5+1</f>
         <v>45937</v>
       </c>
-      <c r="AS5" s="113">
+      <c r="AS5" s="106">
         <f t="shared" si="11"/>
         <v>45938</v>
       </c>
-      <c r="AT5" s="113">
+      <c r="AT5" s="106">
         <f t="shared" si="11"/>
         <v>45939</v>
       </c>
-      <c r="AU5" s="113">
+      <c r="AU5" s="106">
         <f t="shared" si="11"/>
         <v>45940</v>
       </c>
-      <c r="AV5" s="113">
+      <c r="AV5" s="106">
         <f t="shared" si="11"/>
         <v>45941</v>
       </c>
-      <c r="AW5" s="114">
+      <c r="AW5" s="107">
         <f t="shared" si="11"/>
         <v>45942</v>
       </c>
-      <c r="AX5" s="112">
+      <c r="AX5" s="105">
         <f>AW5+1</f>
         <v>45943</v>
       </c>
-      <c r="AY5" s="113">
+      <c r="AY5" s="106">
         <f>AX5+1</f>
         <v>45944</v>
       </c>
-      <c r="AZ5" s="113">
+      <c r="AZ5" s="106">
         <f t="shared" ref="AZ5:BD5" si="12">AY5+1</f>
         <v>45945</v>
       </c>
-      <c r="BA5" s="113">
+      <c r="BA5" s="106">
         <f t="shared" si="12"/>
         <v>45946</v>
       </c>
-      <c r="BB5" s="113">
+      <c r="BB5" s="106">
         <f t="shared" si="12"/>
         <v>45947</v>
       </c>
-      <c r="BC5" s="113">
+      <c r="BC5" s="106">
         <f t="shared" si="12"/>
         <v>45948</v>
       </c>
-      <c r="BD5" s="114">
+      <c r="BD5" s="107">
         <f t="shared" si="12"/>
         <v>45949</v>
       </c>
-      <c r="BE5" s="112">
+      <c r="BE5" s="105">
         <f>BD5+1</f>
         <v>45950</v>
       </c>
-      <c r="BF5" s="113">
+      <c r="BF5" s="106">
         <f>BE5+1</f>
         <v>45951</v>
       </c>
-      <c r="BG5" s="113">
+      <c r="BG5" s="106">
         <f t="shared" ref="BG5" si="13">BF5+1</f>
         <v>45952</v>
       </c>
-      <c r="BH5" s="113">
+      <c r="BH5" s="106">
         <f t="shared" ref="BH5" si="14">BG5+1</f>
         <v>45953</v>
       </c>
-      <c r="BI5" s="113">
+      <c r="BI5" s="106">
         <f t="shared" ref="BI5" si="15">BH5+1</f>
         <v>45954</v>
       </c>
-      <c r="BJ5" s="113">
+      <c r="BJ5" s="106">
         <f t="shared" ref="BJ5" si="16">BI5+1</f>
         <v>45955</v>
       </c>
-      <c r="BK5" s="114">
+      <c r="BK5" s="107">
         <f t="shared" ref="BK5" si="17">BJ5+1</f>
         <v>45956</v>
       </c>
-      <c r="BL5" s="112">
+      <c r="BL5" s="105">
         <f>BK5+1</f>
         <v>45957</v>
       </c>
-      <c r="BM5" s="113">
+      <c r="BM5" s="106">
         <f>BL5+1</f>
         <v>45958</v>
       </c>
-      <c r="BN5" s="113">
+      <c r="BN5" s="106">
         <f t="shared" ref="BN5" si="18">BM5+1</f>
         <v>45959</v>
       </c>
-      <c r="BO5" s="113">
+      <c r="BO5" s="106">
         <f t="shared" ref="BO5" si="19">BN5+1</f>
         <v>45960</v>
       </c>
-      <c r="BP5" s="113">
+      <c r="BP5" s="106">
         <f t="shared" ref="BP5" si="20">BO5+1</f>
         <v>45961</v>
       </c>
-      <c r="BQ5" s="113">
+      <c r="BQ5" s="106">
         <f t="shared" ref="BQ5" si="21">BP5+1</f>
         <v>45962</v>
       </c>
-      <c r="BR5" s="114">
+      <c r="BR5" s="107">
         <f t="shared" ref="BR5" si="22">BQ5+1</f>
         <v>45963</v>
       </c>
-      <c r="BS5" s="112">
+      <c r="BS5" s="105">
         <f>BR5+1</f>
         <v>45964</v>
       </c>
-      <c r="BT5" s="113">
+      <c r="BT5" s="106">
         <f>BS5+1</f>
         <v>45965</v>
       </c>
-      <c r="BU5" s="113">
+      <c r="BU5" s="106">
         <f t="shared" ref="BU5" si="23">BT5+1</f>
         <v>45966</v>
       </c>
-      <c r="BV5" s="113">
+      <c r="BV5" s="106">
         <f t="shared" ref="BV5" si="24">BU5+1</f>
         <v>45967</v>
       </c>
-      <c r="BW5" s="113">
+      <c r="BW5" s="106">
         <f t="shared" ref="BW5" si="25">BV5+1</f>
         <v>45968</v>
       </c>
-      <c r="BX5" s="113">
+      <c r="BX5" s="106">
         <f t="shared" ref="BX5" si="26">BW5+1</f>
         <v>45969</v>
       </c>
-      <c r="BY5" s="114">
+      <c r="BY5" s="107">
         <f t="shared" ref="BY5" si="27">BX5+1</f>
         <v>45970</v>
       </c>
-      <c r="BZ5" s="112">
+      <c r="BZ5" s="105">
         <f>BY5+1</f>
         <v>45971</v>
       </c>
-      <c r="CA5" s="113">
+      <c r="CA5" s="106">
         <f>BZ5+1</f>
         <v>45972</v>
       </c>
-      <c r="CB5" s="113">
+      <c r="CB5" s="106">
         <f t="shared" ref="CB5" si="28">CA5+1</f>
         <v>45973</v>
       </c>
-      <c r="CC5" s="113">
+      <c r="CC5" s="106">
         <f t="shared" ref="CC5" si="29">CB5+1</f>
         <v>45974</v>
       </c>
-      <c r="CD5" s="113">
+      <c r="CD5" s="106">
         <f t="shared" ref="CD5" si="30">CC5+1</f>
         <v>45975</v>
       </c>
-      <c r="CE5" s="113">
+      <c r="CE5" s="106">
         <f t="shared" ref="CE5" si="31">CD5+1</f>
         <v>45976</v>
       </c>
-      <c r="CF5" s="114">
+      <c r="CF5" s="107">
         <f t="shared" ref="CF5" si="32">CE5+1</f>
         <v>45977</v>
       </c>
-      <c r="CG5" s="112">
+      <c r="CG5" s="105">
         <f>CF5+1</f>
         <v>45978</v>
       </c>
-      <c r="CH5" s="113">
+      <c r="CH5" s="106">
         <f>CG5+1</f>
         <v>45979</v>
       </c>
-      <c r="CI5" s="113">
+      <c r="CI5" s="106">
         <f t="shared" ref="CI5" si="33">CH5+1</f>
         <v>45980</v>
       </c>
-      <c r="CJ5" s="113">
+      <c r="CJ5" s="106">
         <f t="shared" ref="CJ5" si="34">CI5+1</f>
         <v>45981</v>
       </c>
-      <c r="CK5" s="113">
+      <c r="CK5" s="106">
         <f t="shared" ref="CK5" si="35">CJ5+1</f>
         <v>45982</v>
       </c>
-      <c r="CL5" s="113">
+      <c r="CL5" s="106">
         <f t="shared" ref="CL5" si="36">CK5+1</f>
         <v>45983</v>
       </c>
-      <c r="CM5" s="114">
+      <c r="CM5" s="107">
         <f t="shared" ref="CM5" si="37">CL5+1</f>
         <v>45984</v>
       </c>
-      <c r="CN5" s="112">
+      <c r="CN5" s="105">
         <f>CM5+1</f>
         <v>45985</v>
       </c>
-      <c r="CO5" s="113">
+      <c r="CO5" s="106">
         <f>CN5+1</f>
         <v>45986</v>
       </c>
-      <c r="CP5" s="113">
+      <c r="CP5" s="106">
         <f t="shared" ref="CP5" si="38">CO5+1</f>
         <v>45987</v>
       </c>
-      <c r="CQ5" s="113">
+      <c r="CQ5" s="106">
         <f t="shared" ref="CQ5" si="39">CP5+1</f>
         <v>45988</v>
       </c>
-      <c r="CR5" s="113">
+      <c r="CR5" s="106">
         <f t="shared" ref="CR5" si="40">CQ5+1</f>
         <v>45989</v>
       </c>
-      <c r="CS5" s="113">
+      <c r="CS5" s="106">
         <f t="shared" ref="CS5" si="41">CR5+1</f>
         <v>45990</v>
       </c>
-      <c r="CT5" s="114">
+      <c r="CT5" s="107">
         <f t="shared" ref="CT5" si="42">CS5+1</f>
         <v>45991</v>
       </c>
-      <c r="CU5" s="112">
+      <c r="CU5" s="105">
         <f>CT5+1</f>
         <v>45992</v>
       </c>
-      <c r="CV5" s="113">
+      <c r="CV5" s="106">
         <f>CU5+1</f>
         <v>45993</v>
       </c>
-      <c r="CW5" s="113">
+      <c r="CW5" s="106">
         <f t="shared" ref="CW5" si="43">CV5+1</f>
         <v>45994</v>
       </c>
-      <c r="CX5" s="113">
+      <c r="CX5" s="106">
         <f t="shared" ref="CX5" si="44">CW5+1</f>
         <v>45995</v>
       </c>
-      <c r="CY5" s="113">
+      <c r="CY5" s="106">
         <f t="shared" ref="CY5" si="45">CX5+1</f>
         <v>45996</v>
       </c>
-      <c r="CZ5" s="113">
+      <c r="CZ5" s="106">
         <f t="shared" ref="CZ5" si="46">CY5+1</f>
         <v>45997</v>
       </c>
-      <c r="DA5" s="114">
+      <c r="DA5" s="107">
         <f t="shared" ref="DA5:DC5" si="47">CZ5+1</f>
         <v>45998</v>
       </c>
-      <c r="DB5" s="112">
+      <c r="DB5" s="105">
         <f t="shared" si="47"/>
         <v>45999</v>
       </c>
-      <c r="DC5" s="113">
+      <c r="DC5" s="106">
         <f t="shared" si="47"/>
         <v>46000</v>
       </c>
-      <c r="DD5" s="113">
+      <c r="DD5" s="106">
         <f t="shared" ref="DD5" si="48">DC5+1</f>
         <v>46001</v>
       </c>
-      <c r="DE5" s="113">
+      <c r="DE5" s="106">
         <f t="shared" ref="DE5" si="49">DD5+1</f>
         <v>46002</v>
       </c>
-      <c r="DF5" s="113">
+      <c r="DF5" s="106">
         <f t="shared" ref="DF5" si="50">DE5+1</f>
         <v>46003</v>
       </c>
-      <c r="DG5" s="113">
+      <c r="DG5" s="106">
         <f t="shared" ref="DG5" si="51">DF5+1</f>
         <v>46004</v>
       </c>
-      <c r="DH5" s="114">
+      <c r="DH5" s="107">
         <f t="shared" ref="DH5:DJ5" si="52">DG5+1</f>
         <v>46005</v>
       </c>
-      <c r="DI5" s="112">
+      <c r="DI5" s="105">
         <f t="shared" si="52"/>
         <v>46006</v>
       </c>
-      <c r="DJ5" s="113">
+      <c r="DJ5" s="106">
         <f t="shared" si="52"/>
         <v>46007</v>
       </c>
-      <c r="DK5" s="113">
+      <c r="DK5" s="106">
         <f t="shared" ref="DK5" si="53">DJ5+1</f>
         <v>46008</v>
       </c>
-      <c r="DL5" s="113">
+      <c r="DL5" s="106">
         <f t="shared" ref="DL5" si="54">DK5+1</f>
         <v>46009</v>
       </c>
-      <c r="DM5" s="113">
+      <c r="DM5" s="106">
         <f t="shared" ref="DM5" si="55">DL5+1</f>
         <v>46010</v>
       </c>
-      <c r="DN5" s="113">
+      <c r="DN5" s="106">
         <f t="shared" ref="DN5" si="56">DM5+1</f>
         <v>46011</v>
       </c>
-      <c r="DO5" s="114">
+      <c r="DO5" s="107">
         <f t="shared" ref="DO5:DQ5" si="57">DN5+1</f>
         <v>46012</v>
       </c>
-      <c r="DP5" s="112">
+      <c r="DP5" s="105">
         <f t="shared" si="57"/>
         <v>46013</v>
       </c>
-      <c r="DQ5" s="113">
+      <c r="DQ5" s="106">
         <f t="shared" si="57"/>
         <v>46014</v>
       </c>
-      <c r="DR5" s="113">
+      <c r="DR5" s="106">
         <f t="shared" ref="DR5" si="58">DQ5+1</f>
         <v>46015</v>
       </c>
-      <c r="DS5" s="113">
+      <c r="DS5" s="106">
         <f t="shared" ref="DS5" si="59">DR5+1</f>
         <v>46016</v>
       </c>
-      <c r="DT5" s="113">
+      <c r="DT5" s="106">
         <f t="shared" ref="DT5" si="60">DS5+1</f>
         <v>46017</v>
       </c>
-      <c r="DU5" s="113">
+      <c r="DU5" s="106">
         <f t="shared" ref="DU5" si="61">DT5+1</f>
         <v>46018</v>
       </c>
-      <c r="DV5" s="114">
+      <c r="DV5" s="107">
         <f t="shared" ref="DV5:DX5" si="62">DU5+1</f>
         <v>46019</v>
       </c>
-      <c r="DW5" s="112">
+      <c r="DW5" s="105">
         <f t="shared" si="62"/>
         <v>46020</v>
       </c>
-      <c r="DX5" s="113">
+      <c r="DX5" s="106">
         <f t="shared" si="62"/>
         <v>46021</v>
       </c>
-      <c r="DY5" s="113">
+      <c r="DY5" s="106">
         <f t="shared" ref="DY5" si="63">DX5+1</f>
         <v>46022</v>
       </c>
-      <c r="DZ5" s="113">
+      <c r="DZ5" s="106">
         <f t="shared" ref="DZ5" si="64">DY5+1</f>
         <v>46023</v>
       </c>
-      <c r="EA5" s="113">
+      <c r="EA5" s="106">
         <f t="shared" ref="EA5" si="65">DZ5+1</f>
         <v>46024</v>
       </c>
-      <c r="EB5" s="113">
+      <c r="EB5" s="106">
         <f t="shared" ref="EB5" si="66">EA5+1</f>
         <v>46025</v>
       </c>
-      <c r="EC5" s="114">
+      <c r="EC5" s="107">
         <f t="shared" ref="EC5:EE5" si="67">EB5+1</f>
         <v>46026</v>
       </c>
-      <c r="ED5" s="112">
+      <c r="ED5" s="105">
         <f t="shared" si="67"/>
         <v>46027</v>
       </c>
-      <c r="EE5" s="113">
+      <c r="EE5" s="106">
         <f t="shared" si="67"/>
         <v>46028</v>
       </c>
-      <c r="EF5" s="113">
+      <c r="EF5" s="106">
         <f t="shared" ref="EF5" si="68">EE5+1</f>
         <v>46029</v>
       </c>
-      <c r="EG5" s="113">
+      <c r="EG5" s="106">
         <f t="shared" ref="EG5" si="69">EF5+1</f>
         <v>46030</v>
       </c>
-      <c r="EH5" s="113">
+      <c r="EH5" s="106">
         <f t="shared" ref="EH5" si="70">EG5+1</f>
         <v>46031</v>
       </c>
-      <c r="EI5" s="113">
+      <c r="EI5" s="106">
         <f t="shared" ref="EI5" si="71">EH5+1</f>
         <v>46032</v>
       </c>
-      <c r="EJ5" s="114">
+      <c r="EJ5" s="107">
         <f t="shared" ref="EJ5" si="72">EI5+1</f>
         <v>46033</v>
       </c>
-      <c r="EK5" s="112">
+      <c r="EK5" s="105">
         <f t="shared" ref="EK5" si="73">EJ5+1</f>
         <v>46034</v>
       </c>
-      <c r="EL5" s="113">
+      <c r="EL5" s="106">
         <f t="shared" ref="EL5" si="74">EK5+1</f>
         <v>46035</v>
       </c>
-      <c r="EM5" s="113">
+      <c r="EM5" s="106">
         <f t="shared" ref="EM5" si="75">EL5+1</f>
         <v>46036</v>
       </c>
-      <c r="EN5" s="113">
+      <c r="EN5" s="106">
         <f t="shared" ref="EN5" si="76">EM5+1</f>
         <v>46037</v>
       </c>
-      <c r="EO5" s="113">
+      <c r="EO5" s="106">
         <f t="shared" ref="EO5" si="77">EN5+1</f>
         <v>46038</v>
       </c>
-      <c r="EP5" s="113">
+      <c r="EP5" s="106">
         <f t="shared" ref="EP5" si="78">EO5+1</f>
         <v>46039</v>
       </c>
-      <c r="EQ5" s="114">
+      <c r="EQ5" s="107">
         <f t="shared" ref="EQ5" si="79">EP5+1</f>
         <v>46040</v>
       </c>
-      <c r="ER5" s="112">
+      <c r="ER5" s="105">
         <f t="shared" ref="ER5" si="80">EQ5+1</f>
         <v>46041</v>
       </c>
-      <c r="ES5" s="113">
+      <c r="ES5" s="106">
         <f t="shared" ref="ES5" si="81">ER5+1</f>
         <v>46042</v>
       </c>
-      <c r="ET5" s="113">
+      <c r="ET5" s="106">
         <f t="shared" ref="ET5" si="82">ES5+1</f>
         <v>46043</v>
       </c>
-      <c r="EU5" s="113">
+      <c r="EU5" s="106">
         <f t="shared" ref="EU5" si="83">ET5+1</f>
         <v>46044</v>
       </c>
-      <c r="EV5" s="113">
+      <c r="EV5" s="106">
         <f t="shared" ref="EV5" si="84">EU5+1</f>
         <v>46045</v>
       </c>
-      <c r="EW5" s="113">
+      <c r="EW5" s="106">
         <f t="shared" ref="EW5" si="85">EV5+1</f>
         <v>46046</v>
       </c>
-      <c r="EX5" s="114">
+      <c r="EX5" s="107">
         <f t="shared" ref="EX5" si="86">EW5+1</f>
         <v>46047</v>
       </c>
-      <c r="EY5" s="112">
+      <c r="EY5" s="105">
         <f t="shared" ref="EY5" si="87">EX5+1</f>
         <v>46048</v>
       </c>
-      <c r="EZ5" s="113">
+      <c r="EZ5" s="106">
         <f t="shared" ref="EZ5" si="88">EY5+1</f>
         <v>46049</v>
       </c>
-      <c r="FA5" s="113">
+      <c r="FA5" s="106">
         <f t="shared" ref="FA5" si="89">EZ5+1</f>
         <v>46050</v>
       </c>
-      <c r="FB5" s="113">
+      <c r="FB5" s="106">
         <f t="shared" ref="FB5" si="90">FA5+1</f>
         <v>46051</v>
       </c>
-      <c r="FC5" s="113">
+      <c r="FC5" s="106">
         <f t="shared" ref="FC5" si="91">FB5+1</f>
         <v>46052</v>
       </c>
-      <c r="FD5" s="113">
+      <c r="FD5" s="106">
         <f t="shared" ref="FD5" si="92">FC5+1</f>
         <v>46053</v>
       </c>
-      <c r="FE5" s="114">
+      <c r="FE5" s="107">
         <f t="shared" ref="FE5" si="93">FD5+1</f>
         <v>46054</v>
       </c>
-      <c r="FF5" s="112">
+      <c r="FF5" s="105">
         <f t="shared" ref="FF5" si="94">FE5+1</f>
         <v>46055</v>
       </c>
-      <c r="FG5" s="113">
+      <c r="FG5" s="106">
         <f t="shared" ref="FG5" si="95">FF5+1</f>
         <v>46056</v>
       </c>
-      <c r="FH5" s="113">
+      <c r="FH5" s="106">
         <f t="shared" ref="FH5" si="96">FG5+1</f>
         <v>46057</v>
       </c>
-      <c r="FI5" s="113">
+      <c r="FI5" s="106">
         <f t="shared" ref="FI5" si="97">FH5+1</f>
         <v>46058</v>
       </c>
-      <c r="FJ5" s="113">
+      <c r="FJ5" s="106">
         <f t="shared" ref="FJ5" si="98">FI5+1</f>
         <v>46059</v>
       </c>
-      <c r="FK5" s="113">
+      <c r="FK5" s="106">
         <f t="shared" ref="FK5" si="99">FJ5+1</f>
         <v>46060</v>
       </c>
-      <c r="FL5" s="114">
+      <c r="FL5" s="107">
         <f t="shared" ref="FL5" si="100">FK5+1</f>
         <v>46061</v>
       </c>
-      <c r="FM5" s="112">
+      <c r="FM5" s="105">
         <f t="shared" ref="FM5" si="101">FL5+1</f>
         <v>46062</v>
       </c>
-      <c r="FN5" s="113">
+      <c r="FN5" s="106">
         <f t="shared" ref="FN5" si="102">FM5+1</f>
         <v>46063</v>
       </c>
-      <c r="FO5" s="113">
+      <c r="FO5" s="106">
         <f t="shared" ref="FO5" si="103">FN5+1</f>
         <v>46064</v>
       </c>
-      <c r="FP5" s="113">
+      <c r="FP5" s="106">
         <f t="shared" ref="FP5" si="104">FO5+1</f>
         <v>46065</v>
       </c>
-      <c r="FQ5" s="113">
+      <c r="FQ5" s="106">
         <f t="shared" ref="FQ5" si="105">FP5+1</f>
         <v>46066</v>
       </c>
-      <c r="FR5" s="113">
+      <c r="FR5" s="106">
         <f t="shared" ref="FR5" si="106">FQ5+1</f>
         <v>46067</v>
       </c>
-      <c r="FS5" s="114">
+      <c r="FS5" s="107">
         <f t="shared" ref="FS5" si="107">FR5+1</f>
         <v>46068</v>
       </c>
-      <c r="FT5" s="112">
+      <c r="FT5" s="105">
         <f t="shared" ref="FT5" si="108">FS5+1</f>
         <v>46069</v>
       </c>
-      <c r="FU5" s="113">
+      <c r="FU5" s="106">
         <f t="shared" ref="FU5" si="109">FT5+1</f>
         <v>46070</v>
       </c>
-      <c r="FV5" s="113">
+      <c r="FV5" s="106">
         <f t="shared" ref="FV5" si="110">FU5+1</f>
         <v>46071</v>
       </c>
-      <c r="FW5" s="113">
+      <c r="FW5" s="106">
         <f t="shared" ref="FW5" si="111">FV5+1</f>
         <v>46072</v>
       </c>
-      <c r="FX5" s="113">
+      <c r="FX5" s="106">
         <f t="shared" ref="FX5" si="112">FW5+1</f>
         <v>46073</v>
       </c>
-      <c r="FY5" s="113">
+      <c r="FY5" s="106">
         <f t="shared" ref="FY5" si="113">FX5+1</f>
         <v>46074</v>
       </c>
-      <c r="FZ5" s="114">
+      <c r="FZ5" s="107">
         <f t="shared" ref="FZ5" si="114">FY5+1</f>
         <v>46075</v>
       </c>
@@ -14983,6 +15022,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -14999,18 +15050,6 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C59">
@@ -15183,22 +15222,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
-  <dimension ref="B5:G15"/>
+  <dimension ref="B5:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -15330,6 +15372,376 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="82"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>1415</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>-59760</v>
+      </c>
+      <c r="E23">
+        <f>C23-D23</f>
+        <v>59760</v>
+      </c>
+      <c r="F23">
+        <f>IF(E23 &lt; 0, E23*-1, E23)</f>
+        <v>59760</v>
+      </c>
+      <c r="G23">
+        <f>$E$20/F23</f>
+        <v>2.3678045515394913E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>-59760</v>
+      </c>
+      <c r="D24">
+        <v>1238</v>
+      </c>
+      <c r="E24">
+        <f>C24-D24</f>
+        <v>-60998</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F37" si="3">IF(E24 &lt; 0, E24*-1, E24)</f>
+        <v>60998</v>
+      </c>
+      <c r="G24">
+        <f>$E$20/F24</f>
+        <v>2.3197481884651955E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1239</v>
+      </c>
+      <c r="D25">
+        <v>-21564</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E37" si="4">C25-D25</f>
+        <v>22803</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>22803</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G40" si="5">$E$20/F25</f>
+        <v>6.205323860895496E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>-21565</v>
+      </c>
+      <c r="D26">
+        <v>54607</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>-76172</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>76172</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>1.8576379772094732E-2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>-76162</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>76162</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>76162</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>1.8578818833539037E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>76158</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>-76158</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>76158</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>1.857979463746422E-2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>-38079</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>38079</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>38079</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>3.7159589274928441E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15443,35 +15855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15759,27 +16142,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15798,4 +16190,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FB100-CBDB-4D5B-8F6E-29EA29056794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A6E20-C47C-492B-B84A-FC4D238F2487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>TAAK</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>nee</t>
+  </si>
+  <si>
+    <t>niet accuraat</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -1518,14 +1524,14 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2509,50 +2515,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="113">
+      <c r="D3" s="111">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="113"/>
+      <c r="E3" s="111"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="111" t="s">
+      <c r="BO3" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="111"/>
-      <c r="BQ3" s="111"/>
-      <c r="BR3" s="111"/>
-      <c r="BS3" s="111"/>
-      <c r="BT3" s="111"/>
-      <c r="BU3" s="111"/>
-      <c r="BV3" s="111"/>
-      <c r="BW3" s="111"/>
-      <c r="BX3" s="111"/>
-      <c r="BY3" s="111"/>
+      <c r="BP3" s="112"/>
+      <c r="BQ3" s="112"/>
+      <c r="BR3" s="112"/>
+      <c r="BS3" s="112"/>
+      <c r="BT3" s="112"/>
+      <c r="BU3" s="112"/>
+      <c r="BV3" s="112"/>
+      <c r="BW3" s="112"/>
+      <c r="BX3" s="112"/>
+      <c r="BY3" s="112"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="112" t="s">
+      <c r="DP3" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="112"/>
-      <c r="DR3" s="112"/>
-      <c r="DS3" s="112"/>
-      <c r="DT3" s="112"/>
-      <c r="DU3" s="112"/>
-      <c r="DV3" s="112"/>
-      <c r="DW3" s="112"/>
-      <c r="DX3" s="112"/>
-      <c r="DY3" s="112"/>
-      <c r="DZ3" s="112"/>
-      <c r="EA3" s="112"/>
-      <c r="EB3" s="112"/>
-      <c r="EC3" s="112"/>
+      <c r="DQ3" s="113"/>
+      <c r="DR3" s="113"/>
+      <c r="DS3" s="113"/>
+      <c r="DT3" s="113"/>
+      <c r="DU3" s="113"/>
+      <c r="DV3" s="113"/>
+      <c r="DW3" s="113"/>
+      <c r="DX3" s="113"/>
+      <c r="DY3" s="113"/>
+      <c r="DZ3" s="113"/>
+      <c r="EA3" s="113"/>
+      <c r="EB3" s="113"/>
+      <c r="EC3" s="113"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -15022,18 +15028,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -15050,6 +15044,18 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C59">
@@ -15224,8 +15230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
   <dimension ref="B5:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15481,7 +15487,7 @@
         <v>22803</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:G40" si="5">$E$20/F25</f>
+        <f t="shared" ref="G25:G37" si="5">$E$20/F25</f>
         <v>6.205323860895496E-2</v>
       </c>
       <c r="H25" t="s">
@@ -15611,51 +15617,75 @@
       <c r="B30">
         <v>8</v>
       </c>
+      <c r="C30">
+        <v>24667</v>
+      </c>
+      <c r="D30">
+        <v>-14384</v>
+      </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>39051</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G30" t="e">
+        <v>39051</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.6234667486107909E-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
+      <c r="C31">
+        <v>30256</v>
+      </c>
+      <c r="D31">
+        <v>-24667</v>
+      </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>54923</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G31" t="e">
+        <v>54923</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.5763341405240062E-2</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
+      <c r="C32">
+        <v>30655</v>
+      </c>
+      <c r="D32">
+        <v>-30256</v>
+      </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60911</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="e">
+        <v>60911</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.3230615159823349E-2</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -15855,6 +15885,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16142,36 +16201,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16190,24 +16240,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A6E20-C47C-492B-B84A-FC4D238F2487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5C025A-5A95-4BD9-8A87-8E6E3006CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>TAAK</t>
   </si>
@@ -335,6 +335,27 @@
   </si>
   <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>end target</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>mm/step</t>
+  </si>
+  <si>
+    <t>step/mm</t>
+  </si>
+  <si>
+    <t>meetlint vanaf links</t>
   </si>
 </sst>
 </file>
@@ -900,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1154,6 +1175,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1226,7 +1256,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1524,18 +1554,21 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2515,50 +2548,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="111">
+      <c r="D3" s="113">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="111"/>
+      <c r="E3" s="113"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="112" t="s">
+      <c r="BO3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="112"/>
-      <c r="BQ3" s="112"/>
-      <c r="BR3" s="112"/>
-      <c r="BS3" s="112"/>
-      <c r="BT3" s="112"/>
-      <c r="BU3" s="112"/>
-      <c r="BV3" s="112"/>
-      <c r="BW3" s="112"/>
-      <c r="BX3" s="112"/>
-      <c r="BY3" s="112"/>
+      <c r="BP3" s="111"/>
+      <c r="BQ3" s="111"/>
+      <c r="BR3" s="111"/>
+      <c r="BS3" s="111"/>
+      <c r="BT3" s="111"/>
+      <c r="BU3" s="111"/>
+      <c r="BV3" s="111"/>
+      <c r="BW3" s="111"/>
+      <c r="BX3" s="111"/>
+      <c r="BY3" s="111"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="113" t="s">
+      <c r="DP3" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="113"/>
-      <c r="DR3" s="113"/>
-      <c r="DS3" s="113"/>
-      <c r="DT3" s="113"/>
-      <c r="DU3" s="113"/>
-      <c r="DV3" s="113"/>
-      <c r="DW3" s="113"/>
-      <c r="DX3" s="113"/>
-      <c r="DY3" s="113"/>
-      <c r="DZ3" s="113"/>
-      <c r="EA3" s="113"/>
-      <c r="EB3" s="113"/>
-      <c r="EC3" s="113"/>
+      <c r="DQ3" s="112"/>
+      <c r="DR3" s="112"/>
+      <c r="DS3" s="112"/>
+      <c r="DT3" s="112"/>
+      <c r="DU3" s="112"/>
+      <c r="DV3" s="112"/>
+      <c r="DW3" s="112"/>
+      <c r="DX3" s="112"/>
+      <c r="DY3" s="112"/>
+      <c r="DZ3" s="112"/>
+      <c r="EA3" s="112"/>
+      <c r="EB3" s="112"/>
+      <c r="EC3" s="112"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -15028,6 +15061,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -15044,18 +15089,6 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C59">
@@ -15228,10 +15261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
-  <dimension ref="B5:I37"/>
+  <dimension ref="A5:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15688,7 +15721,7 @@
         <v>2.3230615159823349E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
@@ -15705,7 +15738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>12</v>
       </c>
@@ -15722,7 +15755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>13</v>
       </c>
@@ -15739,7 +15772,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>14</v>
       </c>
@@ -15756,7 +15789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>15</v>
       </c>
@@ -15771,6 +15804,362 @@
       <c r="G37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>999</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>D43-E43</f>
+        <v>997</v>
+      </c>
+      <c r="H43">
+        <f>C43/G43</f>
+        <v>2.0060180541624874E-2</v>
+      </c>
+      <c r="I43">
+        <f>G43/C43</f>
+        <v>49.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115">
+        <v>165</v>
+      </c>
+      <c r="D44" s="115">
+        <v>2</v>
+      </c>
+      <c r="E44" s="115">
+        <v>9997</v>
+      </c>
+      <c r="F44" s="115">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="115">
+        <f>E44-D44</f>
+        <v>9995</v>
+      </c>
+      <c r="H44" s="115">
+        <f>C44/G44</f>
+        <v>1.6508254127063533E-2</v>
+      </c>
+      <c r="I44" s="115">
+        <f t="shared" ref="I44:I55" si="6">G44/C44</f>
+        <v>60.575757575757578</v>
+      </c>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117">
+        <v>500</v>
+      </c>
+      <c r="D45" s="117">
+        <v>2</v>
+      </c>
+      <c r="E45" s="117">
+        <v>-30002</v>
+      </c>
+      <c r="F45" s="117">
+        <v>-30000</v>
+      </c>
+      <c r="G45" s="117">
+        <f>D45-E45</f>
+        <v>30004</v>
+      </c>
+      <c r="H45" s="117">
+        <f>C45/G45</f>
+        <v>1.666444474070124E-2</v>
+      </c>
+      <c r="I45" s="117">
+        <f t="shared" si="6"/>
+        <v>60.008000000000003</v>
+      </c>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C46" s="115">
+        <v>165</v>
+      </c>
+      <c r="D46" s="115">
+        <v>0</v>
+      </c>
+      <c r="E46" s="115">
+        <v>9996</v>
+      </c>
+      <c r="F46" s="115">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="115">
+        <f>E46</f>
+        <v>9996</v>
+      </c>
+      <c r="H46" s="115">
+        <f>C46/G46</f>
+        <v>1.6506602641056422E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>60.581818181818178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C47" s="115">
+        <v>498</v>
+      </c>
+      <c r="D47" s="115">
+        <v>0</v>
+      </c>
+      <c r="E47" s="115">
+        <v>30001</v>
+      </c>
+      <c r="F47" s="115">
+        <v>30000</v>
+      </c>
+      <c r="G47" s="115">
+        <f>E47</f>
+        <v>30001</v>
+      </c>
+      <c r="H47" s="115">
+        <f>C47/G47</f>
+        <v>1.6599446685110496E-2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>60.242971887550198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C48" s="115">
+        <v>997</v>
+      </c>
+      <c r="D48" s="116">
+        <v>0</v>
+      </c>
+      <c r="E48" s="116">
+        <v>60000</v>
+      </c>
+      <c r="F48" s="116">
+        <v>60000</v>
+      </c>
+      <c r="G48" s="115">
+        <v>60000</v>
+      </c>
+      <c r="H48" s="115">
+        <f>C48/G48</f>
+        <v>1.6616666666666665E-2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>60.180541624874621</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="116">
+        <v>167</v>
+      </c>
+      <c r="D49" s="116">
+        <v>0</v>
+      </c>
+      <c r="E49" s="116">
+        <v>9998</v>
+      </c>
+      <c r="F49" s="116">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="115">
+        <f>E49</f>
+        <v>9998</v>
+      </c>
+      <c r="H49" s="115">
+        <f>C49/G49</f>
+        <v>1.6703340668133625E-2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>59.868263473053894</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="116">
+        <v>167</v>
+      </c>
+      <c r="D50" s="116">
+        <v>0</v>
+      </c>
+      <c r="E50" s="116">
+        <v>9998</v>
+      </c>
+      <c r="F50" s="116">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="115">
+        <f>E50</f>
+        <v>9998</v>
+      </c>
+      <c r="H50" s="115">
+        <f>C50/G50</f>
+        <v>1.6703340668133625E-2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>59.868263473053894</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="116">
+        <v>499</v>
+      </c>
+      <c r="D51" s="116">
+        <v>0</v>
+      </c>
+      <c r="E51" s="116">
+        <v>30000</v>
+      </c>
+      <c r="F51" s="116">
+        <v>30000</v>
+      </c>
+      <c r="G51" s="116">
+        <f>E51</f>
+        <v>30000</v>
+      </c>
+      <c r="H51" s="115">
+        <f t="shared" ref="H51:H54" si="7">C51/G51</f>
+        <v>1.6633333333333333E-2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>60.120240480961925</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C52" s="116">
+        <v>499</v>
+      </c>
+      <c r="D52" s="116">
+        <v>0</v>
+      </c>
+      <c r="E52" s="116">
+        <v>29999</v>
+      </c>
+      <c r="F52" s="116">
+        <v>30000</v>
+      </c>
+      <c r="G52" s="116">
+        <f>E52</f>
+        <v>29999</v>
+      </c>
+      <c r="H52" s="115">
+        <f t="shared" si="7"/>
+        <v>1.6633887796259874E-2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>60.118236472945888</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="116">
+        <v>997</v>
+      </c>
+      <c r="D53" s="116">
+        <v>0</v>
+      </c>
+      <c r="E53" s="116">
+        <v>60002</v>
+      </c>
+      <c r="F53" s="116">
+        <v>60000</v>
+      </c>
+      <c r="G53" s="116">
+        <f>E53</f>
+        <v>60002</v>
+      </c>
+      <c r="H53" s="115">
+        <f t="shared" si="7"/>
+        <v>1.6616112796240125E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>60.182547642928789</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="116">
+        <v>996</v>
+      </c>
+      <c r="D54" s="116">
+        <v>0</v>
+      </c>
+      <c r="E54" s="116">
+        <v>59999</v>
+      </c>
+      <c r="F54" s="116">
+        <v>60000</v>
+      </c>
+      <c r="G54" s="116">
+        <f>E54</f>
+        <v>59999</v>
+      </c>
+      <c r="H54" s="115">
+        <f t="shared" si="7"/>
+        <v>1.6600276671277853E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>60.239959839357432</v>
       </c>
     </row>
   </sheetData>
@@ -15885,35 +16274,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16201,27 +16561,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16240,4 +16609,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5C025A-5A95-4BD9-8A87-8E6E3006CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F7BE9-BACA-44D6-8CAA-0A1142EA988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1545,6 +1545,9 @@
     <xf numFmtId="171" fontId="33" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1554,21 +1557,18 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2548,50 +2548,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="113">
+      <c r="D3" s="114">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="113"/>
+      <c r="E3" s="114"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="111" t="s">
+      <c r="BO3" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="111"/>
-      <c r="BQ3" s="111"/>
-      <c r="BR3" s="111"/>
-      <c r="BS3" s="111"/>
-      <c r="BT3" s="111"/>
-      <c r="BU3" s="111"/>
-      <c r="BV3" s="111"/>
-      <c r="BW3" s="111"/>
-      <c r="BX3" s="111"/>
-      <c r="BY3" s="111"/>
+      <c r="BP3" s="115"/>
+      <c r="BQ3" s="115"/>
+      <c r="BR3" s="115"/>
+      <c r="BS3" s="115"/>
+      <c r="BT3" s="115"/>
+      <c r="BU3" s="115"/>
+      <c r="BV3" s="115"/>
+      <c r="BW3" s="115"/>
+      <c r="BX3" s="115"/>
+      <c r="BY3" s="115"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="112" t="s">
+      <c r="DP3" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="112"/>
-      <c r="DR3" s="112"/>
-      <c r="DS3" s="112"/>
-      <c r="DT3" s="112"/>
-      <c r="DU3" s="112"/>
-      <c r="DV3" s="112"/>
-      <c r="DW3" s="112"/>
-      <c r="DX3" s="112"/>
-      <c r="DY3" s="112"/>
-      <c r="DZ3" s="112"/>
-      <c r="EA3" s="112"/>
-      <c r="EB3" s="112"/>
-      <c r="EC3" s="112"/>
+      <c r="DQ3" s="116"/>
+      <c r="DR3" s="116"/>
+      <c r="DS3" s="116"/>
+      <c r="DT3" s="116"/>
+      <c r="DU3" s="116"/>
+      <c r="DV3" s="116"/>
+      <c r="DW3" s="116"/>
+      <c r="DX3" s="116"/>
+      <c r="DY3" s="116"/>
+      <c r="DZ3" s="116"/>
+      <c r="EA3" s="116"/>
+      <c r="EB3" s="116"/>
+      <c r="EC3" s="116"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -2604,256 +2604,256 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="111">
         <f>H5</f>
         <v>45901</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="108">
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="111">
         <f>O5</f>
         <v>45908</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="108">
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="111">
         <f>V5</f>
         <v>45915</v>
       </c>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="108">
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="111">
         <f>AC5</f>
         <v>45922</v>
       </c>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="108">
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="111">
         <f>AJ5</f>
         <v>45929</v>
       </c>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="108">
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="111">
         <f>AQ5</f>
         <v>45936</v>
       </c>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="108">
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="111">
         <f>AX5</f>
         <v>45943</v>
       </c>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="108">
+      <c r="AY4" s="112"/>
+      <c r="AZ4" s="112"/>
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="112"/>
+      <c r="BC4" s="112"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="111">
         <f>BE5</f>
         <v>45950</v>
       </c>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="108">
+      <c r="BF4" s="112"/>
+      <c r="BG4" s="112"/>
+      <c r="BH4" s="112"/>
+      <c r="BI4" s="112"/>
+      <c r="BJ4" s="112"/>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="111">
         <f>BL5</f>
         <v>45957</v>
       </c>
-      <c r="BM4" s="109"/>
-      <c r="BN4" s="109"/>
-      <c r="BO4" s="109"/>
-      <c r="BP4" s="109"/>
-      <c r="BQ4" s="109"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="108">
+      <c r="BM4" s="112"/>
+      <c r="BN4" s="112"/>
+      <c r="BO4" s="112"/>
+      <c r="BP4" s="112"/>
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="113"/>
+      <c r="BS4" s="111">
         <f>BS5</f>
         <v>45964</v>
       </c>
-      <c r="BT4" s="109"/>
-      <c r="BU4" s="109"/>
-      <c r="BV4" s="109"/>
-      <c r="BW4" s="109"/>
-      <c r="BX4" s="109"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="108">
+      <c r="BT4" s="112"/>
+      <c r="BU4" s="112"/>
+      <c r="BV4" s="112"/>
+      <c r="BW4" s="112"/>
+      <c r="BX4" s="112"/>
+      <c r="BY4" s="113"/>
+      <c r="BZ4" s="111">
         <f>BZ5</f>
         <v>45971</v>
       </c>
-      <c r="CA4" s="109"/>
-      <c r="CB4" s="109"/>
-      <c r="CC4" s="109"/>
-      <c r="CD4" s="109"/>
-      <c r="CE4" s="109"/>
-      <c r="CF4" s="110"/>
-      <c r="CG4" s="108">
+      <c r="CA4" s="112"/>
+      <c r="CB4" s="112"/>
+      <c r="CC4" s="112"/>
+      <c r="CD4" s="112"/>
+      <c r="CE4" s="112"/>
+      <c r="CF4" s="113"/>
+      <c r="CG4" s="111">
         <f>CG5</f>
         <v>45978</v>
       </c>
-      <c r="CH4" s="109"/>
-      <c r="CI4" s="109"/>
-      <c r="CJ4" s="109"/>
-      <c r="CK4" s="109"/>
-      <c r="CL4" s="109"/>
-      <c r="CM4" s="110"/>
-      <c r="CN4" s="108">
+      <c r="CH4" s="112"/>
+      <c r="CI4" s="112"/>
+      <c r="CJ4" s="112"/>
+      <c r="CK4" s="112"/>
+      <c r="CL4" s="112"/>
+      <c r="CM4" s="113"/>
+      <c r="CN4" s="111">
         <f>CN5</f>
         <v>45985</v>
       </c>
-      <c r="CO4" s="109"/>
-      <c r="CP4" s="109"/>
-      <c r="CQ4" s="109"/>
-      <c r="CR4" s="109"/>
-      <c r="CS4" s="109"/>
-      <c r="CT4" s="110"/>
-      <c r="CU4" s="108">
+      <c r="CO4" s="112"/>
+      <c r="CP4" s="112"/>
+      <c r="CQ4" s="112"/>
+      <c r="CR4" s="112"/>
+      <c r="CS4" s="112"/>
+      <c r="CT4" s="113"/>
+      <c r="CU4" s="111">
         <f>CU5</f>
         <v>45992</v>
       </c>
-      <c r="CV4" s="109"/>
-      <c r="CW4" s="109"/>
-      <c r="CX4" s="109"/>
-      <c r="CY4" s="109"/>
-      <c r="CZ4" s="109"/>
-      <c r="DA4" s="110"/>
-      <c r="DB4" s="108">
+      <c r="CV4" s="112"/>
+      <c r="CW4" s="112"/>
+      <c r="CX4" s="112"/>
+      <c r="CY4" s="112"/>
+      <c r="CZ4" s="112"/>
+      <c r="DA4" s="113"/>
+      <c r="DB4" s="111">
         <f t="shared" ref="DB4" si="0">DB5</f>
         <v>45999</v>
       </c>
-      <c r="DC4" s="109"/>
-      <c r="DD4" s="109"/>
-      <c r="DE4" s="109"/>
-      <c r="DF4" s="109"/>
-      <c r="DG4" s="109"/>
-      <c r="DH4" s="110"/>
-      <c r="DI4" s="108">
+      <c r="DC4" s="112"/>
+      <c r="DD4" s="112"/>
+      <c r="DE4" s="112"/>
+      <c r="DF4" s="112"/>
+      <c r="DG4" s="112"/>
+      <c r="DH4" s="113"/>
+      <c r="DI4" s="111">
         <f t="shared" ref="DI4" si="1">DI5</f>
         <v>46006</v>
       </c>
-      <c r="DJ4" s="109"/>
-      <c r="DK4" s="109"/>
-      <c r="DL4" s="109"/>
-      <c r="DM4" s="109"/>
-      <c r="DN4" s="109"/>
-      <c r="DO4" s="110"/>
-      <c r="DP4" s="108">
+      <c r="DJ4" s="112"/>
+      <c r="DK4" s="112"/>
+      <c r="DL4" s="112"/>
+      <c r="DM4" s="112"/>
+      <c r="DN4" s="112"/>
+      <c r="DO4" s="113"/>
+      <c r="DP4" s="111">
         <f t="shared" ref="DP4" si="2">DP5</f>
         <v>46013</v>
       </c>
-      <c r="DQ4" s="109"/>
-      <c r="DR4" s="109"/>
-      <c r="DS4" s="109"/>
-      <c r="DT4" s="109"/>
-      <c r="DU4" s="109"/>
-      <c r="DV4" s="110"/>
-      <c r="DW4" s="108">
+      <c r="DQ4" s="112"/>
+      <c r="DR4" s="112"/>
+      <c r="DS4" s="112"/>
+      <c r="DT4" s="112"/>
+      <c r="DU4" s="112"/>
+      <c r="DV4" s="113"/>
+      <c r="DW4" s="111">
         <f t="shared" ref="DW4" si="3">DW5</f>
         <v>46020</v>
       </c>
-      <c r="DX4" s="109"/>
-      <c r="DY4" s="109"/>
-      <c r="DZ4" s="109"/>
-      <c r="EA4" s="109"/>
-      <c r="EB4" s="109"/>
-      <c r="EC4" s="110"/>
-      <c r="ED4" s="108">
+      <c r="DX4" s="112"/>
+      <c r="DY4" s="112"/>
+      <c r="DZ4" s="112"/>
+      <c r="EA4" s="112"/>
+      <c r="EB4" s="112"/>
+      <c r="EC4" s="113"/>
+      <c r="ED4" s="111">
         <f t="shared" ref="ED4" si="4">ED5</f>
         <v>46027</v>
       </c>
-      <c r="EE4" s="109"/>
-      <c r="EF4" s="109"/>
-      <c r="EG4" s="109"/>
-      <c r="EH4" s="109"/>
-      <c r="EI4" s="109"/>
-      <c r="EJ4" s="110"/>
-      <c r="EK4" s="108">
+      <c r="EE4" s="112"/>
+      <c r="EF4" s="112"/>
+      <c r="EG4" s="112"/>
+      <c r="EH4" s="112"/>
+      <c r="EI4" s="112"/>
+      <c r="EJ4" s="113"/>
+      <c r="EK4" s="111">
         <f t="shared" ref="EK4" si="5">EK5</f>
         <v>46034</v>
       </c>
-      <c r="EL4" s="109"/>
-      <c r="EM4" s="109"/>
-      <c r="EN4" s="109"/>
-      <c r="EO4" s="109"/>
-      <c r="EP4" s="109"/>
-      <c r="EQ4" s="110"/>
-      <c r="ER4" s="108">
+      <c r="EL4" s="112"/>
+      <c r="EM4" s="112"/>
+      <c r="EN4" s="112"/>
+      <c r="EO4" s="112"/>
+      <c r="EP4" s="112"/>
+      <c r="EQ4" s="113"/>
+      <c r="ER4" s="111">
         <f t="shared" ref="ER4" si="6">ER5</f>
         <v>46041</v>
       </c>
-      <c r="ES4" s="109"/>
-      <c r="ET4" s="109"/>
-      <c r="EU4" s="109"/>
-      <c r="EV4" s="109"/>
-      <c r="EW4" s="109"/>
-      <c r="EX4" s="110"/>
-      <c r="EY4" s="108">
+      <c r="ES4" s="112"/>
+      <c r="ET4" s="112"/>
+      <c r="EU4" s="112"/>
+      <c r="EV4" s="112"/>
+      <c r="EW4" s="112"/>
+      <c r="EX4" s="113"/>
+      <c r="EY4" s="111">
         <f t="shared" ref="EY4" si="7">EY5</f>
         <v>46048</v>
       </c>
-      <c r="EZ4" s="109"/>
-      <c r="FA4" s="109"/>
-      <c r="FB4" s="109"/>
-      <c r="FC4" s="109"/>
-      <c r="FD4" s="109"/>
-      <c r="FE4" s="110"/>
-      <c r="FF4" s="108">
+      <c r="EZ4" s="112"/>
+      <c r="FA4" s="112"/>
+      <c r="FB4" s="112"/>
+      <c r="FC4" s="112"/>
+      <c r="FD4" s="112"/>
+      <c r="FE4" s="113"/>
+      <c r="FF4" s="111">
         <f t="shared" ref="FF4" si="8">FF5</f>
         <v>46055</v>
       </c>
-      <c r="FG4" s="109"/>
-      <c r="FH4" s="109"/>
-      <c r="FI4" s="109"/>
-      <c r="FJ4" s="109"/>
-      <c r="FK4" s="109"/>
-      <c r="FL4" s="110"/>
-      <c r="FM4" s="108">
+      <c r="FG4" s="112"/>
+      <c r="FH4" s="112"/>
+      <c r="FI4" s="112"/>
+      <c r="FJ4" s="112"/>
+      <c r="FK4" s="112"/>
+      <c r="FL4" s="113"/>
+      <c r="FM4" s="111">
         <f t="shared" ref="FM4" si="9">FM5</f>
         <v>46062</v>
       </c>
-      <c r="FN4" s="109"/>
-      <c r="FO4" s="109"/>
-      <c r="FP4" s="109"/>
-      <c r="FQ4" s="109"/>
-      <c r="FR4" s="109"/>
-      <c r="FS4" s="110"/>
-      <c r="FT4" s="108">
+      <c r="FN4" s="112"/>
+      <c r="FO4" s="112"/>
+      <c r="FP4" s="112"/>
+      <c r="FQ4" s="112"/>
+      <c r="FR4" s="112"/>
+      <c r="FS4" s="113"/>
+      <c r="FT4" s="111">
         <f t="shared" ref="FT4" si="10">FT5</f>
         <v>46069</v>
       </c>
-      <c r="FU4" s="109"/>
-      <c r="FV4" s="109"/>
-      <c r="FW4" s="109"/>
-      <c r="FX4" s="109"/>
-      <c r="FY4" s="109"/>
-      <c r="FZ4" s="110"/>
+      <c r="FU4" s="112"/>
+      <c r="FV4" s="112"/>
+      <c r="FW4" s="112"/>
+      <c r="FX4" s="112"/>
+      <c r="FY4" s="112"/>
+      <c r="FZ4" s="113"/>
       <c r="GC4" s="92">
         <v>1</v>
       </c>
@@ -15061,18 +15061,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -15089,6 +15077,18 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C59">
@@ -15263,8 +15263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
   <dimension ref="A5:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15273,13 +15273,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -15847,7 +15847,7 @@
         <v>997</v>
       </c>
       <c r="H43">
-        <f>C43/G43</f>
+        <f t="shared" ref="H43:H50" si="6">C43/G43</f>
         <v>2.0060180541624874E-2</v>
       </c>
       <c r="I43">
@@ -15856,309 +15856,309 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115">
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108">
         <v>165</v>
       </c>
-      <c r="D44" s="115">
+      <c r="D44" s="108">
         <v>2</v>
       </c>
-      <c r="E44" s="115">
+      <c r="E44" s="108">
         <v>9997</v>
       </c>
-      <c r="F44" s="115">
+      <c r="F44" s="108">
         <v>10000</v>
       </c>
-      <c r="G44" s="115">
+      <c r="G44" s="108">
         <f>E44-D44</f>
         <v>9995</v>
       </c>
-      <c r="H44" s="115">
-        <f>C44/G44</f>
+      <c r="H44" s="108">
+        <f t="shared" si="6"/>
         <v>1.6508254127063533E-2</v>
       </c>
-      <c r="I44" s="115">
-        <f t="shared" ref="I44:I55" si="6">G44/C44</f>
+      <c r="I44" s="108">
+        <f t="shared" ref="I44:I54" si="7">G44/C44</f>
         <v>60.575757575757578</v>
       </c>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117">
+      <c r="B45" s="110"/>
+      <c r="C45" s="110">
         <v>500</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="110">
         <v>2</v>
       </c>
-      <c r="E45" s="117">
+      <c r="E45" s="110">
         <v>-30002</v>
       </c>
-      <c r="F45" s="117">
+      <c r="F45" s="110">
         <v>-30000</v>
       </c>
-      <c r="G45" s="117">
+      <c r="G45" s="110">
         <f>D45-E45</f>
         <v>30004</v>
       </c>
-      <c r="H45" s="117">
-        <f>C45/G45</f>
+      <c r="H45" s="110">
+        <f t="shared" si="6"/>
         <v>1.666444474070124E-2</v>
       </c>
-      <c r="I45" s="117">
-        <f t="shared" si="6"/>
+      <c r="I45" s="110">
+        <f t="shared" si="7"/>
         <v>60.008000000000003</v>
       </c>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C46" s="115">
+      <c r="C46" s="108">
         <v>165</v>
       </c>
-      <c r="D46" s="115">
+      <c r="D46" s="108">
         <v>0</v>
       </c>
-      <c r="E46" s="115">
+      <c r="E46" s="108">
         <v>9996</v>
       </c>
-      <c r="F46" s="115">
+      <c r="F46" s="108">
         <v>10000</v>
       </c>
-      <c r="G46" s="115">
+      <c r="G46" s="108">
         <f>E46</f>
         <v>9996</v>
       </c>
-      <c r="H46" s="115">
-        <f>C46/G46</f>
+      <c r="H46" s="108">
+        <f t="shared" si="6"/>
         <v>1.6506602641056422E-2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.581818181818178</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C47" s="115">
+      <c r="C47" s="108">
         <v>498</v>
       </c>
-      <c r="D47" s="115">
+      <c r="D47" s="108">
         <v>0</v>
       </c>
-      <c r="E47" s="115">
+      <c r="E47" s="108">
         <v>30001</v>
       </c>
-      <c r="F47" s="115">
+      <c r="F47" s="108">
         <v>30000</v>
       </c>
-      <c r="G47" s="115">
+      <c r="G47" s="108">
         <f>E47</f>
         <v>30001</v>
       </c>
-      <c r="H47" s="115">
-        <f>C47/G47</f>
+      <c r="H47" s="108">
+        <f t="shared" si="6"/>
         <v>1.6599446685110496E-2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.242971887550198</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C48" s="115">
+      <c r="C48" s="108">
         <v>997</v>
       </c>
-      <c r="D48" s="116">
+      <c r="D48" s="109">
         <v>0</v>
       </c>
-      <c r="E48" s="116">
+      <c r="E48" s="109">
         <v>60000</v>
       </c>
-      <c r="F48" s="116">
+      <c r="F48" s="109">
         <v>60000</v>
       </c>
-      <c r="G48" s="115">
+      <c r="G48" s="108">
         <v>60000</v>
       </c>
-      <c r="H48" s="115">
-        <f>C48/G48</f>
+      <c r="H48" s="108">
+        <f t="shared" si="6"/>
         <v>1.6616666666666665E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.180541624874621</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="116">
+      <c r="C49" s="109">
         <v>167</v>
       </c>
-      <c r="D49" s="116">
+      <c r="D49" s="109">
         <v>0</v>
       </c>
-      <c r="E49" s="116">
+      <c r="E49" s="109">
         <v>9998</v>
       </c>
-      <c r="F49" s="116">
+      <c r="F49" s="109">
         <v>10000</v>
       </c>
-      <c r="G49" s="115">
-        <f>E49</f>
+      <c r="G49" s="108">
+        <f t="shared" ref="G49:G54" si="8">E49</f>
         <v>9998</v>
       </c>
-      <c r="H49" s="115">
-        <f>C49/G49</f>
+      <c r="H49" s="108">
+        <f t="shared" si="6"/>
         <v>1.6703340668133625E-2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.868263473053894</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="116">
+      <c r="C50" s="109">
         <v>167</v>
       </c>
-      <c r="D50" s="116">
+      <c r="D50" s="109">
         <v>0</v>
       </c>
-      <c r="E50" s="116">
+      <c r="E50" s="109">
         <v>9998</v>
       </c>
-      <c r="F50" s="116">
+      <c r="F50" s="109">
         <v>10000</v>
       </c>
-      <c r="G50" s="115">
-        <f>E50</f>
+      <c r="G50" s="108">
+        <f t="shared" si="8"/>
         <v>9998</v>
       </c>
-      <c r="H50" s="115">
-        <f>C50/G50</f>
+      <c r="H50" s="108">
+        <f t="shared" si="6"/>
         <v>1.6703340668133625E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.868263473053894</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="116">
+      <c r="C51" s="109">
         <v>499</v>
       </c>
-      <c r="D51" s="116">
+      <c r="D51" s="109">
         <v>0</v>
       </c>
-      <c r="E51" s="116">
+      <c r="E51" s="109">
         <v>30000</v>
       </c>
-      <c r="F51" s="116">
+      <c r="F51" s="109">
         <v>30000</v>
       </c>
-      <c r="G51" s="116">
-        <f>E51</f>
+      <c r="G51" s="109">
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
-      <c r="H51" s="115">
-        <f t="shared" ref="H51:H54" si="7">C51/G51</f>
+      <c r="H51" s="108">
+        <f t="shared" ref="H51:H54" si="9">C51/G51</f>
         <v>1.6633333333333333E-2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.120240480961925</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="116">
+      <c r="C52" s="109">
         <v>499</v>
       </c>
-      <c r="D52" s="116">
+      <c r="D52" s="109">
         <v>0</v>
       </c>
-      <c r="E52" s="116">
+      <c r="E52" s="109">
         <v>29999</v>
       </c>
-      <c r="F52" s="116">
+      <c r="F52" s="109">
         <v>30000</v>
       </c>
-      <c r="G52" s="116">
-        <f>E52</f>
+      <c r="G52" s="109">
+        <f t="shared" si="8"/>
         <v>29999</v>
       </c>
-      <c r="H52" s="115">
+      <c r="H52" s="108">
+        <f t="shared" si="9"/>
+        <v>1.6633887796259874E-2</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="7"/>
-        <v>1.6633887796259874E-2</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="6"/>
         <v>60.118236472945888</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="116">
+      <c r="C53" s="109">
         <v>997</v>
       </c>
-      <c r="D53" s="116">
+      <c r="D53" s="109">
         <v>0</v>
       </c>
-      <c r="E53" s="116">
+      <c r="E53" s="109">
         <v>60002</v>
       </c>
-      <c r="F53" s="116">
+      <c r="F53" s="109">
         <v>60000</v>
       </c>
-      <c r="G53" s="116">
-        <f>E53</f>
+      <c r="G53" s="109">
+        <f t="shared" si="8"/>
         <v>60002</v>
       </c>
-      <c r="H53" s="115">
+      <c r="H53" s="108">
+        <f t="shared" si="9"/>
+        <v>1.6616112796240125E-2</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="7"/>
-        <v>1.6616112796240125E-2</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="6"/>
         <v>60.182547642928789</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="116">
+      <c r="C54" s="109">
         <v>996</v>
       </c>
-      <c r="D54" s="116">
+      <c r="D54" s="109">
         <v>0</v>
       </c>
-      <c r="E54" s="116">
+      <c r="E54" s="109">
         <v>59999</v>
       </c>
-      <c r="F54" s="116">
+      <c r="F54" s="109">
         <v>60000</v>
       </c>
-      <c r="G54" s="116">
-        <f>E54</f>
+      <c r="G54" s="109">
+        <f t="shared" si="8"/>
         <v>59999</v>
       </c>
-      <c r="H54" s="115">
+      <c r="H54" s="108">
+        <f t="shared" si="9"/>
+        <v>1.6600276671277853E-2</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="7"/>
-        <v>1.6600276671277853E-2</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="6"/>
         <v>60.239959839357432</v>
       </c>
     </row>
@@ -16274,6 +16274,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16561,36 +16590,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16609,24 +16629,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F7BE9-BACA-44D6-8CAA-0A1142EA988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE045CA-8ED0-43F9-A2B9-C9917FB88268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlanning" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>TAAK</t>
   </si>
@@ -262,9 +262,6 @@
     <t>Testplannen schrijven</t>
   </si>
   <si>
-    <t>3D / CNC uitzoeken</t>
-  </si>
-  <si>
     <t>Advies rapporten schrijven</t>
   </si>
   <si>
@@ -356,6 +353,18 @@
   </si>
   <si>
     <t>meetlint vanaf links</t>
+  </si>
+  <si>
+    <t>CNC uitzoeken</t>
+  </si>
+  <si>
+    <t>bracket ontwerpen</t>
+  </si>
+  <si>
+    <t>Motor en sensor integreren</t>
+  </si>
+  <si>
+    <t>Meerdere actuatoren en sensoren integreren</t>
   </si>
 </sst>
 </file>
@@ -1557,14 +1566,14 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2452,11 +2461,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GC75"/>
+  <dimension ref="A1:GC78"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2548,50 +2557,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="114">
+      <c r="D3" s="116">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="114"/>
+      <c r="E3" s="116"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="115" t="s">
+      <c r="BO3" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="115"/>
-      <c r="BU3" s="115"/>
-      <c r="BV3" s="115"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
-      <c r="BY3" s="115"/>
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="114"/>
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="114"/>
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="114"/>
+      <c r="BV3" s="114"/>
+      <c r="BW3" s="114"/>
+      <c r="BX3" s="114"/>
+      <c r="BY3" s="114"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="116" t="s">
+      <c r="DP3" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="116"/>
-      <c r="DR3" s="116"/>
-      <c r="DS3" s="116"/>
-      <c r="DT3" s="116"/>
-      <c r="DU3" s="116"/>
-      <c r="DV3" s="116"/>
-      <c r="DW3" s="116"/>
-      <c r="DX3" s="116"/>
-      <c r="DY3" s="116"/>
-      <c r="DZ3" s="116"/>
-      <c r="EA3" s="116"/>
-      <c r="EB3" s="116"/>
-      <c r="EC3" s="116"/>
+      <c r="DQ3" s="115"/>
+      <c r="DR3" s="115"/>
+      <c r="DS3" s="115"/>
+      <c r="DT3" s="115"/>
+      <c r="DU3" s="115"/>
+      <c r="DV3" s="115"/>
+      <c r="DW3" s="115"/>
+      <c r="DX3" s="115"/>
+      <c r="DY3" s="115"/>
+      <c r="DZ3" s="115"/>
+      <c r="EA3" s="115"/>
+      <c r="EB3" s="115"/>
+      <c r="EC3" s="115"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -3587,703 +3596,703 @@
       </c>
       <c r="H6" s="9" t="str">
         <f t="shared" ref="H6" si="115">LEFT(TEXT(H5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="shared" ref="I6:AQ6" si="116">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="O6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="P6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="R6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="S6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="T6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="U6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="V6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="W6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="X6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="Y6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="Z6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AA6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AB6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AC6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="AD6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AE6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="AF6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AG6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AH6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AI6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AJ6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="AK6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AL6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="AM6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AN6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AO6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AP6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AQ6" s="9" t="str">
         <f t="shared" si="116"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="AR6" s="9" t="str">
         <f t="shared" ref="AR6:BD6" si="117">LEFT(TEXT(AR5,"ddd"),1)</f>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AS6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="AT6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AU6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AV6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AW6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="AX6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="AY6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="AZ6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="BA6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BB6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BC6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BD6" s="9" t="str">
         <f t="shared" si="117"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BE6" s="9" t="str">
         <f t="shared" ref="BE6:BR6" si="118">LEFT(TEXT(BE5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="BF6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BG6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="BH6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BI6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BJ6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BK6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BL6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="BM6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BN6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="BO6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BP6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BQ6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BR6" s="9" t="str">
         <f t="shared" si="118"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BS6" s="9" t="str">
         <f t="shared" ref="BS6:CT6" si="119">LEFT(TEXT(BS5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="BT6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BU6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="BV6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="BW6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BX6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BY6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="BZ6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="CA6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CB6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="CC6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CD6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CE6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="CF6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="CG6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="CH6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CI6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="CJ6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CK6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CL6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="CM6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="CN6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="CO6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CP6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="CQ6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CR6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CS6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="CT6" s="9" t="str">
         <f t="shared" si="119"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="CU6" s="9" t="str">
         <f t="shared" ref="CU6:DA6" si="120">LEFT(TEXT(CU5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="CV6" s="9" t="str">
         <f t="shared" si="120"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CW6" s="9" t="str">
         <f t="shared" si="120"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="CX6" s="9" t="str">
         <f t="shared" si="120"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="CY6" s="9" t="str">
         <f t="shared" si="120"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CZ6" s="9" t="str">
         <f t="shared" si="120"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DA6" s="9" t="str">
         <f t="shared" si="120"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DB6" s="9" t="str">
         <f t="shared" ref="DB6:EJ6" si="121">LEFT(TEXT(DB5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="DC6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DD6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="DE6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DF6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DG6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DH6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DI6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="DJ6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DK6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="DL6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DM6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DN6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DO6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DP6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="DQ6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DR6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="DS6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DT6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DU6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DV6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="DW6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="DX6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="DY6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="DZ6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="EA6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EB6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="EC6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="ED6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="EE6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="EF6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="EG6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="EH6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EI6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="EJ6" s="9" t="str">
         <f t="shared" si="121"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="EK6" s="9" t="str">
         <f t="shared" ref="EK6:FL6" si="122">LEFT(TEXT(EK5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="EL6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="EM6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="EN6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="EO6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EP6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="EQ6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="ER6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="ES6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="ET6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="EU6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="EV6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EW6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="EX6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="EY6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="EZ6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FA6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="FB6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FC6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FD6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FE6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FF6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="FG6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FH6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="FI6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FJ6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FK6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FL6" s="9" t="str">
         <f t="shared" si="122"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FM6" s="9" t="str">
         <f t="shared" ref="FM6:FZ6" si="123">LEFT(TEXT(FM5,"ddd"),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="FN6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FO6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="FP6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FQ6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FR6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FS6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FT6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="FU6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FV6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>w</v>
+        <v>W</v>
       </c>
       <c r="FW6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>d</v>
+        <v>T</v>
       </c>
       <c r="FX6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FY6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="FZ6" s="9" t="str">
         <f t="shared" si="123"/>
-        <v>z</v>
+        <v>S</v>
       </c>
       <c r="GC6" s="92">
         <v>1</v>
@@ -6031,7 +6040,7 @@
     <row r="16" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="14">
         <v>0.9</v>
@@ -6618,7 +6627,7 @@
     <row r="19" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="B19" s="46" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C19" s="14">
         <v>0</v>
@@ -6809,7 +6818,7 @@
     <row r="20" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
       <c r="B20" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14">
         <v>0.9</v>
@@ -7587,7 +7596,7 @@
     <row r="24" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="17">
         <v>1</v>
@@ -7782,7 +7791,7 @@
     <row r="25" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="B25" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -7977,7 +7986,7 @@
     <row r="26" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
       <c r="B26" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -8555,7 +8564,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D29" s="63">
         <v>45914</v>
@@ -8750,7 +8759,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="63">
         <v>45922</v>
@@ -9140,10 +9149,14 @@
         <v>66</v>
       </c>
       <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="63">
+        <v>45995</v>
+      </c>
+      <c r="E32" s="63">
+        <v>46006</v>
+      </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -9331,10 +9344,14 @@
         <v>67</v>
       </c>
       <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="63">
+        <v>45971</v>
+      </c>
+      <c r="E33" s="63">
+        <v>45998</v>
+      </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -9522,7 +9539,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D34" s="63">
         <v>45971</v>
@@ -9717,7 +9734,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="63">
         <v>45986</v>
@@ -9908,10 +9925,18 @@
     </row>
     <row r="36" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="B36" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="D36" s="63">
+        <v>46010</v>
+      </c>
+      <c r="E36" s="63">
+        <v>46027</v>
+      </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -10089,18 +10114,22 @@
       <c r="FX36" s="27"/>
       <c r="FY36" s="27"/>
       <c r="FZ36" s="27"/>
-      <c r="GC36" s="92">
-        <v>1</v>
-      </c>
+      <c r="GC36" s="92"/>
     </row>
     <row r="37" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
-      <c r="B37" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="65"/>
+      <c r="B37" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" s="63">
+        <v>45992</v>
+      </c>
+      <c r="E37" s="63">
+        <v>46007</v>
+      </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -10278,24 +10307,21 @@
       <c r="FX37" s="27"/>
       <c r="FY37" s="27"/>
       <c r="FZ37" s="27"/>
-      <c r="GC37" s="92">
-        <v>1</v>
-      </c>
+      <c r="GC37" s="92"/>
     </row>
     <row r="38" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
-      <c r="B38" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="B38" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="20">
         <v>0</v>
       </c>
-      <c r="D38" s="66">
-        <v>45978</v>
-      </c>
-      <c r="E38" s="66">
-        <f>D38+4</f>
-        <v>45982</v>
+      <c r="D38" s="63">
+        <v>46027</v>
+      </c>
+      <c r="E38" s="63">
+        <v>46036</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -10474,20 +10500,14 @@
       <c r="FX38" s="27"/>
       <c r="FY38" s="27"/>
       <c r="FZ38" s="27"/>
-      <c r="GC38" s="92">
-        <v>1</v>
-      </c>
+      <c r="GC38" s="92"/>
     </row>
     <row r="39" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
-      <c r="B39" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -10671,18 +10691,12 @@
     </row>
     <row r="40" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
-      <c r="B40" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="D40" s="66">
-        <v>45901</v>
-      </c>
-      <c r="E40" s="66">
-        <v>46055</v>
-      </c>
+      <c r="B40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -10866,12 +10880,19 @@
     </row>
     <row r="41" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0</v>
+      </c>
       <c r="D41" s="66">
-        <v>45901</v>
-      </c>
-      <c r="E41" s="66"/>
+        <v>45978</v>
+      </c>
+      <c r="E41" s="66">
+        <f>D41+4</f>
+        <v>45982</v>
+      </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -11055,10 +11076,18 @@
     </row>
     <row r="42" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
+      <c r="B42" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="23">
+        <v>0</v>
+      </c>
+      <c r="D42" s="66">
+        <v>46034</v>
+      </c>
+      <c r="E42" s="66">
+        <v>46037</v>
+      </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -11242,10 +11271,18 @@
     </row>
     <row r="43" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="40"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
+      <c r="B43" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="66">
+        <v>45901</v>
+      </c>
+      <c r="E43" s="66">
+        <v>46055</v>
+      </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -11431,7 +11468,9 @@
       <c r="A44" s="40"/>
       <c r="B44" s="49"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="66"/>
+      <c r="D44" s="66">
+        <v>45901</v>
+      </c>
       <c r="E44" s="66"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
@@ -11990,12 +12029,10 @@
     </row>
     <row r="47" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
-      <c r="B47" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -12179,18 +12216,10 @@
     </row>
     <row r="48" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="40"/>
-      <c r="B48" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="17">
-        <v>1</v>
-      </c>
-      <c r="D48" s="60">
-        <v>45901</v>
-      </c>
-      <c r="E48" s="60">
-        <v>45901</v>
-      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -12374,10 +12403,10 @@
     </row>
     <row r="49" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="40"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -12561,10 +12590,12 @@
     </row>
     <row r="50" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="40"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
+      <c r="B50" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="85"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -12748,10 +12779,18 @@
     </row>
     <row r="51" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="40"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
+      <c r="B51" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1</v>
+      </c>
+      <c r="D51" s="60">
+        <v>45901</v>
+      </c>
+      <c r="E51" s="60">
+        <v>45901</v>
+      </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -14055,17 +14094,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:185" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="40"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="str">
-        <f t="shared" ref="G58:G59" si="124">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
@@ -14245,822 +14281,1398 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:185" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="41"/>
-      <c r="B59" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26" t="str">
+    <row r="59" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="40"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="27"/>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="27"/>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="27"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="27"/>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="27"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="27"/>
+      <c r="BC59" s="27"/>
+      <c r="BD59" s="27"/>
+      <c r="BE59" s="27"/>
+      <c r="BF59" s="27"/>
+      <c r="BG59" s="27"/>
+      <c r="BH59" s="27"/>
+      <c r="BI59" s="27"/>
+      <c r="BJ59" s="27"/>
+      <c r="BK59" s="27"/>
+      <c r="BL59" s="27"/>
+      <c r="BM59" s="27"/>
+      <c r="BN59" s="27"/>
+      <c r="BO59" s="27"/>
+      <c r="BP59" s="27"/>
+      <c r="BQ59" s="27"/>
+      <c r="BR59" s="27"/>
+      <c r="BS59" s="27"/>
+      <c r="BT59" s="27"/>
+      <c r="BU59" s="27"/>
+      <c r="BV59" s="27"/>
+      <c r="BW59" s="27"/>
+      <c r="BX59" s="27"/>
+      <c r="BY59" s="27"/>
+      <c r="BZ59" s="27"/>
+      <c r="CA59" s="27"/>
+      <c r="CB59" s="27"/>
+      <c r="CC59" s="27"/>
+      <c r="CD59" s="27"/>
+      <c r="CE59" s="27"/>
+      <c r="CF59" s="27"/>
+      <c r="CG59" s="27"/>
+      <c r="CH59" s="27"/>
+      <c r="CI59" s="27"/>
+      <c r="CJ59" s="27"/>
+      <c r="CK59" s="27"/>
+      <c r="CL59" s="27"/>
+      <c r="CM59" s="27"/>
+      <c r="CN59" s="27"/>
+      <c r="CO59" s="27"/>
+      <c r="CP59" s="27"/>
+      <c r="CQ59" s="27"/>
+      <c r="CR59" s="27"/>
+      <c r="CS59" s="27"/>
+      <c r="CT59" s="27"/>
+      <c r="CU59" s="27"/>
+      <c r="CV59" s="27"/>
+      <c r="CW59" s="27"/>
+      <c r="CX59" s="27"/>
+      <c r="CY59" s="27"/>
+      <c r="CZ59" s="27"/>
+      <c r="DA59" s="27"/>
+      <c r="DB59" s="27"/>
+      <c r="DC59" s="27"/>
+      <c r="DD59" s="27"/>
+      <c r="DE59" s="27"/>
+      <c r="DF59" s="27"/>
+      <c r="DG59" s="27"/>
+      <c r="DH59" s="27"/>
+      <c r="DI59" s="27"/>
+      <c r="DJ59" s="27"/>
+      <c r="DK59" s="27"/>
+      <c r="DL59" s="27"/>
+      <c r="DM59" s="27"/>
+      <c r="DN59" s="27"/>
+      <c r="DO59" s="27"/>
+      <c r="DP59" s="27"/>
+      <c r="DQ59" s="27"/>
+      <c r="DR59" s="27"/>
+      <c r="DS59" s="27"/>
+      <c r="DT59" s="27"/>
+      <c r="DU59" s="27"/>
+      <c r="DV59" s="27"/>
+      <c r="DW59" s="27"/>
+      <c r="DX59" s="27"/>
+      <c r="DY59" s="27"/>
+      <c r="DZ59" s="27"/>
+      <c r="EA59" s="27"/>
+      <c r="EB59" s="27"/>
+      <c r="EC59" s="27"/>
+      <c r="ED59" s="27"/>
+      <c r="EE59" s="27"/>
+      <c r="EF59" s="27"/>
+      <c r="EG59" s="27"/>
+      <c r="EH59" s="27"/>
+      <c r="EI59" s="27"/>
+      <c r="EJ59" s="27"/>
+      <c r="EK59" s="27"/>
+      <c r="EL59" s="27"/>
+      <c r="EM59" s="27"/>
+      <c r="EN59" s="27"/>
+      <c r="EO59" s="27"/>
+      <c r="EP59" s="27"/>
+      <c r="EQ59" s="27"/>
+      <c r="ER59" s="27"/>
+      <c r="ES59" s="27"/>
+      <c r="ET59" s="27"/>
+      <c r="EU59" s="27"/>
+      <c r="EV59" s="27"/>
+      <c r="EW59" s="27"/>
+      <c r="EX59" s="27"/>
+      <c r="EY59" s="27"/>
+      <c r="EZ59" s="27"/>
+      <c r="FA59" s="27"/>
+      <c r="FB59" s="27"/>
+      <c r="FC59" s="27"/>
+      <c r="FD59" s="27"/>
+      <c r="FE59" s="93"/>
+      <c r="FF59" s="98"/>
+      <c r="FG59" s="95"/>
+      <c r="FH59" s="27"/>
+      <c r="FI59" s="27"/>
+      <c r="FJ59" s="27"/>
+      <c r="FK59" s="27"/>
+      <c r="FL59" s="27"/>
+      <c r="FM59" s="27"/>
+      <c r="FN59" s="27"/>
+      <c r="FO59" s="27"/>
+      <c r="FP59" s="27"/>
+      <c r="FQ59" s="27"/>
+      <c r="FR59" s="27"/>
+      <c r="FS59" s="27"/>
+      <c r="FT59" s="27"/>
+      <c r="FU59" s="27"/>
+      <c r="FV59" s="27"/>
+      <c r="FW59" s="27"/>
+      <c r="FX59" s="27"/>
+      <c r="FY59" s="27"/>
+      <c r="FZ59" s="27"/>
+      <c r="GC59" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="40"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="27"/>
+      <c r="AH60" s="27"/>
+      <c r="AI60" s="27"/>
+      <c r="AJ60" s="27"/>
+      <c r="AK60" s="27"/>
+      <c r="AL60" s="27"/>
+      <c r="AM60" s="27"/>
+      <c r="AN60" s="27"/>
+      <c r="AO60" s="27"/>
+      <c r="AP60" s="27"/>
+      <c r="AQ60" s="27"/>
+      <c r="AR60" s="27"/>
+      <c r="AS60" s="27"/>
+      <c r="AT60" s="27"/>
+      <c r="AU60" s="27"/>
+      <c r="AV60" s="27"/>
+      <c r="AW60" s="27"/>
+      <c r="AX60" s="27"/>
+      <c r="AY60" s="27"/>
+      <c r="AZ60" s="27"/>
+      <c r="BA60" s="27"/>
+      <c r="BB60" s="27"/>
+      <c r="BC60" s="27"/>
+      <c r="BD60" s="27"/>
+      <c r="BE60" s="27"/>
+      <c r="BF60" s="27"/>
+      <c r="BG60" s="27"/>
+      <c r="BH60" s="27"/>
+      <c r="BI60" s="27"/>
+      <c r="BJ60" s="27"/>
+      <c r="BK60" s="27"/>
+      <c r="BL60" s="27"/>
+      <c r="BM60" s="27"/>
+      <c r="BN60" s="27"/>
+      <c r="BO60" s="27"/>
+      <c r="BP60" s="27"/>
+      <c r="BQ60" s="27"/>
+      <c r="BR60" s="27"/>
+      <c r="BS60" s="27"/>
+      <c r="BT60" s="27"/>
+      <c r="BU60" s="27"/>
+      <c r="BV60" s="27"/>
+      <c r="BW60" s="27"/>
+      <c r="BX60" s="27"/>
+      <c r="BY60" s="27"/>
+      <c r="BZ60" s="27"/>
+      <c r="CA60" s="27"/>
+      <c r="CB60" s="27"/>
+      <c r="CC60" s="27"/>
+      <c r="CD60" s="27"/>
+      <c r="CE60" s="27"/>
+      <c r="CF60" s="27"/>
+      <c r="CG60" s="27"/>
+      <c r="CH60" s="27"/>
+      <c r="CI60" s="27"/>
+      <c r="CJ60" s="27"/>
+      <c r="CK60" s="27"/>
+      <c r="CL60" s="27"/>
+      <c r="CM60" s="27"/>
+      <c r="CN60" s="27"/>
+      <c r="CO60" s="27"/>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
+      <c r="CR60" s="27"/>
+      <c r="CS60" s="27"/>
+      <c r="CT60" s="27"/>
+      <c r="CU60" s="27"/>
+      <c r="CV60" s="27"/>
+      <c r="CW60" s="27"/>
+      <c r="CX60" s="27"/>
+      <c r="CY60" s="27"/>
+      <c r="CZ60" s="27"/>
+      <c r="DA60" s="27"/>
+      <c r="DB60" s="27"/>
+      <c r="DC60" s="27"/>
+      <c r="DD60" s="27"/>
+      <c r="DE60" s="27"/>
+      <c r="DF60" s="27"/>
+      <c r="DG60" s="27"/>
+      <c r="DH60" s="27"/>
+      <c r="DI60" s="27"/>
+      <c r="DJ60" s="27"/>
+      <c r="DK60" s="27"/>
+      <c r="DL60" s="27"/>
+      <c r="DM60" s="27"/>
+      <c r="DN60" s="27"/>
+      <c r="DO60" s="27"/>
+      <c r="DP60" s="27"/>
+      <c r="DQ60" s="27"/>
+      <c r="DR60" s="27"/>
+      <c r="DS60" s="27"/>
+      <c r="DT60" s="27"/>
+      <c r="DU60" s="27"/>
+      <c r="DV60" s="27"/>
+      <c r="DW60" s="27"/>
+      <c r="DX60" s="27"/>
+      <c r="DY60" s="27"/>
+      <c r="DZ60" s="27"/>
+      <c r="EA60" s="27"/>
+      <c r="EB60" s="27"/>
+      <c r="EC60" s="27"/>
+      <c r="ED60" s="27"/>
+      <c r="EE60" s="27"/>
+      <c r="EF60" s="27"/>
+      <c r="EG60" s="27"/>
+      <c r="EH60" s="27"/>
+      <c r="EI60" s="27"/>
+      <c r="EJ60" s="27"/>
+      <c r="EK60" s="27"/>
+      <c r="EL60" s="27"/>
+      <c r="EM60" s="27"/>
+      <c r="EN60" s="27"/>
+      <c r="EO60" s="27"/>
+      <c r="EP60" s="27"/>
+      <c r="EQ60" s="27"/>
+      <c r="ER60" s="27"/>
+      <c r="ES60" s="27"/>
+      <c r="ET60" s="27"/>
+      <c r="EU60" s="27"/>
+      <c r="EV60" s="27"/>
+      <c r="EW60" s="27"/>
+      <c r="EX60" s="27"/>
+      <c r="EY60" s="27"/>
+      <c r="EZ60" s="27"/>
+      <c r="FA60" s="27"/>
+      <c r="FB60" s="27"/>
+      <c r="FC60" s="27"/>
+      <c r="FD60" s="27"/>
+      <c r="FE60" s="93"/>
+      <c r="FF60" s="98"/>
+      <c r="FG60" s="95"/>
+      <c r="FH60" s="27"/>
+      <c r="FI60" s="27"/>
+      <c r="FJ60" s="27"/>
+      <c r="FK60" s="27"/>
+      <c r="FL60" s="27"/>
+      <c r="FM60" s="27"/>
+      <c r="FN60" s="27"/>
+      <c r="FO60" s="27"/>
+      <c r="FP60" s="27"/>
+      <c r="FQ60" s="27"/>
+      <c r="FR60" s="27"/>
+      <c r="FS60" s="27"/>
+      <c r="FT60" s="27"/>
+      <c r="FU60" s="27"/>
+      <c r="FV60" s="27"/>
+      <c r="FW60" s="27"/>
+      <c r="FX60" s="27"/>
+      <c r="FY60" s="27"/>
+      <c r="FZ60" s="27"/>
+      <c r="GC60" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:185" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="40"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="str">
+        <f t="shared" ref="G61:G62" si="124">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="27"/>
+      <c r="AF61" s="27"/>
+      <c r="AG61" s="27"/>
+      <c r="AH61" s="27"/>
+      <c r="AI61" s="27"/>
+      <c r="AJ61" s="27"/>
+      <c r="AK61" s="27"/>
+      <c r="AL61" s="27"/>
+      <c r="AM61" s="27"/>
+      <c r="AN61" s="27"/>
+      <c r="AO61" s="27"/>
+      <c r="AP61" s="27"/>
+      <c r="AQ61" s="27"/>
+      <c r="AR61" s="27"/>
+      <c r="AS61" s="27"/>
+      <c r="AT61" s="27"/>
+      <c r="AU61" s="27"/>
+      <c r="AV61" s="27"/>
+      <c r="AW61" s="27"/>
+      <c r="AX61" s="27"/>
+      <c r="AY61" s="27"/>
+      <c r="AZ61" s="27"/>
+      <c r="BA61" s="27"/>
+      <c r="BB61" s="27"/>
+      <c r="BC61" s="27"/>
+      <c r="BD61" s="27"/>
+      <c r="BE61" s="27"/>
+      <c r="BF61" s="27"/>
+      <c r="BG61" s="27"/>
+      <c r="BH61" s="27"/>
+      <c r="BI61" s="27"/>
+      <c r="BJ61" s="27"/>
+      <c r="BK61" s="27"/>
+      <c r="BL61" s="27"/>
+      <c r="BM61" s="27"/>
+      <c r="BN61" s="27"/>
+      <c r="BO61" s="27"/>
+      <c r="BP61" s="27"/>
+      <c r="BQ61" s="27"/>
+      <c r="BR61" s="27"/>
+      <c r="BS61" s="27"/>
+      <c r="BT61" s="27"/>
+      <c r="BU61" s="27"/>
+      <c r="BV61" s="27"/>
+      <c r="BW61" s="27"/>
+      <c r="BX61" s="27"/>
+      <c r="BY61" s="27"/>
+      <c r="BZ61" s="27"/>
+      <c r="CA61" s="27"/>
+      <c r="CB61" s="27"/>
+      <c r="CC61" s="27"/>
+      <c r="CD61" s="27"/>
+      <c r="CE61" s="27"/>
+      <c r="CF61" s="27"/>
+      <c r="CG61" s="27"/>
+      <c r="CH61" s="27"/>
+      <c r="CI61" s="27"/>
+      <c r="CJ61" s="27"/>
+      <c r="CK61" s="27"/>
+      <c r="CL61" s="27"/>
+      <c r="CM61" s="27"/>
+      <c r="CN61" s="27"/>
+      <c r="CO61" s="27"/>
+      <c r="CP61" s="27"/>
+      <c r="CQ61" s="27"/>
+      <c r="CR61" s="27"/>
+      <c r="CS61" s="27"/>
+      <c r="CT61" s="27"/>
+      <c r="CU61" s="27"/>
+      <c r="CV61" s="27"/>
+      <c r="CW61" s="27"/>
+      <c r="CX61" s="27"/>
+      <c r="CY61" s="27"/>
+      <c r="CZ61" s="27"/>
+      <c r="DA61" s="27"/>
+      <c r="DB61" s="27"/>
+      <c r="DC61" s="27"/>
+      <c r="DD61" s="27"/>
+      <c r="DE61" s="27"/>
+      <c r="DF61" s="27"/>
+      <c r="DG61" s="27"/>
+      <c r="DH61" s="27"/>
+      <c r="DI61" s="27"/>
+      <c r="DJ61" s="27"/>
+      <c r="DK61" s="27"/>
+      <c r="DL61" s="27"/>
+      <c r="DM61" s="27"/>
+      <c r="DN61" s="27"/>
+      <c r="DO61" s="27"/>
+      <c r="DP61" s="27"/>
+      <c r="DQ61" s="27"/>
+      <c r="DR61" s="27"/>
+      <c r="DS61" s="27"/>
+      <c r="DT61" s="27"/>
+      <c r="DU61" s="27"/>
+      <c r="DV61" s="27"/>
+      <c r="DW61" s="27"/>
+      <c r="DX61" s="27"/>
+      <c r="DY61" s="27"/>
+      <c r="DZ61" s="27"/>
+      <c r="EA61" s="27"/>
+      <c r="EB61" s="27"/>
+      <c r="EC61" s="27"/>
+      <c r="ED61" s="27"/>
+      <c r="EE61" s="27"/>
+      <c r="EF61" s="27"/>
+      <c r="EG61" s="27"/>
+      <c r="EH61" s="27"/>
+      <c r="EI61" s="27"/>
+      <c r="EJ61" s="27"/>
+      <c r="EK61" s="27"/>
+      <c r="EL61" s="27"/>
+      <c r="EM61" s="27"/>
+      <c r="EN61" s="27"/>
+      <c r="EO61" s="27"/>
+      <c r="EP61" s="27"/>
+      <c r="EQ61" s="27"/>
+      <c r="ER61" s="27"/>
+      <c r="ES61" s="27"/>
+      <c r="ET61" s="27"/>
+      <c r="EU61" s="27"/>
+      <c r="EV61" s="27"/>
+      <c r="EW61" s="27"/>
+      <c r="EX61" s="27"/>
+      <c r="EY61" s="27"/>
+      <c r="EZ61" s="27"/>
+      <c r="FA61" s="27"/>
+      <c r="FB61" s="27"/>
+      <c r="FC61" s="27"/>
+      <c r="FD61" s="27"/>
+      <c r="FE61" s="93"/>
+      <c r="FF61" s="98"/>
+      <c r="FG61" s="95"/>
+      <c r="FH61" s="27"/>
+      <c r="FI61" s="27"/>
+      <c r="FJ61" s="27"/>
+      <c r="FK61" s="27"/>
+      <c r="FL61" s="27"/>
+      <c r="FM61" s="27"/>
+      <c r="FN61" s="27"/>
+      <c r="FO61" s="27"/>
+      <c r="FP61" s="27"/>
+      <c r="FQ61" s="27"/>
+      <c r="FR61" s="27"/>
+      <c r="FS61" s="27"/>
+      <c r="FT61" s="27"/>
+      <c r="FU61" s="27"/>
+      <c r="FV61" s="27"/>
+      <c r="FW61" s="27"/>
+      <c r="FX61" s="27"/>
+      <c r="FY61" s="27"/>
+      <c r="FZ61" s="27"/>
+      <c r="GC61" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:185" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="41"/>
+      <c r="B62" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26" t="str">
         <f t="shared" si="124"/>
         <v/>
       </c>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
-      <c r="AK59" s="28"/>
-      <c r="AL59" s="28"/>
-      <c r="AM59" s="28"/>
-      <c r="AN59" s="28"/>
-      <c r="AO59" s="28"/>
-      <c r="AP59" s="28"/>
-      <c r="AQ59" s="28"/>
-      <c r="AR59" s="28"/>
-      <c r="AS59" s="28"/>
-      <c r="AT59" s="28"/>
-      <c r="AU59" s="28"/>
-      <c r="AV59" s="28"/>
-      <c r="AW59" s="28"/>
-      <c r="AX59" s="28"/>
-      <c r="AY59" s="28"/>
-      <c r="AZ59" s="28"/>
-      <c r="BA59" s="28"/>
-      <c r="BB59" s="28"/>
-      <c r="BC59" s="28"/>
-      <c r="BD59" s="28"/>
-      <c r="BE59" s="28"/>
-      <c r="BF59" s="28"/>
-      <c r="BG59" s="28"/>
-      <c r="BH59" s="28"/>
-      <c r="BI59" s="28"/>
-      <c r="BJ59" s="28"/>
-      <c r="BK59" s="28"/>
-      <c r="BL59" s="28"/>
-      <c r="BM59" s="28"/>
-      <c r="BN59" s="28"/>
-      <c r="BO59" s="28"/>
-      <c r="BP59" s="28"/>
-      <c r="BQ59" s="28"/>
-      <c r="BR59" s="28"/>
-      <c r="BS59" s="28"/>
-      <c r="BT59" s="28"/>
-      <c r="BU59" s="28"/>
-      <c r="BV59" s="28"/>
-      <c r="BW59" s="28"/>
-      <c r="BX59" s="28"/>
-      <c r="BY59" s="28"/>
-      <c r="BZ59" s="28"/>
-      <c r="CA59" s="28"/>
-      <c r="CB59" s="28"/>
-      <c r="CC59" s="28"/>
-      <c r="CD59" s="28"/>
-      <c r="CE59" s="28"/>
-      <c r="CF59" s="28"/>
-      <c r="CG59" s="28"/>
-      <c r="CH59" s="28"/>
-      <c r="CI59" s="28"/>
-      <c r="CJ59" s="28"/>
-      <c r="CK59" s="28"/>
-      <c r="CL59" s="28"/>
-      <c r="CM59" s="28"/>
-      <c r="CN59" s="28"/>
-      <c r="CO59" s="28"/>
-      <c r="CP59" s="28"/>
-      <c r="CQ59" s="28"/>
-      <c r="CR59" s="28"/>
-      <c r="CS59" s="28"/>
-      <c r="CT59" s="28"/>
-      <c r="CU59" s="28"/>
-      <c r="CV59" s="28"/>
-      <c r="CW59" s="28"/>
-      <c r="CX59" s="28"/>
-      <c r="CY59" s="28"/>
-      <c r="CZ59" s="28"/>
-      <c r="DA59" s="28"/>
-      <c r="DB59" s="28"/>
-      <c r="DC59" s="28"/>
-      <c r="DD59" s="28"/>
-      <c r="DE59" s="28"/>
-      <c r="DF59" s="28"/>
-      <c r="DG59" s="28"/>
-      <c r="DH59" s="28"/>
-      <c r="DI59" s="28"/>
-      <c r="DJ59" s="28"/>
-      <c r="DK59" s="28"/>
-      <c r="DL59" s="28"/>
-      <c r="DM59" s="28"/>
-      <c r="DN59" s="28"/>
-      <c r="DO59" s="28"/>
-      <c r="DP59" s="28"/>
-      <c r="DQ59" s="28"/>
-      <c r="DR59" s="28"/>
-      <c r="DS59" s="28"/>
-      <c r="DT59" s="28"/>
-      <c r="DU59" s="28"/>
-      <c r="DV59" s="28"/>
-      <c r="DW59" s="28"/>
-      <c r="DX59" s="28"/>
-      <c r="DY59" s="28"/>
-      <c r="DZ59" s="28"/>
-      <c r="EA59" s="28"/>
-      <c r="EB59" s="28"/>
-      <c r="EC59" s="28"/>
-      <c r="ED59" s="28"/>
-      <c r="EE59" s="28"/>
-      <c r="EF59" s="28"/>
-      <c r="EG59" s="28"/>
-      <c r="EH59" s="28"/>
-      <c r="EI59" s="28"/>
-      <c r="EJ59" s="28"/>
-      <c r="EK59" s="28"/>
-      <c r="EL59" s="28"/>
-      <c r="EM59" s="28"/>
-      <c r="EN59" s="28"/>
-      <c r="EO59" s="28"/>
-      <c r="EP59" s="28"/>
-      <c r="EQ59" s="28"/>
-      <c r="ER59" s="28"/>
-      <c r="ES59" s="28"/>
-      <c r="ET59" s="28"/>
-      <c r="EU59" s="28"/>
-      <c r="EV59" s="28"/>
-      <c r="EW59" s="28"/>
-      <c r="EX59" s="28"/>
-      <c r="EY59" s="28"/>
-      <c r="EZ59" s="28"/>
-      <c r="FA59" s="28"/>
-      <c r="FB59" s="28"/>
-      <c r="FC59" s="28"/>
-      <c r="FD59" s="28"/>
-      <c r="FE59" s="94"/>
-      <c r="FF59" s="98"/>
-      <c r="FG59" s="96"/>
-      <c r="FH59" s="28"/>
-      <c r="FI59" s="28"/>
-      <c r="FJ59" s="28"/>
-      <c r="FK59" s="28"/>
-      <c r="FL59" s="28"/>
-      <c r="FM59" s="28"/>
-      <c r="FN59" s="28"/>
-      <c r="FO59" s="28"/>
-      <c r="FP59" s="28"/>
-      <c r="FQ59" s="28"/>
-      <c r="FR59" s="28"/>
-      <c r="FS59" s="28"/>
-      <c r="FT59" s="28"/>
-      <c r="FU59" s="28"/>
-      <c r="FV59" s="28"/>
-      <c r="FW59" s="28"/>
-      <c r="FX59" s="28"/>
-      <c r="FY59" s="28"/>
-      <c r="FZ59" s="28"/>
-      <c r="GC59" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="5"/>
-      <c r="FG60" s="99"/>
-      <c r="GC60" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="42"/>
-      <c r="FG61" s="99"/>
-      <c r="GC61" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="28"/>
+      <c r="AE62" s="28"/>
+      <c r="AF62" s="28"/>
+      <c r="AG62" s="28"/>
+      <c r="AH62" s="28"/>
+      <c r="AI62" s="28"/>
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="28"/>
+      <c r="AL62" s="28"/>
+      <c r="AM62" s="28"/>
+      <c r="AN62" s="28"/>
+      <c r="AO62" s="28"/>
+      <c r="AP62" s="28"/>
+      <c r="AQ62" s="28"/>
+      <c r="AR62" s="28"/>
+      <c r="AS62" s="28"/>
+      <c r="AT62" s="28"/>
+      <c r="AU62" s="28"/>
+      <c r="AV62" s="28"/>
+      <c r="AW62" s="28"/>
+      <c r="AX62" s="28"/>
+      <c r="AY62" s="28"/>
+      <c r="AZ62" s="28"/>
+      <c r="BA62" s="28"/>
+      <c r="BB62" s="28"/>
+      <c r="BC62" s="28"/>
+      <c r="BD62" s="28"/>
+      <c r="BE62" s="28"/>
+      <c r="BF62" s="28"/>
+      <c r="BG62" s="28"/>
+      <c r="BH62" s="28"/>
+      <c r="BI62" s="28"/>
+      <c r="BJ62" s="28"/>
+      <c r="BK62" s="28"/>
+      <c r="BL62" s="28"/>
+      <c r="BM62" s="28"/>
+      <c r="BN62" s="28"/>
+      <c r="BO62" s="28"/>
+      <c r="BP62" s="28"/>
+      <c r="BQ62" s="28"/>
+      <c r="BR62" s="28"/>
+      <c r="BS62" s="28"/>
+      <c r="BT62" s="28"/>
+      <c r="BU62" s="28"/>
+      <c r="BV62" s="28"/>
+      <c r="BW62" s="28"/>
+      <c r="BX62" s="28"/>
+      <c r="BY62" s="28"/>
+      <c r="BZ62" s="28"/>
+      <c r="CA62" s="28"/>
+      <c r="CB62" s="28"/>
+      <c r="CC62" s="28"/>
+      <c r="CD62" s="28"/>
+      <c r="CE62" s="28"/>
+      <c r="CF62" s="28"/>
+      <c r="CG62" s="28"/>
+      <c r="CH62" s="28"/>
+      <c r="CI62" s="28"/>
+      <c r="CJ62" s="28"/>
+      <c r="CK62" s="28"/>
+      <c r="CL62" s="28"/>
+      <c r="CM62" s="28"/>
+      <c r="CN62" s="28"/>
+      <c r="CO62" s="28"/>
+      <c r="CP62" s="28"/>
+      <c r="CQ62" s="28"/>
+      <c r="CR62" s="28"/>
+      <c r="CS62" s="28"/>
+      <c r="CT62" s="28"/>
+      <c r="CU62" s="28"/>
+      <c r="CV62" s="28"/>
+      <c r="CW62" s="28"/>
+      <c r="CX62" s="28"/>
+      <c r="CY62" s="28"/>
+      <c r="CZ62" s="28"/>
+      <c r="DA62" s="28"/>
+      <c r="DB62" s="28"/>
+      <c r="DC62" s="28"/>
+      <c r="DD62" s="28"/>
+      <c r="DE62" s="28"/>
+      <c r="DF62" s="28"/>
+      <c r="DG62" s="28"/>
+      <c r="DH62" s="28"/>
+      <c r="DI62" s="28"/>
+      <c r="DJ62" s="28"/>
+      <c r="DK62" s="28"/>
+      <c r="DL62" s="28"/>
+      <c r="DM62" s="28"/>
+      <c r="DN62" s="28"/>
+      <c r="DO62" s="28"/>
+      <c r="DP62" s="28"/>
+      <c r="DQ62" s="28"/>
+      <c r="DR62" s="28"/>
+      <c r="DS62" s="28"/>
+      <c r="DT62" s="28"/>
+      <c r="DU62" s="28"/>
+      <c r="DV62" s="28"/>
+      <c r="DW62" s="28"/>
+      <c r="DX62" s="28"/>
+      <c r="DY62" s="28"/>
+      <c r="DZ62" s="28"/>
+      <c r="EA62" s="28"/>
+      <c r="EB62" s="28"/>
+      <c r="EC62" s="28"/>
+      <c r="ED62" s="28"/>
+      <c r="EE62" s="28"/>
+      <c r="EF62" s="28"/>
+      <c r="EG62" s="28"/>
+      <c r="EH62" s="28"/>
+      <c r="EI62" s="28"/>
+      <c r="EJ62" s="28"/>
+      <c r="EK62" s="28"/>
+      <c r="EL62" s="28"/>
+      <c r="EM62" s="28"/>
+      <c r="EN62" s="28"/>
+      <c r="EO62" s="28"/>
+      <c r="EP62" s="28"/>
+      <c r="EQ62" s="28"/>
+      <c r="ER62" s="28"/>
+      <c r="ES62" s="28"/>
+      <c r="ET62" s="28"/>
+      <c r="EU62" s="28"/>
+      <c r="EV62" s="28"/>
+      <c r="EW62" s="28"/>
+      <c r="EX62" s="28"/>
+      <c r="EY62" s="28"/>
+      <c r="EZ62" s="28"/>
+      <c r="FA62" s="28"/>
+      <c r="FB62" s="28"/>
+      <c r="FC62" s="28"/>
+      <c r="FD62" s="28"/>
+      <c r="FE62" s="94"/>
+      <c r="FF62" s="98"/>
+      <c r="FG62" s="96"/>
+      <c r="FH62" s="28"/>
+      <c r="FI62" s="28"/>
+      <c r="FJ62" s="28"/>
+      <c r="FK62" s="28"/>
+      <c r="FL62" s="28"/>
+      <c r="FM62" s="28"/>
+      <c r="FN62" s="28"/>
+      <c r="FO62" s="28"/>
+      <c r="FP62" s="28"/>
+      <c r="FQ62" s="28"/>
+      <c r="FR62" s="28"/>
+      <c r="FS62" s="28"/>
+      <c r="FT62" s="28"/>
+      <c r="FU62" s="28"/>
+      <c r="FV62" s="28"/>
+      <c r="FW62" s="28"/>
+      <c r="FX62" s="28"/>
+      <c r="FY62" s="28"/>
+      <c r="FZ62" s="28"/>
       <c r="GC62" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="92">
-        <v>1</v>
-      </c>
-      <c r="B63" s="92">
-        <v>1</v>
-      </c>
-      <c r="C63" s="92">
-        <v>1</v>
-      </c>
-      <c r="D63" s="92">
-        <v>1</v>
-      </c>
-      <c r="E63" s="92">
-        <v>1</v>
-      </c>
-      <c r="F63" s="92">
-        <v>1</v>
-      </c>
-      <c r="G63" s="92">
-        <v>1</v>
-      </c>
-      <c r="H63" s="92">
-        <v>1</v>
-      </c>
-      <c r="I63" s="92">
-        <v>1</v>
-      </c>
-      <c r="J63" s="92">
-        <v>1</v>
-      </c>
-      <c r="K63" s="92">
-        <v>1</v>
-      </c>
-      <c r="L63" s="92">
-        <v>1</v>
-      </c>
-      <c r="M63" s="92">
-        <v>1</v>
-      </c>
-      <c r="N63" s="92">
-        <v>1</v>
-      </c>
-      <c r="O63" s="92">
-        <v>1</v>
-      </c>
-      <c r="P63" s="92">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="92">
-        <v>1</v>
-      </c>
-      <c r="R63" s="92">
-        <v>1</v>
-      </c>
-      <c r="S63" s="92">
-        <v>1</v>
-      </c>
-      <c r="T63" s="92">
-        <v>1</v>
-      </c>
-      <c r="U63" s="92">
-        <v>1</v>
-      </c>
-      <c r="V63" s="92">
-        <v>1</v>
-      </c>
-      <c r="W63" s="92">
-        <v>1</v>
-      </c>
-      <c r="X63" s="92">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="92">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AL63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AP63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AQ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AR63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AS63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AT63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AU63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AV63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AW63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AX63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AY63" s="92">
-        <v>1</v>
-      </c>
-      <c r="AZ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BB63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BC63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BD63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BE63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BF63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BG63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BH63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BI63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BJ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BK63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BL63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BM63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BN63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BO63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BP63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BQ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BR63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BS63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BT63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BU63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BV63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BW63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BX63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BY63" s="92">
-        <v>1</v>
-      </c>
-      <c r="BZ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CB63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CC63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CD63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CE63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CF63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CG63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CH63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CI63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CJ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CK63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CL63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CM63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CN63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CO63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CP63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CQ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CR63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CS63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CT63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CU63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CV63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CW63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CX63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CY63" s="92">
-        <v>1</v>
-      </c>
-      <c r="CZ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DB63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DC63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DD63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DE63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DF63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DG63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DH63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DI63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DJ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DK63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DL63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DM63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DN63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DO63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DP63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DQ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DR63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DS63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DT63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DU63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DV63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DW63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DX63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DY63" s="92">
-        <v>1</v>
-      </c>
-      <c r="DZ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EB63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EC63" s="92">
-        <v>1</v>
-      </c>
-      <c r="ED63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EE63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EF63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EG63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EH63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EI63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EJ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EK63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EL63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EM63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EN63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EO63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EP63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EQ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="ER63" s="92">
-        <v>1</v>
-      </c>
-      <c r="ES63" s="92">
-        <v>1</v>
-      </c>
-      <c r="ET63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EU63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EV63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EW63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EX63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EY63" s="92">
-        <v>1</v>
-      </c>
-      <c r="EZ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FB63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FC63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FD63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FE63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FF63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FG63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FH63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FI63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FJ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FK63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FL63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FM63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FN63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FO63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FP63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FQ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FR63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FS63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FT63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FU63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FV63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FW63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FX63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FY63" s="92">
-        <v>1</v>
-      </c>
-      <c r="FZ63" s="92">
-        <v>1</v>
-      </c>
-      <c r="GA63" s="92">
-        <v>1</v>
-      </c>
-      <c r="GB63" s="92">
-        <v>1</v>
-      </c>
+      <c r="F63" s="5"/>
+      <c r="FG63" s="99"/>
       <c r="GC63" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="101"/>
+    <row r="64" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="42"/>
+      <c r="FG64" s="99"/>
+      <c r="GC64" s="92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="65" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="GC65" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="92">
+        <v>1</v>
+      </c>
+      <c r="B66" s="92">
+        <v>1</v>
+      </c>
+      <c r="C66" s="92">
+        <v>1</v>
+      </c>
+      <c r="D66" s="92">
+        <v>1</v>
+      </c>
+      <c r="E66" s="92">
+        <v>1</v>
+      </c>
+      <c r="F66" s="92">
+        <v>1</v>
+      </c>
+      <c r="G66" s="92">
+        <v>1</v>
+      </c>
+      <c r="H66" s="92">
+        <v>1</v>
+      </c>
+      <c r="I66" s="92">
+        <v>1</v>
+      </c>
+      <c r="J66" s="92">
+        <v>1</v>
+      </c>
+      <c r="K66" s="92">
+        <v>1</v>
+      </c>
+      <c r="L66" s="92">
+        <v>1</v>
+      </c>
+      <c r="M66" s="92">
+        <v>1</v>
+      </c>
+      <c r="N66" s="92">
+        <v>1</v>
+      </c>
+      <c r="O66" s="92">
+        <v>1</v>
+      </c>
+      <c r="P66" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="92">
+        <v>1</v>
+      </c>
+      <c r="R66" s="92">
+        <v>1</v>
+      </c>
+      <c r="S66" s="92">
+        <v>1</v>
+      </c>
+      <c r="T66" s="92">
+        <v>1</v>
+      </c>
+      <c r="U66" s="92">
+        <v>1</v>
+      </c>
+      <c r="V66" s="92">
+        <v>1</v>
+      </c>
+      <c r="W66" s="92">
+        <v>1</v>
+      </c>
+      <c r="X66" s="92">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="92">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AR66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AS66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AV66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AW66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AX66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AY66" s="92">
+        <v>1</v>
+      </c>
+      <c r="AZ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BC66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BD66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BE66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BF66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BG66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BH66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BJ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BK66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BL66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BM66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BN66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BO66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BP66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BQ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BR66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BS66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BT66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BU66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BV66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BW66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BX66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BY66" s="92">
+        <v>1</v>
+      </c>
+      <c r="BZ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CC66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CD66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CE66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CF66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CG66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CH66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CI66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CJ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CK66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CL66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CM66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CN66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CO66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CP66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CQ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CR66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CS66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CT66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CU66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CV66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CW66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CX66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CY66" s="92">
+        <v>1</v>
+      </c>
+      <c r="CZ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DC66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DD66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DE66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DF66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DG66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DH66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DI66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DJ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DK66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DL66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DM66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DN66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DO66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DP66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DQ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DR66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DS66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DT66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DU66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DV66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DW66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DX66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DY66" s="92">
+        <v>1</v>
+      </c>
+      <c r="DZ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EC66" s="92">
+        <v>1</v>
+      </c>
+      <c r="ED66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EE66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EF66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EG66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EH66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EI66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EJ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EK66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EL66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EM66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EN66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EO66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EP66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EQ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="ER66" s="92">
+        <v>1</v>
+      </c>
+      <c r="ES66" s="92">
+        <v>1</v>
+      </c>
+      <c r="ET66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EU66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EV66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EW66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EX66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EY66" s="92">
+        <v>1</v>
+      </c>
+      <c r="EZ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FC66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FD66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FE66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FF66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FG66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FH66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FI66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FJ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FK66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FL66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FM66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FN66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FO66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FP66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FQ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FR66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FS66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FT66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FU66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FV66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FW66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FX66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FY66" s="92">
+        <v>1</v>
+      </c>
+      <c r="FZ66" s="92">
+        <v>1</v>
+      </c>
+      <c r="GA66" s="92">
+        <v>1</v>
+      </c>
+      <c r="GB66" s="92">
+        <v>1</v>
+      </c>
+      <c r="GC66" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="101"/>
+    </row>
+    <row r="71" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="72" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="102"/>
-      <c r="E69" s="103"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="103"/>
     </row>
-    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="73" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="104"/>
+      <c r="E73" s="104"/>
     </row>
-    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="74" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="75" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="76" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="77" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="78" spans="1:185" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -15077,21 +15689,9 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
-  <conditionalFormatting sqref="C7:C59">
+  <conditionalFormatting sqref="C7:C62">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15105,42 +15705,42 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BC7 F8:FZ57 H58:BC59 BE5:BJ6 BL5:BQ6 BS5:BX6 BZ5:CE6 CG5:CL6 CN5:CS6 CU5:CZ6 DB5:DG6 DI5:DN6 DP5:DU6 DW5:EB6 ED5:EI6 EK5:EP6 ER5:EW6 EY5:FD6 FF5:FK6 FM5:FR6 FT5:FY6">
+  <conditionalFormatting sqref="H5:BC7 F8:FZ60 H61:BC62 BE5:BJ6 BL5:BQ6 BS5:BX6 BZ5:CE6 CG5:CL6 CN5:CS6 CU5:CZ6 DB5:DG6 DI5:DN6 DP5:DU6 DW5:EB6 ED5:EI6 EK5:EP6 ER5:EW6 EY5:FD6 FF5:FK6 FM5:FR6 FT5:FY6">
     <cfRule type="expression" dxfId="26" priority="38">
       <formula>AND(TODAY()&gt;=F$5,TODAY()&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BC7 F8:FZ57 H58:BC59">
+  <conditionalFormatting sqref="H7:BC7 F8:FZ60 H61:BC62">
     <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
       <formula>AND(task_end&gt;=F$5,task_start&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:FZ7 F8:FZ57 H58:FZ59">
+  <conditionalFormatting sqref="H7:FZ7 F8:FZ60 H61:FZ62">
     <cfRule type="expression" dxfId="24" priority="32">
       <formula>AND(task_start&lt;=F$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=F$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD5:BD6 BD7:BJ7 BZ7:CE7 CU7:CZ7 DB7:DG7 DI7:DN7 BD58:BJ59 BZ58:CE59 CU58:CZ59 DB58:DG59 DI58:DN59">
+  <conditionalFormatting sqref="BD5:BD6 BD7:BJ7 BZ7:CE7 CU7:CZ7 DB7:DG7 DI7:DN7 BD61:BJ62 BZ61:CE62 CU61:CZ62 DB61:DG62 DI61:DN62">
     <cfRule type="expression" dxfId="23" priority="376">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD7:BJ7 BZ7:CE7 CU7:CZ7 DB7:DG7 DI7:DN7 BD58:BJ59 BZ58:CE59 CU58:CZ59 DB58:DG59 DI58:DN59">
+  <conditionalFormatting sqref="BD7:BJ7 BZ7:CE7 CU7:CZ7 DB7:DG7 DI7:DN7 BD61:BJ62 BZ61:CE62 CU61:CZ62 DB61:DG62 DI61:DN62">
     <cfRule type="expression" dxfId="22" priority="418" stopIfTrue="1">
       <formula>AND(task_end&gt;=BD$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK5:BK6 BR5:BR6 BY5:BY6 CF5:CF6 CM5:CM6 CT5:CT6 DA5:DA6 DH5:DH6 DO5:DO6 DV5:DV6 EC5:EC6 EJ5:EJ6 EQ5:EQ6 EX5:EX6 FE5:FE6 FL5:FL6 FS5:FS6 FZ5:FZ6 BK7:BY7 BK58:BY59">
+  <conditionalFormatting sqref="BK5:BK6 BR5:BR6 BY5:BY6 CF5:CF6 CM5:CM6 CT5:CT6 DA5:DA6 DH5:DH6 DO5:DO6 DV5:DV6 EC5:EC6 EJ5:EJ6 EQ5:EQ6 EX5:EX6 FE5:FE6 FL5:FL6 FS5:FS6 FZ5:FZ6 BK7:BY7 BK61:BY62">
     <cfRule type="expression" dxfId="21" priority="378">
       <formula>AND(TODAY()&gt;=BK$5,TODAY()&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK7:BY7 BK58:BY59">
+  <conditionalFormatting sqref="BK7:BY7 BK61:BY62">
     <cfRule type="expression" dxfId="20" priority="442" stopIfTrue="1">
       <formula>AND(task_end&gt;=BK$5,task_start&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF7:CT7 CF58:CT59">
+  <conditionalFormatting sqref="CF7:CT7 CF61:CT62">
     <cfRule type="expression" dxfId="19" priority="428">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;GA$5)</formula>
     </cfRule>
@@ -15148,7 +15748,7 @@
       <formula>AND(task_end&gt;=CF$5,task_start&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA7 DA58:DA59">
+  <conditionalFormatting sqref="DA7 DA61:DA62">
     <cfRule type="expression" dxfId="17" priority="319">
       <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;GA$5)</formula>
     </cfRule>
@@ -15156,7 +15756,7 @@
       <formula>AND(task_end&gt;=DA$5,task_start&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DH7 DH58:DH59">
+  <conditionalFormatting sqref="DH7 DH61:DH62">
     <cfRule type="expression" dxfId="15" priority="272">
       <formula>AND(TODAY()&gt;=DH$5,TODAY()&lt;GA$5)</formula>
     </cfRule>
@@ -15164,7 +15764,7 @@
       <formula>AND(task_end&gt;=DH$5,task_start&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DO7:DV7 DO58:DV59">
+  <conditionalFormatting sqref="DO7:DV7 DO61:DV62">
     <cfRule type="expression" dxfId="13" priority="235">
       <formula>AND(TODAY()&gt;=DO$5,TODAY()&lt;GA$5)</formula>
     </cfRule>
@@ -15172,7 +15772,7 @@
       <formula>AND(task_end&gt;=DO$5,task_start&lt;GA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DW7:EC7 DW58:EC59">
+  <conditionalFormatting sqref="DW7:EC7 DW61:EC62">
     <cfRule type="expression" dxfId="11" priority="198">
       <formula>AND(TODAY()&gt;=DW$5,TODAY()&lt;GB$5)</formula>
     </cfRule>
@@ -15180,7 +15780,7 @@
       <formula>AND(task_end&gt;=DW$5,task_start&lt;GB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ED7:EQ7 ED58:EQ59">
+  <conditionalFormatting sqref="ED7:EQ7 ED61:EQ62">
     <cfRule type="expression" dxfId="9" priority="161">
       <formula>AND(TODAY()&gt;=ED$5,TODAY()&lt;GB$5)</formula>
     </cfRule>
@@ -15188,7 +15788,7 @@
       <formula>AND(task_end&gt;=ED$5,task_start&lt;GB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ER7:EX7 ER58:EX59">
+  <conditionalFormatting sqref="ER7:EX7 ER61:EX62">
     <cfRule type="expression" dxfId="7" priority="128">
       <formula>AND(TODAY()&gt;=ER$5,TODAY()&lt;GI$5)</formula>
     </cfRule>
@@ -15196,7 +15796,7 @@
       <formula>AND(task_end&gt;=ER$5,task_start&lt;GI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EY7:FE7 EY58:FE59">
+  <conditionalFormatting sqref="EY7:FE7 EY61:FE62">
     <cfRule type="expression" dxfId="5" priority="103">
       <formula>AND(TODAY()&gt;=EY$5,TODAY()&lt;GI$5)</formula>
     </cfRule>
@@ -15204,7 +15804,7 @@
       <formula>AND(task_end&gt;=EY$5,task_start&lt;GI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FF7:FS7 FF58:FS59">
+  <conditionalFormatting sqref="FF7:FS7 FF61:FS62">
     <cfRule type="expression" dxfId="3" priority="70">
       <formula>AND(TODAY()&gt;=FF$5,TODAY()&lt;GI$5)</formula>
     </cfRule>
@@ -15212,7 +15812,7 @@
       <formula>AND(task_end&gt;=FF$5,task_start&lt;GI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FT7:FZ7 FT58:FZ59">
+  <conditionalFormatting sqref="FT7:FZ7 FT61:FZ62">
     <cfRule type="expression" dxfId="1" priority="397">
       <formula>AND(TODAY()&gt;=FT$5,TODAY()&lt;GP$5)</formula>
     </cfRule>
@@ -15251,7 +15851,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C7:C59</xm:sqref>
+          <xm:sqref>C7:C62</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15263,7 +15863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
   <dimension ref="A5:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -15414,39 +16014,39 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>1415</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s">
-        <v>86</v>
-      </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -15472,7 +16072,7 @@
         <v>2.3678045515394913E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -15498,7 +16098,7 @@
         <v>2.3197481884651955E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -15524,10 +16124,10 @@
         <v>6.205323860895496E-2</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -15553,10 +16153,10 @@
         <v>1.8576379772094732E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -15582,10 +16182,10 @@
         <v>1.8578818833539037E-2</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -15611,10 +16211,10 @@
         <v>1.857979463746422E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -15640,10 +16240,10 @@
         <v>3.7159589274928441E-2</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -15669,10 +16269,10 @@
         <v>3.6234667486107909E-2</v>
       </c>
       <c r="H30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" t="s">
         <v>94</v>
-      </c>
-      <c r="I30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -15808,25 +16408,25 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
         <v>96</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>97</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>98</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>99</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>100</v>
-      </c>
-      <c r="I42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -15893,7 +16493,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="110"/>
       <c r="C45" s="110">
@@ -16274,35 +16874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16590,27 +17161,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16629,4 +17209,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE045CA-8ED0-43F9-A2B9-C9917FB88268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65778055-BB97-4000-A6C8-671B583E1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlanning" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>TAAK</t>
   </si>
@@ -366,12 +366,42 @@
   <si>
     <t>Meerdere actuatoren en sensoren integreren</t>
   </si>
+  <si>
+    <t>stappen tellen</t>
+  </si>
+  <si>
+    <t>stappen</t>
+  </si>
+  <si>
+    <t>begin cm</t>
+  </si>
+  <si>
+    <t>eind cm</t>
+  </si>
+  <si>
+    <t>verschil</t>
+  </si>
+  <si>
+    <t>1000 steps</t>
+  </si>
+  <si>
+    <t>max verschil 1000</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>max verschil 2000</t>
+  </si>
+  <si>
+    <t>max verschil 4000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
@@ -381,6 +411,7 @@
     <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="171" formatCode="d"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1265,7 +1296,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1566,18 +1597,20 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2139,7 +2172,921 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Berekeningen!$I$57:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.9285714285714377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4516129032258061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0251256281407022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0632911392405067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1282051282051286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0632911392405067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0890585241730282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1880674448767836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1413881748071981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1413881748071981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.082592121982211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0568900126422252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BFD-46F7-B510-DB2E57A8EE1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197318751"/>
+        <c:axId val="197319231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197318751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197319231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197319231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197318751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132523</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>437323</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0C36A7-1738-05B8-8E2C-16853B01CCC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2463,7 +3410,7 @@
   </sheetPr>
   <dimension ref="A1:GC78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
@@ -2557,50 +3504,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="116">
+      <c r="D3" s="114">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="116"/>
+      <c r="E3" s="114"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="114" t="s">
+      <c r="BO3" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="114"/>
-      <c r="BR3" s="114"/>
-      <c r="BS3" s="114"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="114"/>
-      <c r="BV3" s="114"/>
-      <c r="BW3" s="114"/>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="114"/>
+      <c r="BP3" s="115"/>
+      <c r="BQ3" s="115"/>
+      <c r="BR3" s="115"/>
+      <c r="BS3" s="115"/>
+      <c r="BT3" s="115"/>
+      <c r="BU3" s="115"/>
+      <c r="BV3" s="115"/>
+      <c r="BW3" s="115"/>
+      <c r="BX3" s="115"/>
+      <c r="BY3" s="115"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="115" t="s">
+      <c r="DP3" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="115"/>
-      <c r="DR3" s="115"/>
-      <c r="DS3" s="115"/>
-      <c r="DT3" s="115"/>
-      <c r="DU3" s="115"/>
-      <c r="DV3" s="115"/>
-      <c r="DW3" s="115"/>
-      <c r="DX3" s="115"/>
-      <c r="DY3" s="115"/>
-      <c r="DZ3" s="115"/>
-      <c r="EA3" s="115"/>
-      <c r="EB3" s="115"/>
-      <c r="EC3" s="115"/>
+      <c r="DQ3" s="116"/>
+      <c r="DR3" s="116"/>
+      <c r="DS3" s="116"/>
+      <c r="DT3" s="116"/>
+      <c r="DU3" s="116"/>
+      <c r="DV3" s="116"/>
+      <c r="DW3" s="116"/>
+      <c r="DX3" s="116"/>
+      <c r="DY3" s="116"/>
+      <c r="DZ3" s="116"/>
+      <c r="EA3" s="116"/>
+      <c r="EB3" s="116"/>
+      <c r="EC3" s="116"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -15661,18 +16608,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -15689,6 +16624,18 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C62">
@@ -15861,14 +16808,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
-  <dimension ref="A5:Q54"/>
+  <dimension ref="A5:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16606,7 +17554,7 @@
         <v>60.180541624874621</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C49" s="109">
         <v>167</v>
       </c>
@@ -16632,7 +17580,7 @@
         <v>59.868263473053894</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C50" s="109">
         <v>167</v>
       </c>
@@ -16658,7 +17606,7 @@
         <v>59.868263473053894</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C51" s="109">
         <v>499</v>
       </c>
@@ -16684,7 +17632,7 @@
         <v>60.120240480961925</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C52" s="109">
         <v>499</v>
       </c>
@@ -16710,7 +17658,7 @@
         <v>60.118236472945888</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C53" s="109">
         <v>997</v>
       </c>
@@ -16736,7 +17684,7 @@
         <v>60.182547642928789</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C54" s="109">
         <v>996</v>
       </c>
@@ -16758,15 +17706,489 @@
         <v>1.6600276671277853E-2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="7"/>
+        <f>G54/C54</f>
         <v>60.239959839357432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <v>145.5</v>
+      </c>
+      <c r="E57" s="119">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="F57" s="119">
+        <f>D57-E57</f>
+        <v>11.199999999999989</v>
+      </c>
+      <c r="G57" s="103">
+        <f>F57/C57*1000</f>
+        <v>11.199999999999989</v>
+      </c>
+      <c r="H57" s="118">
+        <f>(F57*10)/C57</f>
+        <v>0.11199999999999989</v>
+      </c>
+      <c r="I57" s="118">
+        <f>C57/(F57*10)</f>
+        <v>8.9285714285714377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>1000</v>
+      </c>
+      <c r="D58">
+        <v>145.5</v>
+      </c>
+      <c r="E58" s="119">
+        <v>130</v>
+      </c>
+      <c r="F58" s="119">
+        <f t="shared" ref="F58:F71" si="10">D58-E58</f>
+        <v>15.5</v>
+      </c>
+      <c r="G58" s="103">
+        <f t="shared" ref="G58:G71" si="11">F58/C58*1000</f>
+        <v>15.5</v>
+      </c>
+      <c r="H58" s="118">
+        <f t="shared" ref="H58:H71" si="12">(F58*10)/C58</f>
+        <v>0.155</v>
+      </c>
+      <c r="I58" s="118">
+        <f t="shared" ref="I58:I70" si="13">C58/(F58*10)</f>
+        <v>6.4516129032258061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>1000</v>
+      </c>
+      <c r="D59">
+        <v>145.5</v>
+      </c>
+      <c r="E59" s="119">
+        <v>125.5</v>
+      </c>
+      <c r="F59" s="119">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="G59" s="103">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H59" s="118">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="118">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>1000</v>
+      </c>
+      <c r="D60">
+        <v>145.5</v>
+      </c>
+      <c r="E60" s="119">
+        <v>125.5</v>
+      </c>
+      <c r="F60" s="119">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="G60" s="103">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H60" s="118">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="I60" s="118">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>1000</v>
+      </c>
+      <c r="D61">
+        <v>145.5</v>
+      </c>
+      <c r="E61" s="119">
+        <v>125.6</v>
+      </c>
+      <c r="F61" s="119">
+        <f t="shared" si="10"/>
+        <v>19.900000000000006</v>
+      </c>
+      <c r="G61" s="103">
+        <f t="shared" si="11"/>
+        <v>19.900000000000006</v>
+      </c>
+      <c r="H61" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19900000000000007</v>
+      </c>
+      <c r="I61" s="118">
+        <f t="shared" si="13"/>
+        <v>5.0251256281407022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>2000</v>
+      </c>
+      <c r="D62">
+        <v>145.5</v>
+      </c>
+      <c r="E62" s="119">
+        <v>106</v>
+      </c>
+      <c r="F62" s="119">
+        <f t="shared" si="10"/>
+        <v>39.5</v>
+      </c>
+      <c r="G62" s="103">
+        <f t="shared" si="11"/>
+        <v>19.75</v>
+      </c>
+      <c r="H62" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="I62" s="118">
+        <f t="shared" si="13"/>
+        <v>5.0632911392405067</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>2000</v>
+      </c>
+      <c r="D63">
+        <v>145.5</v>
+      </c>
+      <c r="E63" s="119">
+        <v>106.5</v>
+      </c>
+      <c r="F63" s="119">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="G63" s="103">
+        <f t="shared" si="11"/>
+        <v>19.5</v>
+      </c>
+      <c r="H63" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I63" s="118">
+        <f t="shared" si="13"/>
+        <v>5.1282051282051286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>2000</v>
+      </c>
+      <c r="D64">
+        <v>145.5</v>
+      </c>
+      <c r="E64" s="119">
+        <v>106</v>
+      </c>
+      <c r="F64" s="119">
+        <f t="shared" si="10"/>
+        <v>39.5</v>
+      </c>
+      <c r="G64" s="103">
+        <f t="shared" si="11"/>
+        <v>19.75</v>
+      </c>
+      <c r="H64" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="I64" s="118">
+        <f t="shared" si="13"/>
+        <v>5.0632911392405067</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>2000</v>
+      </c>
+      <c r="D65">
+        <v>145.5</v>
+      </c>
+      <c r="E65" s="119">
+        <v>106.2</v>
+      </c>
+      <c r="F65" s="119">
+        <f t="shared" si="10"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G65" s="103">
+        <f t="shared" si="11"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="H65" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="I65" s="118">
+        <f t="shared" si="13"/>
+        <v>5.0890585241730282</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>2000</v>
+      </c>
+      <c r="D66">
+        <v>145.5</v>
+      </c>
+      <c r="E66" s="119">
+        <v>105.5</v>
+      </c>
+      <c r="F66" s="119">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="G66" s="103">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H66" s="118">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="I66" s="118">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>4000</v>
+      </c>
+      <c r="D67">
+        <v>145.5</v>
+      </c>
+      <c r="E67" s="119">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F67" s="119">
+        <f t="shared" si="10"/>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="G67" s="103">
+        <f t="shared" si="11"/>
+        <v>19.274999999999999</v>
+      </c>
+      <c r="H67" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19275</v>
+      </c>
+      <c r="I67" s="118">
+        <f t="shared" si="13"/>
+        <v>5.1880674448767836</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>4000</v>
+      </c>
+      <c r="D68">
+        <v>145.5</v>
+      </c>
+      <c r="E68" s="119">
+        <v>67.7</v>
+      </c>
+      <c r="F68" s="119">
+        <f t="shared" si="10"/>
+        <v>77.8</v>
+      </c>
+      <c r="G68" s="103">
+        <f t="shared" si="11"/>
+        <v>19.45</v>
+      </c>
+      <c r="H68" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="I68" s="118">
+        <f t="shared" si="13"/>
+        <v>5.1413881748071981</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>4000</v>
+      </c>
+      <c r="D69">
+        <v>145.5</v>
+      </c>
+      <c r="E69" s="119">
+        <v>67.7</v>
+      </c>
+      <c r="F69" s="119">
+        <f t="shared" si="10"/>
+        <v>77.8</v>
+      </c>
+      <c r="G69" s="103">
+        <f t="shared" si="11"/>
+        <v>19.45</v>
+      </c>
+      <c r="H69" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="I69" s="118">
+        <f t="shared" si="13"/>
+        <v>5.1413881748071981</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>4000</v>
+      </c>
+      <c r="D70">
+        <v>145.5</v>
+      </c>
+      <c r="E70" s="119">
+        <v>66.8</v>
+      </c>
+      <c r="F70" s="119">
+        <f t="shared" si="10"/>
+        <v>78.7</v>
+      </c>
+      <c r="G70" s="103">
+        <f t="shared" si="11"/>
+        <v>19.675000000000001</v>
+      </c>
+      <c r="H70" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19675000000000001</v>
+      </c>
+      <c r="I70" s="118">
+        <f t="shared" si="13"/>
+        <v>5.082592121982211</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>4000</v>
+      </c>
+      <c r="D71">
+        <v>145.5</v>
+      </c>
+      <c r="E71" s="119">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F71" s="119">
+        <f t="shared" si="10"/>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="G71" s="103">
+        <f t="shared" si="11"/>
+        <v>19.774999999999999</v>
+      </c>
+      <c r="H71" s="118">
+        <f t="shared" si="12"/>
+        <v>0.19775000000000001</v>
+      </c>
+      <c r="I71" s="118">
+        <f>C71/(F71*10)</f>
+        <v>5.0568900126422252</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="119">
+        <f>MAX(F57:F61)-MIN(F57:F61)</f>
+        <v>8.8000000000000114</v>
+      </c>
+      <c r="E74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="119">
+        <f>MAX(F62:F66)-MIN(F62:F66)</f>
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="119">
+        <f>MAX(F67:F71)-MIN(F67:F71)</f>
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:F5"/>
   </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16874,6 +18296,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17161,36 +18612,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17209,24 +18651,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
+++ b/documentatie/inhoud/WerkExcel-Planning-berekeningen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65778055-BB97-4000-A6C8-671B583E1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17720DD4-85CF-42B0-B987-B4394797119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlanning" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>TAAK</t>
   </si>
@@ -355,9 +355,6 @@
     <t>meetlint vanaf links</t>
   </si>
   <si>
-    <t>CNC uitzoeken</t>
-  </si>
-  <si>
     <t>bracket ontwerpen</t>
   </si>
   <si>
@@ -411,7 +408,7 @@
     <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="171" formatCode="d"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1588,6 +1585,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1597,20 +1596,18 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -3410,9 +3407,9 @@
   </sheetPr>
   <dimension ref="A1:GC78"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="CC1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="FA12" sqref="FA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3504,50 +3501,50 @@
         <v>22</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="114">
+      <c r="D3" s="118">
         <f>DATE(2025, 9, 1)</f>
         <v>45901</v>
       </c>
-      <c r="E3" s="114"/>
+      <c r="E3" s="118"/>
       <c r="P3" s="88"/>
       <c r="AF3" s="88"/>
       <c r="AR3" s="88"/>
       <c r="AY3" s="87"/>
       <c r="BM3" s="88"/>
       <c r="BN3" s="87"/>
-      <c r="BO3" s="115" t="s">
+      <c r="BO3" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="115"/>
-      <c r="BU3" s="115"/>
-      <c r="BV3" s="115"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
-      <c r="BY3" s="115"/>
+      <c r="BP3" s="116"/>
+      <c r="BQ3" s="116"/>
+      <c r="BR3" s="116"/>
+      <c r="BS3" s="116"/>
+      <c r="BT3" s="116"/>
+      <c r="BU3" s="116"/>
+      <c r="BV3" s="116"/>
+      <c r="BW3" s="116"/>
+      <c r="BX3" s="116"/>
+      <c r="BY3" s="116"/>
       <c r="CA3" s="88"/>
       <c r="CG3" s="87"/>
       <c r="CO3" s="88"/>
       <c r="DC3" s="88"/>
-      <c r="DP3" s="116" t="s">
+      <c r="DP3" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="DQ3" s="116"/>
-      <c r="DR3" s="116"/>
-      <c r="DS3" s="116"/>
-      <c r="DT3" s="116"/>
-      <c r="DU3" s="116"/>
-      <c r="DV3" s="116"/>
-      <c r="DW3" s="116"/>
-      <c r="DX3" s="116"/>
-      <c r="DY3" s="116"/>
-      <c r="DZ3" s="116"/>
-      <c r="EA3" s="116"/>
-      <c r="EB3" s="116"/>
-      <c r="EC3" s="116"/>
+      <c r="DQ3" s="117"/>
+      <c r="DR3" s="117"/>
+      <c r="DS3" s="117"/>
+      <c r="DT3" s="117"/>
+      <c r="DU3" s="117"/>
+      <c r="DV3" s="117"/>
+      <c r="DW3" s="117"/>
+      <c r="DX3" s="117"/>
+      <c r="DY3" s="117"/>
+      <c r="DZ3" s="117"/>
+      <c r="EA3" s="117"/>
+      <c r="EB3" s="117"/>
+      <c r="EC3" s="117"/>
       <c r="EZ3" s="88"/>
       <c r="FC3" s="87"/>
       <c r="FF3" s="87"/>
@@ -3560,256 +3557,256 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="113">
         <f>H5</f>
         <v>45901</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="111">
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="113">
         <f>O5</f>
         <v>45908</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="111">
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="113">
         <f>V5</f>
         <v>45915</v>
       </c>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="111">
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="113">
         <f>AC5</f>
         <v>45922</v>
       </c>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="111">
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="113">
         <f>AJ5</f>
         <v>45929</v>
       </c>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="111">
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="113">
         <f>AQ5</f>
         <v>45936</v>
       </c>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="113"/>
-      <c r="AX4" s="111">
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="113">
         <f>AX5</f>
         <v>45943</v>
       </c>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="113"/>
-      <c r="BE4" s="111">
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="113">
         <f>BE5</f>
         <v>45950</v>
       </c>
-      <c r="BF4" s="112"/>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="112"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="113"/>
-      <c r="BL4" s="111">
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="115"/>
+      <c r="BL4" s="113">
         <f>BL5</f>
         <v>45957</v>
       </c>
-      <c r="BM4" s="112"/>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="113"/>
-      <c r="BS4" s="111">
+      <c r="BM4" s="114"/>
+      <c r="BN4" s="114"/>
+      <c r="BO4" s="114"/>
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="115"/>
+      <c r="BS4" s="113">
         <f>BS5</f>
         <v>45964</v>
       </c>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="112"/>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="113"/>
-      <c r="BZ4" s="111">
+      <c r="BT4" s="114"/>
+      <c r="BU4" s="114"/>
+      <c r="BV4" s="114"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="114"/>
+      <c r="BY4" s="115"/>
+      <c r="BZ4" s="113">
         <f>BZ5</f>
         <v>45971</v>
       </c>
-      <c r="CA4" s="112"/>
-      <c r="CB4" s="112"/>
-      <c r="CC4" s="112"/>
-      <c r="CD4" s="112"/>
-      <c r="CE4" s="112"/>
-      <c r="CF4" s="113"/>
-      <c r="CG4" s="111">
+      <c r="CA4" s="114"/>
+      <c r="CB4" s="114"/>
+      <c r="CC4" s="114"/>
+      <c r="CD4" s="114"/>
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="115"/>
+      <c r="CG4" s="113">
         <f>CG5</f>
         <v>45978</v>
       </c>
-      <c r="CH4" s="112"/>
-      <c r="CI4" s="112"/>
-      <c r="CJ4" s="112"/>
-      <c r="CK4" s="112"/>
-      <c r="CL4" s="112"/>
-      <c r="CM4" s="113"/>
-      <c r="CN4" s="111">
+      <c r="CH4" s="114"/>
+      <c r="CI4" s="114"/>
+      <c r="CJ4" s="114"/>
+      <c r="CK4" s="114"/>
+      <c r="CL4" s="114"/>
+      <c r="CM4" s="115"/>
+      <c r="CN4" s="113">
         <f>CN5</f>
         <v>45985</v>
       </c>
-      <c r="CO4" s="112"/>
-      <c r="CP4" s="112"/>
-      <c r="CQ4" s="112"/>
-      <c r="CR4" s="112"/>
-      <c r="CS4" s="112"/>
-      <c r="CT4" s="113"/>
-      <c r="CU4" s="111">
+      <c r="CO4" s="114"/>
+      <c r="CP4" s="114"/>
+      <c r="CQ4" s="114"/>
+      <c r="CR4" s="114"/>
+      <c r="CS4" s="114"/>
+      <c r="CT4" s="115"/>
+      <c r="CU4" s="113">
         <f>CU5</f>
         <v>45992</v>
       </c>
-      <c r="CV4" s="112"/>
-      <c r="CW4" s="112"/>
-      <c r="CX4" s="112"/>
-      <c r="CY4" s="112"/>
-      <c r="CZ4" s="112"/>
-      <c r="DA4" s="113"/>
-      <c r="DB4" s="111">
+      <c r="CV4" s="114"/>
+      <c r="CW4" s="114"/>
+      <c r="CX4" s="114"/>
+      <c r="CY4" s="114"/>
+      <c r="CZ4" s="114"/>
+      <c r="DA4" s="115"/>
+      <c r="DB4" s="113">
         <f t="shared" ref="DB4" si="0">DB5</f>
         <v>45999</v>
       </c>
-      <c r="DC4" s="112"/>
-      <c r="DD4" s="112"/>
-      <c r="DE4" s="112"/>
-      <c r="DF4" s="112"/>
-      <c r="DG4" s="112"/>
-      <c r="DH4" s="113"/>
-      <c r="DI4" s="111">
+      <c r="DC4" s="114"/>
+      <c r="DD4" s="114"/>
+      <c r="DE4" s="114"/>
+      <c r="DF4" s="114"/>
+      <c r="DG4" s="114"/>
+      <c r="DH4" s="115"/>
+      <c r="DI4" s="113">
         <f t="shared" ref="DI4" si="1">DI5</f>
         <v>46006</v>
       </c>
-      <c r="DJ4" s="112"/>
-      <c r="DK4" s="112"/>
-      <c r="DL4" s="112"/>
-      <c r="DM4" s="112"/>
-      <c r="DN4" s="112"/>
-      <c r="DO4" s="113"/>
-      <c r="DP4" s="111">
+      <c r="DJ4" s="114"/>
+      <c r="DK4" s="114"/>
+      <c r="DL4" s="114"/>
+      <c r="DM4" s="114"/>
+      <c r="DN4" s="114"/>
+      <c r="DO4" s="115"/>
+      <c r="DP4" s="113">
         <f t="shared" ref="DP4" si="2">DP5</f>
         <v>46013</v>
       </c>
-      <c r="DQ4" s="112"/>
-      <c r="DR4" s="112"/>
-      <c r="DS4" s="112"/>
-      <c r="DT4" s="112"/>
-      <c r="DU4" s="112"/>
-      <c r="DV4" s="113"/>
-      <c r="DW4" s="111">
+      <c r="DQ4" s="114"/>
+      <c r="DR4" s="114"/>
+      <c r="DS4" s="114"/>
+      <c r="DT4" s="114"/>
+      <c r="DU4" s="114"/>
+      <c r="DV4" s="115"/>
+      <c r="DW4" s="113">
         <f t="shared" ref="DW4" si="3">DW5</f>
         <v>46020</v>
       </c>
-      <c r="DX4" s="112"/>
-      <c r="DY4" s="112"/>
-      <c r="DZ4" s="112"/>
-      <c r="EA4" s="112"/>
-      <c r="EB4" s="112"/>
-      <c r="EC4" s="113"/>
-      <c r="ED4" s="111">
+      <c r="DX4" s="114"/>
+      <c r="DY4" s="114"/>
+      <c r="DZ4" s="114"/>
+      <c r="EA4" s="114"/>
+      <c r="EB4" s="114"/>
+      <c r="EC4" s="115"/>
+      <c r="ED4" s="113">
         <f t="shared" ref="ED4" si="4">ED5</f>
         <v>46027</v>
       </c>
-      <c r="EE4" s="112"/>
-      <c r="EF4" s="112"/>
-      <c r="EG4" s="112"/>
-      <c r="EH4" s="112"/>
-      <c r="EI4" s="112"/>
-      <c r="EJ4" s="113"/>
-      <c r="EK4" s="111">
+      <c r="EE4" s="114"/>
+      <c r="EF4" s="114"/>
+      <c r="EG4" s="114"/>
+      <c r="EH4" s="114"/>
+      <c r="EI4" s="114"/>
+      <c r="EJ4" s="115"/>
+      <c r="EK4" s="113">
         <f t="shared" ref="EK4" si="5">EK5</f>
         <v>46034</v>
       </c>
-      <c r="EL4" s="112"/>
-      <c r="EM4" s="112"/>
-      <c r="EN4" s="112"/>
-      <c r="EO4" s="112"/>
-      <c r="EP4" s="112"/>
-      <c r="EQ4" s="113"/>
-      <c r="ER4" s="111">
+      <c r="EL4" s="114"/>
+      <c r="EM4" s="114"/>
+      <c r="EN4" s="114"/>
+      <c r="EO4" s="114"/>
+      <c r="EP4" s="114"/>
+      <c r="EQ4" s="115"/>
+      <c r="ER4" s="113">
         <f t="shared" ref="ER4" si="6">ER5</f>
         <v>46041</v>
       </c>
-      <c r="ES4" s="112"/>
-      <c r="ET4" s="112"/>
-      <c r="EU4" s="112"/>
-      <c r="EV4" s="112"/>
-      <c r="EW4" s="112"/>
-      <c r="EX4" s="113"/>
-      <c r="EY4" s="111">
+      <c r="ES4" s="114"/>
+      <c r="ET4" s="114"/>
+      <c r="EU4" s="114"/>
+      <c r="EV4" s="114"/>
+      <c r="EW4" s="114"/>
+      <c r="EX4" s="115"/>
+      <c r="EY4" s="113">
         <f t="shared" ref="EY4" si="7">EY5</f>
         <v>46048</v>
       </c>
-      <c r="EZ4" s="112"/>
-      <c r="FA4" s="112"/>
-      <c r="FB4" s="112"/>
-      <c r="FC4" s="112"/>
-      <c r="FD4" s="112"/>
-      <c r="FE4" s="113"/>
-      <c r="FF4" s="111">
+      <c r="EZ4" s="114"/>
+      <c r="FA4" s="114"/>
+      <c r="FB4" s="114"/>
+      <c r="FC4" s="114"/>
+      <c r="FD4" s="114"/>
+      <c r="FE4" s="115"/>
+      <c r="FF4" s="113">
         <f t="shared" ref="FF4" si="8">FF5</f>
         <v>46055</v>
       </c>
-      <c r="FG4" s="112"/>
-      <c r="FH4" s="112"/>
-      <c r="FI4" s="112"/>
-      <c r="FJ4" s="112"/>
-      <c r="FK4" s="112"/>
-      <c r="FL4" s="113"/>
-      <c r="FM4" s="111">
+      <c r="FG4" s="114"/>
+      <c r="FH4" s="114"/>
+      <c r="FI4" s="114"/>
+      <c r="FJ4" s="114"/>
+      <c r="FK4" s="114"/>
+      <c r="FL4" s="115"/>
+      <c r="FM4" s="113">
         <f t="shared" ref="FM4" si="9">FM5</f>
         <v>46062</v>
       </c>
-      <c r="FN4" s="112"/>
-      <c r="FO4" s="112"/>
-      <c r="FP4" s="112"/>
-      <c r="FQ4" s="112"/>
-      <c r="FR4" s="112"/>
-      <c r="FS4" s="113"/>
-      <c r="FT4" s="111">
+      <c r="FN4" s="114"/>
+      <c r="FO4" s="114"/>
+      <c r="FP4" s="114"/>
+      <c r="FQ4" s="114"/>
+      <c r="FR4" s="114"/>
+      <c r="FS4" s="115"/>
+      <c r="FT4" s="113">
         <f t="shared" ref="FT4" si="10">FT5</f>
         <v>46069</v>
       </c>
-      <c r="FU4" s="112"/>
-      <c r="FV4" s="112"/>
-      <c r="FW4" s="112"/>
-      <c r="FX4" s="112"/>
-      <c r="FY4" s="112"/>
-      <c r="FZ4" s="113"/>
+      <c r="FU4" s="114"/>
+      <c r="FV4" s="114"/>
+      <c r="FW4" s="114"/>
+      <c r="FX4" s="114"/>
+      <c r="FY4" s="114"/>
+      <c r="FZ4" s="115"/>
       <c r="GC4" s="92">
         <v>1</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="77">
         <f>DATE(2026,1,12)</f>
@@ -6211,7 +6208,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="76">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D12" s="77">
         <f>DATE(2026,1,1)</f>
@@ -6407,15 +6404,15 @@
         <v>32</v>
       </c>
       <c r="C13" s="76">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="77">
         <f>DATE(2026, 1, 1)</f>
         <v>46023</v>
       </c>
       <c r="E13" s="77">
-        <f>DATE(2026, 1, 25)</f>
-        <v>46047</v>
+        <f>DATE(2026, 1, 29)</f>
+        <v>46051</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -6990,7 +6987,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="57">
         <v>45902</v>
@@ -7573,12 +7570,8 @@
     </row>
     <row r="19" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
-      <c r="B19" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="27"/>
@@ -7768,7 +7761,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D20" s="57">
         <v>45909</v>
@@ -8936,10 +8929,14 @@
         <v>75</v>
       </c>
       <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="60">
+        <v>45992</v>
+      </c>
+      <c r="E26" s="60">
+        <v>46004</v>
+      </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -10873,16 +10870,16 @@
     <row r="36" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="63">
         <v>46010</v>
       </c>
       <c r="E36" s="63">
-        <v>46027</v>
+        <v>46041</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -11066,7 +11063,7 @@
     <row r="37" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="20">
         <v>1</v>
@@ -11259,10 +11256,10 @@
     <row r="38" spans="1:185" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="63">
         <v>46027</v>
@@ -12222,7 +12219,7 @@
         <v>76</v>
       </c>
       <c r="C43" s="23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D43" s="66">
         <v>45901</v>
@@ -12415,9 +12412,7 @@
       <c r="A44" s="40"/>
       <c r="B44" s="49"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="66">
-        <v>45901</v>
-      </c>
+      <c r="D44" s="66"/>
       <c r="E44" s="66"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
@@ -16608,6 +16603,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="EK4:EQ4"/>
+    <mergeCell ref="ER4:EX4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="EY4:FE4"/>
     <mergeCell ref="FF4:FL4"/>
     <mergeCell ref="FM4:FS4"/>
@@ -16624,18 +16631,6 @@
     <mergeCell ref="DP4:DV4"/>
     <mergeCell ref="DW4:EC4"/>
     <mergeCell ref="ED4:EJ4"/>
-    <mergeCell ref="EK4:EQ4"/>
-    <mergeCell ref="ER4:EX4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="C7:C62">
@@ -16767,7 +16762,7 @@
       <formula>AND(task_end&gt;=FT$5,task_start&lt;GP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Weergegeven week" prompt="Als u dit getal wijzigt, scrolt u door de weergave van het Gantt-diagram." sqref="D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -16810,8 +16805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E16046-3957-429D-BA41-59B4EEE9D413}">
   <dimension ref="A5:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16821,13 +16816,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -17269,91 +17264,6 @@
         <v>2.3230615159823349E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>14</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>81</v>
@@ -17427,7 +17337,7 @@
         <v>1.6508254127063533E-2</v>
       </c>
       <c r="I44" s="108">
-        <f t="shared" ref="I44:I54" si="7">G44/C44</f>
+        <f t="shared" ref="I44:I53" si="7">G44/C44</f>
         <v>60.575757575757578</v>
       </c>
       <c r="J44" s="108"/>
@@ -17712,27 +17622,27 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
         <v>106</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>107</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>108</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>109</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>110</v>
-      </c>
-      <c r="G56" t="s">
-        <v>111</v>
       </c>
       <c r="H56" t="s">
         <v>99</v>
@@ -17748,10 +17658,10 @@
       <c r="D57">
         <v>145.5</v>
       </c>
-      <c r="E57" s="119">
+      <c r="E57" s="112">
         <v>134.30000000000001</v>
       </c>
-      <c r="F57" s="119">
+      <c r="F57" s="112">
         <f>D57-E57</f>
         <v>11.199999999999989</v>
       </c>
@@ -17759,11 +17669,11 @@
         <f>F57/C57*1000</f>
         <v>11.199999999999989</v>
       </c>
-      <c r="H57" s="118">
+      <c r="H57" s="111">
         <f>(F57*10)/C57</f>
         <v>0.11199999999999989</v>
       </c>
-      <c r="I57" s="118">
+      <c r="I57" s="111">
         <f>C57/(F57*10)</f>
         <v>8.9285714285714377</v>
       </c>
@@ -17775,10 +17685,10 @@
       <c r="D58">
         <v>145.5</v>
       </c>
-      <c r="E58" s="119">
+      <c r="E58" s="112">
         <v>130</v>
       </c>
-      <c r="F58" s="119">
+      <c r="F58" s="112">
         <f t="shared" ref="F58:F71" si="10">D58-E58</f>
         <v>15.5</v>
       </c>
@@ -17786,11 +17696,11 @@
         <f t="shared" ref="G58:G71" si="11">F58/C58*1000</f>
         <v>15.5</v>
       </c>
-      <c r="H58" s="118">
+      <c r="H58" s="111">
         <f t="shared" ref="H58:H71" si="12">(F58*10)/C58</f>
         <v>0.155</v>
       </c>
-      <c r="I58" s="118">
+      <c r="I58" s="111">
         <f t="shared" ref="I58:I70" si="13">C58/(F58*10)</f>
         <v>6.4516129032258061</v>
       </c>
@@ -17802,10 +17712,10 @@
       <c r="D59">
         <v>145.5</v>
       </c>
-      <c r="E59" s="119">
+      <c r="E59" s="112">
         <v>125.5</v>
       </c>
-      <c r="F59" s="119">
+      <c r="F59" s="112">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
@@ -17813,11 +17723,11 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="H59" s="118">
+      <c r="H59" s="111">
         <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="I59" s="118">
+      <c r="I59" s="111">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
@@ -17829,10 +17739,10 @@
       <c r="D60">
         <v>145.5</v>
       </c>
-      <c r="E60" s="119">
+      <c r="E60" s="112">
         <v>125.5</v>
       </c>
-      <c r="F60" s="119">
+      <c r="F60" s="112">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
@@ -17840,11 +17750,11 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="H60" s="118">
+      <c r="H60" s="111">
         <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="I60" s="118">
+      <c r="I60" s="111">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
@@ -17856,10 +17766,10 @@
       <c r="D61">
         <v>145.5</v>
       </c>
-      <c r="E61" s="119">
+      <c r="E61" s="112">
         <v>125.6</v>
       </c>
-      <c r="F61" s="119">
+      <c r="F61" s="112">
         <f t="shared" si="10"/>
         <v>19.900000000000006</v>
       </c>
@@ -17867,11 +17777,11 @@
         <f t="shared" si="11"/>
         <v>19.900000000000006</v>
       </c>
-      <c r="H61" s="118">
+      <c r="H61" s="111">
         <f t="shared" si="12"/>
         <v>0.19900000000000007</v>
       </c>
-      <c r="I61" s="118">
+      <c r="I61" s="111">
         <f t="shared" si="13"/>
         <v>5.0251256281407022</v>
       </c>
@@ -17883,10 +17793,10 @@
       <c r="D62">
         <v>145.5</v>
       </c>
-      <c r="E62" s="119">
+      <c r="E62" s="112">
         <v>106</v>
       </c>
-      <c r="F62" s="119">
+      <c r="F62" s="112">
         <f t="shared" si="10"/>
         <v>39.5</v>
       </c>
@@ -17894,11 +17804,11 @@
         <f t="shared" si="11"/>
         <v>19.75</v>
       </c>
-      <c r="H62" s="118">
+      <c r="H62" s="111">
         <f t="shared" si="12"/>
         <v>0.19750000000000001</v>
       </c>
-      <c r="I62" s="118">
+      <c r="I62" s="111">
         <f t="shared" si="13"/>
         <v>5.0632911392405067</v>
       </c>
@@ -17910,10 +17820,10 @@
       <c r="D63">
         <v>145.5</v>
       </c>
-      <c r="E63" s="119">
+      <c r="E63" s="112">
         <v>106.5</v>
       </c>
-      <c r="F63" s="119">
+      <c r="F63" s="112">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
@@ -17921,11 +17831,11 @@
         <f t="shared" si="11"/>
         <v>19.5</v>
       </c>
-      <c r="H63" s="118">
+      <c r="H63" s="111">
         <f t="shared" si="12"/>
         <v>0.19500000000000001</v>
       </c>
-      <c r="I63" s="118">
+      <c r="I63" s="111">
         <f t="shared" si="13"/>
         <v>5.1282051282051286</v>
       </c>
@@ -17937,10 +17847,10 @@
       <c r="D64">
         <v>145.5</v>
       </c>
-      <c r="E64" s="119">
+      <c r="E64" s="112">
         <v>106</v>
       </c>
-      <c r="F64" s="119">
+      <c r="F64" s="112">
         <f t="shared" si="10"/>
         <v>39.5</v>
       </c>
@@ -17948,11 +17858,11 @@
         <f t="shared" si="11"/>
         <v>19.75</v>
       </c>
-      <c r="H64" s="118">
+      <c r="H64" s="111">
         <f t="shared" si="12"/>
         <v>0.19750000000000001</v>
       </c>
-      <c r="I64" s="118">
+      <c r="I64" s="111">
         <f t="shared" si="13"/>
         <v>5.0632911392405067</v>
       </c>
@@ -17964,10 +17874,10 @@
       <c r="D65">
         <v>145.5</v>
       </c>
-      <c r="E65" s="119">
+      <c r="E65" s="112">
         <v>106.2</v>
       </c>
-      <c r="F65" s="119">
+      <c r="F65" s="112">
         <f t="shared" si="10"/>
         <v>39.299999999999997</v>
       </c>
@@ -17975,11 +17885,11 @@
         <f t="shared" si="11"/>
         <v>19.649999999999999</v>
       </c>
-      <c r="H65" s="118">
+      <c r="H65" s="111">
         <f t="shared" si="12"/>
         <v>0.19650000000000001</v>
       </c>
-      <c r="I65" s="118">
+      <c r="I65" s="111">
         <f t="shared" si="13"/>
         <v>5.0890585241730282</v>
       </c>
@@ -17991,10 +17901,10 @@
       <c r="D66">
         <v>145.5</v>
       </c>
-      <c r="E66" s="119">
+      <c r="E66" s="112">
         <v>105.5</v>
       </c>
-      <c r="F66" s="119">
+      <c r="F66" s="112">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
@@ -18002,11 +17912,11 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="H66" s="118">
+      <c r="H66" s="111">
         <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="I66" s="118">
+      <c r="I66" s="111">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
@@ -18018,10 +17928,10 @@
       <c r="D67">
         <v>145.5</v>
       </c>
-      <c r="E67" s="119">
+      <c r="E67" s="112">
         <v>68.400000000000006</v>
       </c>
-      <c r="F67" s="119">
+      <c r="F67" s="112">
         <f t="shared" si="10"/>
         <v>77.099999999999994</v>
       </c>
@@ -18029,11 +17939,11 @@
         <f t="shared" si="11"/>
         <v>19.274999999999999</v>
       </c>
-      <c r="H67" s="118">
+      <c r="H67" s="111">
         <f t="shared" si="12"/>
         <v>0.19275</v>
       </c>
-      <c r="I67" s="118">
+      <c r="I67" s="111">
         <f t="shared" si="13"/>
         <v>5.1880674448767836</v>
       </c>
@@ -18045,10 +17955,10 @@
       <c r="D68">
         <v>145.5</v>
       </c>
-      <c r="E68" s="119">
+      <c r="E68" s="112">
         <v>67.7</v>
       </c>
-      <c r="F68" s="119">
+      <c r="F68" s="112">
         <f t="shared" si="10"/>
         <v>77.8</v>
       </c>
@@ -18056,11 +17966,11 @@
         <f t="shared" si="11"/>
         <v>19.45</v>
       </c>
-      <c r="H68" s="118">
+      <c r="H68" s="111">
         <f t="shared" si="12"/>
         <v>0.19450000000000001</v>
       </c>
-      <c r="I68" s="118">
+      <c r="I68" s="111">
         <f t="shared" si="13"/>
         <v>5.1413881748071981</v>
       </c>
@@ -18072,10 +17982,10 @@
       <c r="D69">
         <v>145.5</v>
       </c>
-      <c r="E69" s="119">
+      <c r="E69" s="112">
         <v>67.7</v>
       </c>
-      <c r="F69" s="119">
+      <c r="F69" s="112">
         <f t="shared" si="10"/>
         <v>77.8</v>
       </c>
@@ -18083,11 +17993,11 @@
         <f t="shared" si="11"/>
         <v>19.45</v>
       </c>
-      <c r="H69" s="118">
+      <c r="H69" s="111">
         <f t="shared" si="12"/>
         <v>0.19450000000000001</v>
       </c>
-      <c r="I69" s="118">
+      <c r="I69" s="111">
         <f t="shared" si="13"/>
         <v>5.1413881748071981</v>
       </c>
@@ -18099,10 +18009,10 @@
       <c r="D70">
         <v>145.5</v>
       </c>
-      <c r="E70" s="119">
+      <c r="E70" s="112">
         <v>66.8</v>
       </c>
-      <c r="F70" s="119">
+      <c r="F70" s="112">
         <f t="shared" si="10"/>
         <v>78.7</v>
       </c>
@@ -18110,11 +18020,11 @@
         <f t="shared" si="11"/>
         <v>19.675000000000001</v>
       </c>
-      <c r="H70" s="118">
+      <c r="H70" s="111">
         <f t="shared" si="12"/>
         <v>0.19675000000000001</v>
       </c>
-      <c r="I70" s="118">
+      <c r="I70" s="111">
         <f t="shared" si="13"/>
         <v>5.082592121982211</v>
       </c>
@@ -18126,10 +18036,10 @@
       <c r="D71">
         <v>145.5</v>
       </c>
-      <c r="E71" s="119">
+      <c r="E71" s="112">
         <v>66.400000000000006</v>
       </c>
-      <c r="F71" s="119">
+      <c r="F71" s="112">
         <f t="shared" si="10"/>
         <v>79.099999999999994</v>
       </c>
@@ -18137,49 +18047,49 @@
         <f t="shared" si="11"/>
         <v>19.774999999999999</v>
       </c>
-      <c r="H71" s="118">
+      <c r="H71" s="111">
         <f t="shared" si="12"/>
         <v>0.19775000000000001</v>
       </c>
-      <c r="I71" s="118">
+      <c r="I71" s="111">
         <f>C71/(F71*10)</f>
         <v>5.0568900126422252</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="119">
+        <v>111</v>
+      </c>
+      <c r="D74" s="112">
         <f>MAX(F57:F61)-MIN(F57:F61)</f>
         <v>8.8000000000000114</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="119">
+        <v>113</v>
+      </c>
+      <c r="D75" s="112">
         <f>MAX(F62:F66)-MIN(F62:F66)</f>
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="119">
+        <v>114</v>
+      </c>
+      <c r="D76" s="112">
         <f>MAX(F67:F71)-MIN(F67:F71)</f>
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -18296,35 +18206,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18612,27 +18493,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18651,4 +18541,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>